--- a/data/mistakes/Morfeusz_lemma_mistakes.xlsx
+++ b/data/mistakes/Morfeusz_lemma_mistakes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E153"/>
+  <dimension ref="A1:E264"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,22 +461,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>dobrrzyńskiej</t>
+          <t>dziad</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>ziemi dobrrzyńskiej (</t>
+          <t xml:space="preserve"> dziad mój</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>dobrzyńska</t>
+          <t>dziad</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>dobrrzyńskiej</t>
+          <t>Dziad</t>
         </is>
       </c>
     </row>
@@ -486,22 +486,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>p</t>
+          <t>komornika</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>. p .</t>
+          <t>jana komornika ziemi</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>p</t>
+          <t>komornik</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>list_świętego_piotra</t>
+          <t>Komornik</t>
         </is>
       </c>
     </row>
@@ -511,22 +511,22 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>wdokumentach</t>
+          <t>dobrrzyńskiej</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>później wdokumentach się</t>
+          <t>ziemi dobrrzyńskiej (</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>dokument</t>
+          <t>dobrzyńska</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>wdokumentach</t>
+          <t>Dobrrzyńskiej</t>
         </is>
       </c>
     </row>
@@ -536,22 +536,22 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pinińskich</t>
+          <t>p</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>z pinińskich właścicieli</t>
+          <t>. p .</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Piniński</t>
+          <t>p</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Pinińskich</t>
+          <t>List_świętego_Piotra</t>
         </is>
       </c>
     </row>
@@ -561,22 +561,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>adlinencjami</t>
+          <t>wdokumentach</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>z adlinencjami puszczanki</t>
+          <t>później wdokumentach się</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>adlinencja</t>
+          <t>dokument</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>adlinencjami</t>
+          <t>wdokumentach</t>
         </is>
       </c>
     </row>
@@ -586,22 +586,22 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>puszczanki</t>
+          <t>pinińskich</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>adlinencjami puszczanki ,</t>
+          <t>z pinińskich właścicieli</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Puszczanka</t>
+          <t>Piniński</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>puszczanka</t>
+          <t>Pinińskich</t>
         </is>
       </c>
     </row>
@@ -611,22 +611,22 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>śp</t>
+          <t>dóbr</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>że śp dziad</t>
+          <t>właścicieli dóbr strużewo</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>świętej</t>
+          <t>dobra</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>śp</t>
+          <t>Dobra</t>
         </is>
       </c>
     </row>
@@ -636,22 +636,22 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>śp</t>
+          <t>adlinencjami</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>miał śp .</t>
+          <t>z adlinencjami puszczanki</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>świętej</t>
+          <t>adlinencja</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>świętej_pamięci</t>
+          <t>adlinencjami</t>
         </is>
       </c>
     </row>
@@ -661,22 +661,22 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>głuską</t>
+          <t>puszczanki</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>z głuską z</t>
+          <t>adlinencjami puszczanki ,</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Głuska</t>
+          <t>Puszczanka</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>głuski</t>
+          <t>puszczanka</t>
         </is>
       </c>
     </row>
@@ -686,22 +686,22 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>floyrana</t>
+          <t>śp</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>i floyrana .</t>
+          <t>że śp dziad</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Floyran</t>
+          <t>świętej</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Floyrana</t>
+          <t>śp</t>
         </is>
       </c>
     </row>
@@ -711,22 +711,22 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>korytyńską</t>
+          <t>dziad</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>z korytyńską ,</t>
+          <t>śp dziad mój</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Korytyńska</t>
+          <t>dziad</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Korytyńską</t>
+          <t>Dziad</t>
         </is>
       </c>
     </row>
@@ -736,22 +736,22 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>muczynowską</t>
+          <t>panna</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>z muczynowską –</t>
+          <t>siostra panna urszula</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Muczynowska</t>
+          <t>panna</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Muczynowską</t>
+          <t>Panna</t>
         </is>
       </c>
     </row>
@@ -761,22 +761,22 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>rzotoławskim</t>
+          <t>stryjów</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>za rzotoławskim –</t>
+          <t>. stryjów miał</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Rzotoławski</t>
+          <t>stryj</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Rzotoławskim</t>
+          <t>Stryj</t>
         </is>
       </c>
     </row>
@@ -791,7 +791,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>stryjecznych śp .</t>
+          <t>miał śp .</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -811,22 +811,22 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>niewiem</t>
+          <t>głuską</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>. niewiem o</t>
+          <t>z głuską z</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>niewiedzieć</t>
+          <t>Głuska</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>niewiem</t>
+          <t>głuski</t>
         </is>
       </c>
     </row>
@@ -836,22 +836,22 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>czermiński</t>
+          <t>floyrana</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>karol czermiński –</t>
+          <t>i floyrana .</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Czermiński</t>
+          <t>Floyran</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>czermiński</t>
+          <t>Floyrana</t>
         </is>
       </c>
     </row>
@@ -861,22 +861,22 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>wychowanie</t>
+          <t>korytyńską</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>na wychowanie po</t>
+          <t>z korytyńską ,</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>wychowanie</t>
+          <t>Korytyńska</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>wychować</t>
+          <t>Korytyńską</t>
         </is>
       </c>
     </row>
@@ -886,22 +886,22 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>niepamiętam</t>
+          <t>muczynowską</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>jakim niepamiętam .</t>
+          <t>z muczynowską –</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>niepamiętać</t>
+          <t>Muczynowska</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>niepamiętam</t>
+          <t>Muczynowską</t>
         </is>
       </c>
     </row>
@@ -911,22 +911,22 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>brzeżan</t>
+          <t>rzotoławskim</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>dziedziców brzeżan i</t>
+          <t>za rzotoławskim –</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Brzeżany</t>
+          <t>Rzotoławski</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>brzeżanin</t>
+          <t>Rzotoławskim</t>
         </is>
       </c>
     </row>
@@ -936,22 +936,22 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>stryjskim</t>
+          <t>śp</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>w stryjskim .</t>
+          <t>stryjecznych śp .</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Stryjski</t>
+          <t>świętej</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>stryjski</t>
+          <t>świętej_pamięci</t>
         </is>
       </c>
     </row>
@@ -961,22 +961,22 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>dobra</t>
+          <t>niewiem</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>rozległe dobra w</t>
+          <t>. niewiem o</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>dobra</t>
+          <t>niewiedzieć</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>dobry</t>
+          <t>Niewiem</t>
         </is>
       </c>
     </row>
@@ -986,22 +986,22 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>melchiorem</t>
+          <t>czermiński</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>przed melchiorem .</t>
+          <t>karol czermiński –</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Melchior</t>
+          <t>Czermiński</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>melchior</t>
+          <t>czermiński</t>
         </is>
       </c>
     </row>
@@ -1011,22 +1011,22 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>administracyę</t>
+          <t>dziad</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>objął administracyę tych</t>
+          <t>jakoby dziad jego</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>administracya</t>
+          <t>dziad</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>administracyę</t>
+          <t>Dziad</t>
         </is>
       </c>
     </row>
@@ -1036,22 +1036,22 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>tem</t>
+          <t>wychowanie</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>ujęty tem zaproponował</t>
+          <t>na wychowanie po</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>to</t>
+          <t>wychowanie</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>tema</t>
+          <t>wychować</t>
         </is>
       </c>
     </row>
@@ -1061,22 +1061,22 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>śp</t>
+          <t>starostą</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>zaproponował śp .</t>
+          <t>podobno starostą ,</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>świętej</t>
+          <t>starosta</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>świętej_pamięci</t>
+          <t>Starosta</t>
         </is>
       </c>
     </row>
@@ -1086,22 +1086,22 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>śp</t>
+          <t>niepamiętam</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>pojechał śp .</t>
+          <t>jakim niepamiętam .</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>świętej</t>
+          <t>niepamiętać</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>świętej_pamięci</t>
+          <t>niepamiętam</t>
         </is>
       </c>
     </row>
@@ -1111,22 +1111,22 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>chyrowskiey</t>
+          <t>dziedziców</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>posadzie chyrowskiey zapędziły</t>
+          <t>, dziedziców brzeżan</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>chyrowska</t>
+          <t>dziedzic</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Chyrowskiey</t>
+          <t>Dziedzic</t>
         </is>
       </c>
     </row>
@@ -1136,22 +1136,22 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pierściorowskim</t>
+          <t>brzeżan</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>pierwszym pierściorowskim miała</t>
+          <t>dziedziców brzeżan i</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Pierściorowski</t>
+          <t>Brzeżany</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Pierściorowskim</t>
+          <t>brzeżanin</t>
         </is>
       </c>
     </row>
@@ -1161,22 +1161,22 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>maryę</t>
+          <t>pan</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>córkę maryę ,</t>
+          <t>zaś pan potocki</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Marya</t>
+          <t>pan</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Maryę</t>
+          <t>Pan</t>
         </is>
       </c>
     </row>
@@ -1186,22 +1186,22 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>kleofasę</t>
+          <t>pana</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>, kleofasę .</t>
+          <t>odwiedzał pana starostę</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Kleofasa</t>
+          <t>pan</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Kleofasę</t>
+          <t>Pan</t>
         </is>
       </c>
     </row>
@@ -1211,22 +1211,22 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>gościowi</t>
+          <t>starostę</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>gosposia gościowi a</t>
+          <t>pana starostę ,</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>gość</t>
+          <t>starosta</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>gościowy</t>
+          <t>Starosta</t>
         </is>
       </c>
     </row>
@@ -1236,22 +1236,22 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>śp</t>
+          <t>pan</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>a śp .</t>
+          <t>zapytał pan potocki</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>świętej</t>
+          <t>pan</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>świętej_pamięci</t>
+          <t>Pan</t>
         </is>
       </c>
     </row>
@@ -1261,22 +1261,22 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>asińdźka</t>
+          <t>pan</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>wiesz asińdźka co</t>
+          <t>mu pan starosta</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Asińdźka</t>
+          <t>pan</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>asińdźka</t>
+          <t>Pan</t>
         </is>
       </c>
     </row>
@@ -1286,22 +1286,22 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>chyrowskim</t>
+          <t>starosta</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>kościele chyrowskim pobłogosławił</t>
+          <t>pan starosta całą</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>chyrowski</t>
+          <t>starosta</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>chyrowskim</t>
+          <t>Starosta</t>
         </is>
       </c>
     </row>
@@ -1311,22 +1311,22 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>czołhanach</t>
+          <t>pan</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>w czołhanach roku</t>
+          <t>wtenczas pan potocki</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Czołhany</t>
+          <t>pan</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Czołhanach</t>
+          <t>Pan</t>
         </is>
       </c>
     </row>
@@ -1336,22 +1336,22 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>osiedli</t>
+          <t>pana</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>nauki osiedli na</t>
+          <t>sobie pana potockiego</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>osiadać</t>
+          <t>pan</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>osiedle</t>
+          <t>Pan</t>
         </is>
       </c>
     </row>
@@ -1361,22 +1361,22 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>stan</t>
+          <t>patrona</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>za stan .</t>
+          <t>swojego patrona ,</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Stanisława</t>
+          <t>patron</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>stan</t>
+          <t>Patron</t>
         </is>
       </c>
     </row>
@@ -1386,22 +1386,22 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>aug</t>
+          <t>dobra</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>. aug .</t>
+          <t>rozległe dobra w</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Augusta</t>
+          <t>dobra</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>aug</t>
+          <t>dobry</t>
         </is>
       </c>
     </row>
@@ -1411,22 +1411,22 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>poniatowskiego</t>
+          <t>melchiorem</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>. poniatowskiego –</t>
+          <t>przed melchiorem .</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Poniatowski</t>
+          <t>Melchior</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>poniatowski</t>
+          <t>melchior</t>
         </is>
       </c>
     </row>
@@ -1436,22 +1436,22 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>bludnikach</t>
+          <t>dziad</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>w bludnikach –</t>
+          <t>wtenczas dziad mój</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Bludniki</t>
+          <t>dziad</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Bludnik</t>
+          <t>Dziad</t>
         </is>
       </c>
     </row>
@@ -1461,22 +1461,22 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>bombardowaniu</t>
+          <t>administracyę</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>przy bombardowaniu lwowa</t>
+          <t>objął administracyę tych</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>bombardowanie</t>
+          <t>administracya</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>bombardować</t>
+          <t>administracyę</t>
         </is>
       </c>
     </row>
@@ -1486,22 +1486,22 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>obrucona</t>
+          <t>dziada</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>perzynę obrucona –</t>
+          <t>dla dziada mojego</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>obrucony</t>
+          <t>dziad</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>obrucona</t>
+          <t>Dziad</t>
         </is>
       </c>
     </row>
@@ -1511,22 +1511,22 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>niespotyka</t>
+          <t>dziad</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>się niespotyka .</t>
+          <t>mój dziad panu</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>niespotykać</t>
+          <t>dziad</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>niespotyka</t>
+          <t>Dziad</t>
         </is>
       </c>
     </row>
@@ -1536,22 +1536,22 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>dobrami</t>
+          <t>tem</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>wielkimi dobrami ,</t>
+          <t>ujęty tem zaproponował</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>dobra</t>
+          <t>to</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>dobro</t>
+          <t>tema</t>
         </is>
       </c>
     </row>
@@ -1561,22 +1561,22 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>arye</t>
+          <t>śp</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>różne arye krakowiaki</t>
+          <t>zaproponował śp .</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>arya</t>
+          <t>świętej</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>arye</t>
+          <t>świętej_pamięci</t>
         </is>
       </c>
     </row>
@@ -1586,22 +1586,22 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>świerzawski</t>
+          <t>pan</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>wuj świerzawski kuzyn</t>
+          <t>pamięci pan melchior</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Świerzawski</t>
+          <t>pan</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>świerzawski</t>
+          <t>Pan</t>
         </is>
       </c>
     </row>
@@ -1611,22 +1611,22 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>kuzyn</t>
+          <t>stryjskim</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>świerzawski kuzyn polanowskich</t>
+          <t>w stryjskim cyrkule</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>kuzyn</t>
+          <t>stryjski</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>kuzyna</t>
+          <t>Stryjski</t>
         </is>
       </c>
     </row>
@@ -1636,22 +1636,22 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>polanowskich</t>
+          <t>panną</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>kuzyn polanowskich z</t>
+          <t>z panną kobylską</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Polanowski</t>
+          <t>panna</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>polanowski</t>
+          <t>Panna</t>
         </is>
       </c>
     </row>
@@ -1661,22 +1661,22 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>bełzkiego</t>
+          <t>śp</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>z bełzkiego często</t>
+          <t>pojechał śp .</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Bełzkie</t>
+          <t>świętej</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Bełzkiego</t>
+          <t>świętej_pamięci</t>
         </is>
       </c>
     </row>
@@ -1686,22 +1686,22 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>moszkowie</t>
+          <t>posadzie</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>w moszkowie z</t>
+          <t>na posadzie chyrowskiey</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Moszkowo</t>
+          <t>posada</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Moszek</t>
+          <t>Posada</t>
         </is>
       </c>
     </row>
@@ -1711,22 +1711,22 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>śp</t>
+          <t>chyrowskiey</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>mi śp .</t>
+          <t>posadzie chyrowskiey zapędziły</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>świętej</t>
+          <t>chyrowska</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>świętej_pamięci</t>
+          <t>Chyrowskiey</t>
         </is>
       </c>
     </row>
@@ -1736,22 +1736,22 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>rosyi</t>
+          <t>pierściorowskim</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>w rosyi –</t>
+          <t>pierwszym pierściorowskim miała</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Rosya</t>
+          <t>Pierściorowski</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Rosyi</t>
+          <t>Pierściorowskim</t>
         </is>
       </c>
     </row>
@@ -1761,22 +1761,22 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>śp</t>
+          <t>maryę</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>zakończył śp .</t>
+          <t>córkę maryę ,</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>świętej</t>
+          <t>Marya</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>świętej_pamięci</t>
+          <t>Maryę</t>
         </is>
       </c>
     </row>
@@ -1786,22 +1786,22 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>kończ</t>
+          <t>kleofasę</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>do kończ życia</t>
+          <t>, kleofasę .</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>koniec</t>
+          <t>Kleofasa</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>kończyć</t>
+          <t>Kleofasę</t>
         </is>
       </c>
     </row>
@@ -1811,22 +1811,22 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>assekuracyi</t>
+          <t>gościowi</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>w assekuracyi armat</t>
+          <t>gosposia gościowi a</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>assekuracya</t>
+          <t>gość</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>assekuracyi</t>
+          <t>gościowy</t>
         </is>
       </c>
     </row>
@@ -1836,22 +1836,22 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>skrzętnem</t>
+          <t>śp</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>fortuny skrzętnem gospodarstwem</t>
+          <t>a śp .</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>skrzętny</t>
+          <t>świętej</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>skrzętnem</t>
+          <t>świętej_pamięci</t>
         </is>
       </c>
     </row>
@@ -1861,22 +1861,22 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>tem</t>
+          <t>asińdźka</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>po tem jak</t>
+          <t>wiesz asińdźka co</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>to</t>
+          <t>Asińdźka</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>tema</t>
+          <t>asińdźka</t>
         </is>
       </c>
     </row>
@@ -1886,22 +1886,22 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>bludniki</t>
+          <t>pan</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>kupił bludniki za</t>
+          <t>drżącą pan melchior</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Bludniki</t>
+          <t>pan</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Bludnik</t>
+          <t>Pan</t>
         </is>
       </c>
     </row>
@@ -1911,22 +1911,22 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>któremi</t>
+          <t>pannie</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>nad któremi obeymował</t>
+          <t>wstąpi pannie się</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>który</t>
+          <t>panna</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>któremi</t>
+          <t>Panna</t>
         </is>
       </c>
     </row>
@@ -1936,22 +1936,22 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>obeymował</t>
+          <t>chyrowskim</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>któremi obeymował dziedzictwo</t>
+          <t>kościele chyrowskim pobłogosławił</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>obeymować</t>
+          <t>chyrowski</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>obeymował</t>
+          <t>Chyrowskim</t>
         </is>
       </c>
     </row>
@@ -1961,22 +1961,22 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>juryzdyksye</t>
+          <t>dziekan</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>prawną juryzdyksye sądową</t>
+          <t>ówczesny dziekan i</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>juryzdyksya</t>
+          <t>dziekan</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>juryzdyksye</t>
+          <t>Dziekan</t>
         </is>
       </c>
     </row>
@@ -1986,22 +1986,22 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>instantacyi</t>
+          <t>oyciec</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>pierwszey instantacyi .</t>
+          <t>mój oyciec franciszek</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>instantacya</t>
+          <t>oyciec</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>instantacyi</t>
+          <t>Oyciec</t>
         </is>
       </c>
     </row>
@@ -2011,22 +2011,22 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>śp</t>
+          <t>czołhanach</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>em śp .</t>
+          <t>w czołhanach roku</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>świętej</t>
+          <t>Czołhany</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>świętej_pamięci</t>
+          <t>Czołhanach</t>
         </is>
       </c>
     </row>
@@ -2036,22 +2036,22 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>kmiecie</t>
+          <t>osiedli</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>jego kmiecie na</t>
+          <t>nauki osiedli na</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>kmieć</t>
+          <t>osiadać</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>kmieci</t>
+          <t>osiedle</t>
         </is>
       </c>
     </row>
@@ -2061,22 +2061,22 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>mają</t>
+          <t>babki</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>najlepsze mają konie</t>
+          <t>mojej babki ,</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>mieć</t>
+          <t>babka</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>maić</t>
+          <t>Babka</t>
         </is>
       </c>
     </row>
@@ -2086,22 +2086,22 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>bydle</t>
+          <t>stan</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>padło bydle robocze</t>
+          <t>za stan .</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>bydlę</t>
+          <t>Stanisława</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>bydło</t>
+          <t>Stan</t>
         </is>
       </c>
     </row>
@@ -2111,22 +2111,22 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>dłużanie</t>
+          <t>aug</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>raz dłużanie żalili</t>
+          <t>. aug .</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Dłużanin</t>
+          <t>Augusta</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Dłużanie</t>
+          <t>Aug</t>
         </is>
       </c>
     </row>
@@ -2136,22 +2136,22 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>niemają</t>
+          <t>poniatowskiego</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>że niemają dogodnego</t>
+          <t>. poniatowskiego –</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>niemieć</t>
+          <t>Poniatowski</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>niemaja</t>
+          <t>poniatowski</t>
         </is>
       </c>
     </row>
@@ -2161,22 +2161,22 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>śp</t>
+          <t>bludnikach</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>oddzieli śp .</t>
+          <t>w bludnikach –</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>świętej</t>
+          <t>Bludniki</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>świętej_pamięci</t>
+          <t>Bludnik</t>
         </is>
       </c>
     </row>
@@ -2186,22 +2186,22 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>suchey</t>
+          <t>abbum</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>morgów suchey łąki</t>
+          <t>drzwiami abbum treterianum</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>suchy</t>
+          <t>abbum</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>suchey</t>
+          <t>Abbum</t>
         </is>
       </c>
     </row>
@@ -2211,22 +2211,22 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>podedworem</t>
+          <t>treterianum</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>łąki podedworem a</t>
+          <t>abbum treterianum .</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>podedwór</t>
+          <t>treterianum</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>podedworem</t>
+          <t>Treterianum</t>
         </is>
       </c>
     </row>
@@ -2236,22 +2236,22 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>nayskładniey</t>
+          <t>bombardowaniu</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>a nayskładniey położone</t>
+          <t>przy bombardowaniu lwowa</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>składnie</t>
+          <t>bombardowanie</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>nayskładniey</t>
+          <t>bombardować</t>
         </is>
       </c>
     </row>
@@ -2261,22 +2261,22 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>niebył</t>
+          <t>obrucona</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>. niebył to</t>
+          <t>perzynę obrucona –</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>niebyć</t>
+          <t>obrucony</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>niebyła</t>
+          <t>obrucona</t>
         </is>
       </c>
     </row>
@@ -2286,22 +2286,22 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>oycowskiey</t>
+          <t>niespotyka</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>. oycowskiey .</t>
+          <t>się niespotyka .</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>oycowski</t>
+          <t>niespotykać</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>oycowskiey</t>
+          <t>niespotyka</t>
         </is>
       </c>
     </row>
@@ -2311,22 +2311,22 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>warżenia</t>
+          <t>dobrami</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>prawo warżenia piwa</t>
+          <t>wielkimi dobrami ,</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>warżyć</t>
+          <t>dobra</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>warżenia</t>
+          <t>dobro</t>
         </is>
       </c>
     </row>
@@ -2336,22 +2336,22 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>dworskim</t>
+          <t>arye</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>tak dworskim jak</t>
+          <t>różne arye krakowiaki</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>dworski</t>
+          <t>arya</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>dworskie</t>
+          <t>arye</t>
         </is>
       </c>
     </row>
@@ -2361,22 +2361,22 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>miarkmi</t>
+          <t>oyca</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>– miarkmi wianki</t>
+          <t>mojego oyca –</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>miarka</t>
+          <t>oyca</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>miarkmi</t>
+          <t>Oyca</t>
         </is>
       </c>
     </row>
@@ -2386,22 +2386,22 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>takiem</t>
+          <t>oyca</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>przy takiem obciążeniu</t>
+          <t>familii oyca się</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>taki</t>
+          <t>oyca</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>takiem</t>
+          <t>Oyca</t>
         </is>
       </c>
     </row>
@@ -2411,22 +2411,22 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>jurysdykcyi</t>
+          <t>pan</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>urzędowa jurysdykcyi był</t>
+          <t>leży pan stanisław</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>jurysdykcya</t>
+          <t>pan</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>jurysdykcyi</t>
+          <t>Pan</t>
         </is>
       </c>
     </row>
@@ -2436,22 +2436,22 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>bludniki</t>
+          <t>pan</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>dominium bludniki –</t>
+          <t>że pan tylko</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Bludniki</t>
+          <t>pan</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Bludnik</t>
+          <t>Pan</t>
         </is>
       </c>
     </row>
@@ -2461,22 +2461,22 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>t</t>
+          <t>świerzawski</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>i t .</t>
+          <t>wuj świerzawski kuzyn</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>tym</t>
+          <t>Świerzawski</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>tona</t>
+          <t>świerzawski</t>
         </is>
       </c>
     </row>
@@ -2486,22 +2486,22 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>p</t>
+          <t>kuzyn</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>. p .</t>
+          <t>świerzawski kuzyn polanowskich</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>podobne</t>
+          <t>kuzyn</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>list_świętego_piotra</t>
+          <t>kuzyna</t>
         </is>
       </c>
     </row>
@@ -2511,22 +2511,22 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>niemógł</t>
+          <t>polanowskich</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>nieszlachcic niemógł kupować</t>
+          <t>kuzyn polanowskich z</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>niemóc</t>
+          <t>Polanowski</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>niemógł</t>
+          <t>polanowski</t>
         </is>
       </c>
     </row>
@@ -2536,22 +2536,22 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>swojem</t>
+          <t>bełzkiego</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>na swojem mieycus</t>
+          <t>z bełzkiego często</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>swój</t>
+          <t>Bełzkie</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>swojem</t>
+          <t>Bełzkiego</t>
         </is>
       </c>
     </row>
@@ -2561,22 +2561,22 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>mieycus</t>
+          <t>moszkowie</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>swojem mieycus mandatariusza</t>
+          <t>w moszkowie z</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>mieysce</t>
+          <t>Moszkowo</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>mieycus</t>
+          <t>Moszek</t>
         </is>
       </c>
     </row>
@@ -2586,22 +2586,22 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>niemogło</t>
+          <t>śp</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>– niemogło się</t>
+          <t>mi śp .</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>niemóc</t>
+          <t>świętej</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>niemogło</t>
+          <t>świętej_pamięci</t>
         </is>
       </c>
     </row>
@@ -2611,22 +2611,22 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>dominii</t>
+          <t>dziadek</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>z dominii nieprzyniósł</t>
+          <t>. dziadek móy</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>dominia</t>
+          <t>dziadek</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>dominii</t>
+          <t>Dziadek</t>
         </is>
       </c>
     </row>
@@ -2636,22 +2636,22 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>p</t>
+          <t>komornikowej</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>domu p .</t>
+          <t>pani komornikowej niepomięła</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>p</t>
+          <t>komornikowej</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>list_świętego_piotra</t>
+          <t>Komornikowej</t>
         </is>
       </c>
     </row>
@@ -2661,22 +2661,22 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>t</t>
+          <t>niewiem</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>. t dziadek</t>
+          <t>. niewiem jakim</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>t</t>
+          <t>niewiem</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>tona</t>
+          <t>Niewiem</t>
         </is>
       </c>
     </row>
@@ -2686,22 +2686,22 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>mandatariaty</t>
+          <t>rosyi</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>. mandatariaty po</t>
+          <t>w rosyi –</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>mandatariat</t>
+          <t>Rosya</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>mandatariaty</t>
+          <t>Rosyi</t>
         </is>
       </c>
     </row>
@@ -2711,22 +2711,22 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>ludowemi</t>
+          <t>pan</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>dziś ludowemi zwanych</t>
+          <t>nim pan stanisław</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>ludowe</t>
+          <t>pan</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>ludowemi</t>
+          <t>Pan</t>
         </is>
       </c>
     </row>
@@ -2736,22 +2736,22 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>manipulacyi</t>
+          <t>sachsen</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>– manipulacyi urzędowey</t>
+          <t>do sachsen cobary</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>manipulacya</t>
+          <t>sachsen</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>manipulacyi</t>
+          <t>Sachsen</t>
         </is>
       </c>
     </row>
@@ -2761,22 +2761,22 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>urzędowey</t>
+          <t>cobary</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>manipulacyi urzędowey –</t>
+          <t>sachsen cobary ułanów</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>urzędowa</t>
+          <t>cobary</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>urzędowey</t>
+          <t>Cobary</t>
         </is>
       </c>
     </row>
@@ -2786,22 +2786,22 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>domnikalnego</t>
+          <t>ułanów</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>reprezentanta domnikalnego czyli</t>
+          <t>cobary ułanów mając</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>domnikalny</t>
+          <t>ułan</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>domnikalnego</t>
+          <t>Ułan</t>
         </is>
       </c>
     </row>
@@ -2811,22 +2811,22 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>depozyta</t>
+          <t>p</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>i depozyta starościńskie</t>
+          <t>. p .</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>depozyt</t>
+          <t>p</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>depozyta</t>
+          <t>List_świętego_Piotra</t>
         </is>
       </c>
     </row>
@@ -2836,22 +2836,22 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>pensyę</t>
+          <t>nieśmiał</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>dziedzica pensyę od</t>
+          <t>ja nieśmiał em</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>pensya</t>
+          <t>nieśmieć</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>pensyę</t>
+          <t>MISPARSED</t>
         </is>
       </c>
     </row>
@@ -2861,22 +2861,22 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>ordynaryi</t>
+          <t>em</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>korcy ordynaryi –</t>
+          <t>nieśmiał em wypytywać</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>ordynarya</t>
+          <t>być</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>ordynaryi</t>
+          <t>MISPARSED</t>
         </is>
       </c>
     </row>
@@ -2886,22 +2886,22 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>szczupłey</t>
+          <t>niebył</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>tak szczupłey dotacyi</t>
+          <t>wreszcie niebył em</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>szczupła</t>
+          <t>niebyć</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>szczupłey</t>
+          <t>MISPARSED</t>
         </is>
       </c>
     </row>
@@ -2911,22 +2911,22 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>dotacyi</t>
+          <t>em</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>szczupłey dotacyi uwzględniając</t>
+          <t>niebył em nigdy</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>dotacya</t>
+          <t>być</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>dotacyi</t>
+          <t>MISPARSED</t>
         </is>
       </c>
     </row>
@@ -2936,22 +2936,22 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>mając</t>
+          <t>oycem</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>– mając przytem</t>
+          <t>z oycem na</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>mieć</t>
+          <t>oycem</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>maić</t>
+          <t>Oycem</t>
         </is>
       </c>
     </row>
@@ -2961,22 +2961,22 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>lepiey</t>
+          <t>oyciec</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>nieraz lepiey jak</t>
+          <t>a oyciec ciągle</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>dobrze</t>
+          <t>oyciec</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>lepiey</t>
+          <t>Oyciec</t>
         </is>
       </c>
     </row>
@@ -2986,22 +2986,22 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>ładąn</t>
+          <t>śp</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>– ładąn parą</t>
+          <t>zakończył śp .</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>ładna</t>
+          <t>świętej</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>ładąn</t>
+          <t>świętej_pamięci</t>
         </is>
       </c>
     </row>
@@ -3011,22 +3011,22 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>bludnikach</t>
+          <t>oyciec</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>w bludnikach –</t>
+          <t>móy oyciec około</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Bludniki</t>
+          <t>oyciec</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Bludnik</t>
+          <t>Oyciec</t>
         </is>
       </c>
     </row>
@@ -3036,22 +3036,22 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>bludnik</t>
+          <t>kończ</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>do bludnik należały</t>
+          <t>do kończ życia</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Bludniki</t>
+          <t>koniec</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Bludnik</t>
+          <t>kończyć</t>
         </is>
       </c>
     </row>
@@ -3061,22 +3061,22 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>siedliska</t>
+          <t>assekuracyi</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>i siedliska –</t>
+          <t>w assekuracyi armat</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Siedliska</t>
+          <t>assekuracya</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>siedliski</t>
+          <t>assekuracyi</t>
         </is>
       </c>
     </row>
@@ -3086,22 +3086,22 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>grube</t>
+          <t>dziadek</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>bielone grube po</t>
+          <t>. dziadek melchior</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>gruby</t>
+          <t>dziadek</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>grube</t>
+          <t>Dziadek</t>
         </is>
       </c>
     </row>
@@ -3111,22 +3111,22 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>zkończone</t>
+          <t>skrzętnem</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>białą zkończone )</t>
+          <t>fortuny skrzętnem gospodarstwem</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>zkończony</t>
+          <t>skrzętny</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>zkończone</t>
+          <t>skrzętnem</t>
         </is>
       </c>
     </row>
@@ -3136,22 +3136,22 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>człowiecze</t>
+          <t>stryjskim</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>ty człowiecze na</t>
+          <t>w stryjskim -</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>człowiek</t>
+          <t>stryjski</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>człowieczy</t>
+          <t>Stryjski</t>
         </is>
       </c>
     </row>
@@ -3161,22 +3161,22 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>nieporadzisz</t>
+          <t>tem</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>mi nieporadzisz –</t>
+          <t>po tem jak</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>nieporadzić</t>
+          <t>to</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>nieporadzisz</t>
+          <t>tema</t>
         </is>
       </c>
     </row>
@@ -3186,22 +3186,22 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>mojey</t>
+          <t>bludniki</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>za mojey pamięci</t>
+          <t>kupił bludniki za</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>mój</t>
+          <t>Bludniki</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>mojey</t>
+          <t>Bludnik</t>
         </is>
       </c>
     </row>
@@ -3211,22 +3211,22 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>bludnikach</t>
+          <t>dziedzic</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>w bludnikach .</t>
+          <t>nowy dziedzic wchodził</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Bludniki</t>
+          <t>dziedzic</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Bludnik</t>
+          <t>Dziedzic</t>
         </is>
       </c>
     </row>
@@ -3236,22 +3236,22 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>jaszcze</t>
+          <t>któremi</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>był jaszcze tam</t>
+          <t>nad któremi obeymował</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>jaszcze</t>
+          <t>który</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>jaszcz</t>
+          <t>któremi</t>
         </is>
       </c>
     </row>
@@ -3261,22 +3261,22 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>głoweckiego</t>
+          <t>obeymował</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>owego głoweckiego –</t>
+          <t>któremi obeymował dziedzictwo</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Głowecki</t>
+          <t>obeymować</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Głoweckiego</t>
+          <t>obeymował</t>
         </is>
       </c>
     </row>
@@ -3286,22 +3286,22 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>późney</t>
+          <t>juryzdyksye</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>tak późney dokupił</t>
+          <t>prawną juryzdyksye sądową</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>późno</t>
+          <t>juryzdyksya</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>późney</t>
+          <t>juryzdyksye</t>
         </is>
       </c>
     </row>
@@ -3311,22 +3311,22 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>dochorowie</t>
+          <t>instantacyi</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>w dochorowie osadził</t>
+          <t>pierwszey instantacyi .</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Dochorów</t>
+          <t>instantacya</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Dochorowie</t>
+          <t>instantacyi</t>
         </is>
       </c>
     </row>
@@ -3336,22 +3336,22 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>nayjstarszego</t>
+          <t>pan</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>osadził nayjstarszego syna</t>
+          <t>to pan dawał</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>stary</t>
+          <t>pan</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>nayjstarszego</t>
+          <t>Pan</t>
         </is>
       </c>
     </row>
@@ -3361,22 +3361,22 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>bludniki</t>
+          <t>śp</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>. bludniki oddał</t>
+          <t>em śp .</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Bludniki</t>
+          <t>świętej</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Bludnik</t>
+          <t>świętej_pamięci</t>
         </is>
       </c>
     </row>
@@ -3386,22 +3386,22 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>ioycu</t>
+          <t>dziadka</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>józefowi ioycu mojemu</t>
+          <t>. dziadka ostaszewskigo</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>ioyciec</t>
+          <t>dziadek</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>ioycu</t>
+          <t>Dziadek</t>
         </is>
       </c>
     </row>
@@ -3411,22 +3411,22 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>siemginowa</t>
+          <t>kmiecie</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>do siemginowa –</t>
+          <t>jego kmiecie na</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Siemginów</t>
+          <t>kmieć</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Siemginowa</t>
+          <t>kmieci</t>
         </is>
       </c>
     </row>
@@ -3436,22 +3436,22 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>dośmierci</t>
+          <t>mają</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>aż dośmierci oyca</t>
+          <t>najlepsze mają konie</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>dośmierć</t>
+          <t>mieć</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>dośmierci</t>
+          <t>maić</t>
         </is>
       </c>
     </row>
@@ -3461,22 +3461,22 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>oyca</t>
+          <t>bydle</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>dośmierci oyca przy</t>
+          <t>padło bydle robocze</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>oyciec</t>
+          <t>bydlę</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>oyca</t>
+          <t>bydło</t>
         </is>
       </c>
     </row>
@@ -3486,22 +3486,22 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>niewinem</t>
+          <t>dłużanie</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>lipa niewinem .</t>
+          <t>raz dłużanie żalili</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>niewiedzieć</t>
+          <t>Dłużanin</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>niewino</t>
+          <t>Dłużanie</t>
         </is>
       </c>
     </row>
@@ -3511,22 +3511,22 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>bludnikami</t>
+          <t>niemają</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>z bludnikami o</t>
+          <t>że niemają dogodnego</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Bludniki</t>
+          <t>niemieć</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Bludnik</t>
+          <t>niemaja</t>
         </is>
       </c>
     </row>
@@ -3536,22 +3536,22 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>temerowiec</t>
+          <t>śp</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>z temerowiec ,</t>
+          <t>oddzieli śp .</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Temerowice</t>
+          <t>świętej</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Temerowiec</t>
+          <t>świętej_pamięci</t>
         </is>
       </c>
     </row>
@@ -3561,22 +3561,22 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>stanisława</t>
+          <t>pan</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>i stanisława zabilskich</t>
+          <t>. pan kazimierz</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Stanisław</t>
+          <t>pan</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Stanisława</t>
+          <t>Pan</t>
         </is>
       </c>
     </row>
@@ -3586,22 +3586,22 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>oycem</t>
+          <t>suchey</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>za oycem doszedłszy</t>
+          <t>morgów suchey łąki</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>oyciec</t>
+          <t>suchy</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>oycem</t>
+          <t>suchey</t>
         </is>
       </c>
     </row>
@@ -3611,22 +3611,22 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>sukcessyi</t>
+          <t>podedworem</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>prawem sukcessyi przeszedł</t>
+          <t>łąki podedworem a</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>sukcessya</t>
+          <t>podedwór</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>sukcessyi</t>
+          <t>podedworem</t>
         </is>
       </c>
     </row>
@@ -3636,22 +3636,22 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>niebył</t>
+          <t>nayskładniey</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>– niebył gospodarzem</t>
+          <t>a nayskładniey położone</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>niebyć</t>
+          <t>składnie</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>niebyła</t>
+          <t>nayskładniey</t>
         </is>
       </c>
     </row>
@@ -3661,22 +3661,22 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>więcey</t>
+          <t>niebył</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>gospodarzem więcey fantasta</t>
+          <t>. niebył to</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>dużo</t>
+          <t>niebyć</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>więcey</t>
+          <t>Niebyła</t>
         </is>
       </c>
     </row>
@@ -3686,22 +3686,22 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>gołey</t>
+          <t>oycowskiey</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>na gołey podłodze</t>
+          <t>. oycowskiey .</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>goła</t>
+          <t>oycowski</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>gołey</t>
+          <t>Oycowskiey</t>
         </is>
       </c>
     </row>
@@ -3711,22 +3711,22 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>niemogli</t>
+          <t>warżenia</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>ci niemogli długo</t>
+          <t>prawo warżenia piwa</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>niemóc</t>
+          <t>warżyć</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>niemogel</t>
+          <t>warżenia</t>
         </is>
       </c>
     </row>
@@ -3736,22 +3736,22 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>obeyściu</t>
+          <t>dworskim</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>na obeyściu niemożna</t>
+          <t>tak dworskim jak</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>obeyście</t>
+          <t>dworski</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>obeyściu</t>
+          <t>dworskie</t>
         </is>
       </c>
     </row>
@@ -3761,22 +3761,22 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>niemożna</t>
+          <t>miarkmi</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>obeyściu niemożna było</t>
+          <t>– miarkmi wianki</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>niemóc</t>
+          <t>miarka</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>niemożny</t>
+          <t>miarkmi</t>
         </is>
       </c>
     </row>
@@ -3786,22 +3786,22 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>oyca</t>
+          <t>takiem</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>mojego oyca spadała</t>
+          <t>przy takiem obciążeniu</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>oyciec</t>
+          <t>taki</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>oyca</t>
+          <t>takiem</t>
         </is>
       </c>
     </row>
@@ -3811,22 +3811,22 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>treterowej</t>
+          <t>jurysdykcyi</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>rodzonym treterowej i</t>
+          <t>urzędowa jurysdykcyi był</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Treterowa</t>
+          <t>jurysdykcya</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Treterowej</t>
+          <t>jurysdykcyi</t>
         </is>
       </c>
     </row>
@@ -3836,22 +3836,22 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>swieżaskiey</t>
+          <t>dziedzica</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>i swieżaskiey .</t>
+          <t>herb dziedzica –</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Swieżaska</t>
+          <t>dziedzic</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Swieżaskiey</t>
+          <t>Dziedzic</t>
         </is>
       </c>
     </row>
@@ -3861,22 +3861,22 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>kruszelnicę</t>
+          <t>bludniki</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>czy kruszelnicę –</t>
+          <t>dominium bludniki –</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Kruszelnica</t>
+          <t>Bludniki</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Kruszelnicę</t>
+          <t>Bludnik</t>
         </is>
       </c>
     </row>
@@ -3886,22 +3886,22 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>bludnik</t>
+          <t>t</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>sąsiedztwo bludnik do</t>
+          <t>i t .</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Bludniki</t>
+          <t>tym</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Bludnik</t>
+          <t>tona</t>
         </is>
       </c>
     </row>
@@ -3911,22 +3911,22 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>rudzkich</t>
+          <t>p</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>państwa rudzkich gdzie</t>
+          <t>. p .</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Rudzki</t>
+          <t>podobne</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>rudzki</t>
+          <t>List_świętego_Piotra</t>
         </is>
       </c>
     </row>
@@ -3936,22 +3936,22 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>siemiginowie</t>
+          <t>niemógł</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>na siemiginowie już</t>
+          <t>nieszlachcic niemógł kupować</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Siemiginów</t>
+          <t>niemóc</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Siemiginowie</t>
+          <t>niemógł</t>
         </is>
       </c>
     </row>
@@ -3961,22 +3961,22 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>sukcessorów</t>
+          <t>dziedzic</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>niema sukcessorów ,</t>
+          <t>. dziedzic postanawiał</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>sukcessor</t>
+          <t>dziedzic</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>sukcessorów</t>
+          <t>Dziedzic</t>
         </is>
       </c>
     </row>
@@ -3986,22 +3986,22 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>kruszelnicy</t>
+          <t>swojem</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>do kruszelnicy o</t>
+          <t>na swojem mieycus</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Kruszelnica</t>
+          <t>swój</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Kruszelnicy</t>
+          <t>swojem</t>
         </is>
       </c>
     </row>
@@ -4011,22 +4011,22 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>odległey</t>
+          <t>mieycus</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>mil odległey od</t>
+          <t>swojem mieycus mandatariusza</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>odległa</t>
+          <t>mieysce</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>odległey</t>
+          <t>mieycus</t>
         </is>
       </c>
     </row>
@@ -4036,22 +4036,22 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>siemignowa</t>
+          <t>dominikalnym</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>od siemignowa –</t>
+          <t>urzędzie dominikalnym .</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Siemignów</t>
+          <t>dominikalnym</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Siemignowa</t>
+          <t>Dominikalnym</t>
         </is>
       </c>
     </row>
@@ -4061,22 +4061,22 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>łania</t>
+          <t>niemogło</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>jak łania panna</t>
+          <t>– niemogło się</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>łania</t>
+          <t>niemóc</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>łani</t>
+          <t>niemogło</t>
         </is>
       </c>
     </row>
@@ -4086,22 +4086,22 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>siemiginowa</t>
+          <t>dominii</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>sukcessorka siemiginowa –</t>
+          <t>z dominii nieprzyniósł</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Siemiginów</t>
+          <t>dominia</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Siemiginowa</t>
+          <t>Dominii</t>
         </is>
       </c>
     </row>
@@ -4111,22 +4111,22 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>nawaryi</t>
+          <t>pan</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>koło nawaryi i</t>
+          <t>bo pan we</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Nawarya</t>
+          <t>pan</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Nawaryi</t>
+          <t>Pan</t>
         </is>
       </c>
     </row>
@@ -4136,22 +4136,22 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>ciepłey</t>
+          <t>p</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>ale ciepłey wdowy</t>
+          <t>domu p .</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>ciepła</t>
+          <t>p</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>ciepłey</t>
+          <t>List_świętego_Piotra</t>
         </is>
       </c>
     </row>
@@ -4161,22 +4161,22 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>szołayskiego</t>
+          <t>t</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>pana szołayskiego młodzika</t>
+          <t>. t dziadek</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Szołayski</t>
+          <t>t</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Szołayskiego</t>
+          <t>tona</t>
         </is>
       </c>
     </row>
@@ -4186,22 +4186,22 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>procesa</t>
+          <t>dziadek</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>lubiła procesa –</t>
+          <t>t dziadek móy</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>proces</t>
+          <t>dziadek</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>procesa</t>
+          <t>Dziadek</t>
         </is>
       </c>
     </row>
@@ -4211,22 +4211,22 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>lesniowic</t>
+          <t>pana</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>do lesniowic przyległe</t>
+          <t>noga pana tego</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Lesniowice</t>
+          <t>pan</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Lesniowic</t>
+          <t>Pan</t>
         </is>
       </c>
     </row>
@@ -4236,20 +4236,2795 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
+          <t>mandatariaty</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>. mandatariaty po</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>mandatariat</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>Mandatariaty</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>ludowemi</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>dziś ludowemi zwanych</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>ludowe</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>ludowemi</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>manipulacyi</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>– manipulacyi urzędowey</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>manipulacya</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>manipulacyi</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>urzędowey</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>manipulacyi urzędowey –</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>urzędowa</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>urzędowey</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>domnikalnego</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>reprezentanta domnikalnego czyli</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>domnikalny</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>Domnikalnego</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>mandataryusza</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>czyli mandataryusza .</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>mandataryusza</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>Mandataryusza</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>mandatyrusza</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>. mandatyrusza przyjmował</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>mandatyrusza</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>Mandatyrusza</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>dziedzic</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>przyjmował dziedzic na</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>dziedzic</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>Dziedzic</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>depozyta</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>i depozyta starościńskie</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>depozyt</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>depozyta</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>mandataryusz</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>. mandataryusz pobierał</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>mandataryusz</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>Mandataryusz</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>dziedzica</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>od dziedzica pensyę</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>dziedzic</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>Dziedzic</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>pensyę</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>dziedzica pensyę od</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>pensya</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>pensyę</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>ordynaryi</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>korcy ordynaryi –</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>ordynarya</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>ordynaryi</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>dziedzica</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>zastępował dziedzica .</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>dziedzic</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>Dziedzic</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>szczupłey</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>tak szczupłey dotacyi</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>szczupła</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>szczupłey</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>dotacyi</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>szczupłey dotacyi uwzględniając</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>dotacya</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>dotacyi</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>mając</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>– mając przytem</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>mieć</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>maić</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>panowie</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>obrywki panowie ci</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>pan</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>Pan</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>lepiey</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>nieraz lepiey jak</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>dobrze</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>lepiey</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>panom</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>i panom urzędnikom</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>pan</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>Pan</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>ładąn</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>– ładąn parą</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>ładna</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>ładąn</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>dziad</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>móy dziad podbierając</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>dziad</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>Dziad</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>bludnikach</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>w bludnikach –</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>Bludniki</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>Bludnik</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>bludnik</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>do bludnik należały</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>Bludniki</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>Bludnik</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>siedliska</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>i siedliska –</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>Siedliska</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>siedliski</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>dziedzica</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>nowego dziedzica –</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>dziedzic</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>Dziedzic</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>grube</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>bielone grube po</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>gruby</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>grube</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>zkończone</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>białą zkończone )</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>zkończony</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>zkończone</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>niewiem</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>– niewiem czy</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>niewiem</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>Niewiem</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>dziedzicowi</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>panu dziedzicowi chodzi</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>dziedzic</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>Dziedzic</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>dziadek</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>. dziadek móy</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>dziadek</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>Dziadek</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>człowiecze</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>ty człowiecze na</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>człowiek</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>człowieczy</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>nieporadzisz</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>mi nieporadzisz –</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>nieporadzić</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>niePoradzisz</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>dziadek</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>mu dziadek potrzebuję</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>dziadek</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>Dziadek</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>dukatów</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>2000 dukatów –</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>dukat</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>Dukat</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>dziedzic</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>żeby dziedzic przyjął</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>dziedzic</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>Dziedzic</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>mojey</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>za mojey pamięci</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>mój</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>mojey</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>bludnikach</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>w bludnikach .</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>Bludniki</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>Bludnik</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>pan</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>był pan witwicki</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>pan</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>Pan</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>jaszcze</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>był jaszcze tam</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>jaszcze</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>jaszcz</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>proboszczem</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>. proboszczem był</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>proboszcz</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>Proboszcz</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>głoweckiego</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>owego głoweckiego –</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>Głowecki</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>Głoweckiego</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>późney</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>tak późney dokupił</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>późno</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>późney</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>dziad</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>dokupił dziad móy</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>dziad</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>Dziad</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>dochorowie</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>w dochorowie osadził</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>Dochorów</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>Dochorowie</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>nayjstarszego</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>osadził nayjstarszego syna</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>stary</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>nayjstarszego</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>toje</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>– toje diło</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>toje</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>Toje</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>mychayłowu</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>mojomu mychayłowu .</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>mychayłowu</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>Mychayłowu</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>bludniki</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>. bludniki oddał</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>Bludniki</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>Bludnik</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>ioycu</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>józefowi ioycu mojemu</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>ioyciec</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>iOycu</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>pan</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>. pan józef</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>pan</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>Pan</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>oyciec</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>– oyciec móy</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>oyciec</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>Oyciec</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>oyca</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>mojego oyca pono</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>oyca</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>Oyca</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>pana</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>– pana józefa</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>pan</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>Pan</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>dziadek</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>wziął dziadek móy</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>dziadek</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>Dziadek</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>siemginowa</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>do siemginowa –</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>Siemginów</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>Siemginowa</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>dośmierci</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>aż dośmierci oyca</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>dośmierć</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>dośmierci</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>oyca</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>dośmierci oyca przy</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>oyciec</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>Oyca</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>dziadek</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>bo dziadek móy</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>dziadek</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>Dziadek</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>doktor</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>kataraktę doktor słowikowski</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>doktor</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>Doktor</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>dziadek</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>. dziadek umarł</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>dziadek</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>Dziadek</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>pan</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>a pan józef</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>pan</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>Pan</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>oyciec</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>wydzielił oyciec schedę</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>oyciec</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>Oyciec</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>niewinem</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>lipa niewinem .</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>niewiedzieć</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>Niewino</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>pan</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>. pan michał</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>pan</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>Pan</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>bludnikami</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>z bludnikami o</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>Bludniki</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>Bludnik</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>temerowiec</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>z temerowiec ,</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>Temerowice</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>Temerowiec</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>stanisława</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>i stanisława zabilskich</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>Stanisław</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>Stanisława</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>oyciec</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>go oyciec odumarł</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>oyciec</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>Oyciec</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>oycem</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>za oycem doszedłszy</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>oyciec</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>Oycem</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>majątek</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>. majątek prawem</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>majątek</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>Majątek</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>sukcessyi</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>prawem sukcessyi przeszedł</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>sukcessya</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>sukcessyi</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>pan</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>– pan kazimierz</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>pan</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>Pan</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>niebył</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>– niebył gospodarzem</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>niebyć</t>
+        </is>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>Niebyła</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>więcey</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>gospodarzem więcey fantasta</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>dużo</t>
+        </is>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>więcey</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>pana</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>„ pana tadeusza</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>pan</t>
+        </is>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>Pan</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>227</v>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>gołey</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>na gołey podłodze</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>goła</t>
+        </is>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>gołey</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>niemogli</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>ci niemogli długo</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>niemóc</t>
+        </is>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>niemogel</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>nietylko</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>– nietylko czeladź</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>nietylko</t>
+        </is>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>nieTylko</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>obeyściu</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>na obeyściu niemożna</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>obeyście</t>
+        </is>
+      </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>obeyściu</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n">
+        <v>231</v>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>niemożna</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>obeyściu niemożna było</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>niemóc</t>
+        </is>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>niemożny</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="n">
+        <v>232</v>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>sukcesya</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>. sukcesya po</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>sukcesya</t>
+        </is>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>Sukcesya</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="n">
+        <v>233</v>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>oyca</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>mojego oyca spadała</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>oyciec</t>
+        </is>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>Oyca</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="n">
+        <v>234</v>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>treterowej</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>rodzonym treterowej i</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>Treterowa</t>
+        </is>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>Treterowej</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>swieżaskiey</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>i swieżaskiey .</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>Swieżaska</t>
+        </is>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>Swieżaskiey</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>pan</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>. pan józef</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>pan</t>
+        </is>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>Pan</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>oyca</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>śmierci oyca z</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>oyca</t>
+        </is>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>Oyca</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="n">
+        <v>238</v>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>panną</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>z panną julią</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>panna</t>
+        </is>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>Panna</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>kruszelnicę</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>czy kruszelnicę –</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>Kruszelnica</t>
+        </is>
+      </c>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>Kruszelnicę</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>panny</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>2 panny niemając</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>panna</t>
+        </is>
+      </c>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>Panna</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="n">
+        <v>241</v>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>panna</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>fatum panna julia</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>panna</t>
+        </is>
+      </c>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>Panna</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="n">
+        <v>242</v>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>bludnik</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>sąsiedztwo bludnik do</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>Bludniki</t>
+        </is>
+      </c>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>Bludnik</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="n">
+        <v>243</v>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>rudzkich</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>państwa rudzkich gdzie</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>Rudzki</t>
+        </is>
+      </c>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>rudzki</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="n">
+        <v>244</v>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>pan</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>. pan józef</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>pan</t>
+        </is>
+      </c>
+      <c r="E246" t="inlineStr">
+        <is>
+          <t>Pan</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="n">
+        <v>245</v>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>siemiginowie</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>na siemiginowie już</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>Siemiginów</t>
+        </is>
+      </c>
+      <c r="E247" t="inlineStr">
+        <is>
+          <t>Siemiginowie</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="n">
+        <v>246</v>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>panny</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>krewni panny juli</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>panna</t>
+        </is>
+      </c>
+      <c r="E248" t="inlineStr">
+        <is>
+          <t>Panna</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="n">
+        <v>247</v>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>pan</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>że pan józef</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>pan</t>
+        </is>
+      </c>
+      <c r="E249" t="inlineStr">
+        <is>
+          <t>Pan</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="n">
+        <v>248</v>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>sukcessorów</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>niema sukcessorów ,</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>sukcessor</t>
+        </is>
+      </c>
+      <c r="E250" t="inlineStr">
+        <is>
+          <t>sukcessorów</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="1" t="n">
+        <v>249</v>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>kruszelnicy</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>do kruszelnicy o</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>Kruszelnica</t>
+        </is>
+      </c>
+      <c r="E251" t="inlineStr">
+        <is>
+          <t>Kruszelnicy</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="n">
+        <v>250</v>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>odległey</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>mil odległey od</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>odległa</t>
+        </is>
+      </c>
+      <c r="E252" t="inlineStr">
+        <is>
+          <t>odległey</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="n">
+        <v>251</v>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>siemignowa</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>od siemignowa –</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>Siemignów</t>
+        </is>
+      </c>
+      <c r="E253" t="inlineStr">
+        <is>
+          <t>Siemignowa</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="n">
+        <v>252</v>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>łania</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>jak łania panna</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>łania</t>
+        </is>
+      </c>
+      <c r="E254" t="inlineStr">
+        <is>
+          <t>łani</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="1" t="n">
+        <v>253</v>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>panna</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>łania panna julia</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>panna</t>
+        </is>
+      </c>
+      <c r="E255" t="inlineStr">
+        <is>
+          <t>Panna</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="1" t="n">
+        <v>254</v>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>siemiginowa</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>sukcessorka siemiginowa –</t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>Siemiginów</t>
+        </is>
+      </c>
+      <c r="E256" t="inlineStr">
+        <is>
+          <t>Siemiginowa</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="1" t="n">
+        <v>255</v>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>pan</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>kupił pan józef</t>
+        </is>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>pan</t>
+        </is>
+      </c>
+      <c r="E257" t="inlineStr">
+        <is>
+          <t>Pan</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="1" t="n">
+        <v>256</v>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>nawaryi</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>koło nawaryi i</t>
+        </is>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>Nawarya</t>
+        </is>
+      </c>
+      <c r="E258" t="inlineStr">
+        <is>
+          <t>Nawaryi</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="1" t="n">
+        <v>257</v>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>ciepłey</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>ale ciepłey wdowy</t>
+        </is>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>ciepła</t>
+        </is>
+      </c>
+      <c r="E259" t="inlineStr">
+        <is>
+          <t>ciepłey</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="1" t="n">
+        <v>258</v>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>szołayskiego</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>pana szołayskiego młodzika</t>
+        </is>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>Szołayski</t>
+        </is>
+      </c>
+      <c r="E260" t="inlineStr">
+        <is>
+          <t>Szołayskiego</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="1" t="n">
+        <v>259</v>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>separacya</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>nastąpiła separacya .</t>
+        </is>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>separacya</t>
+        </is>
+      </c>
+      <c r="E261" t="inlineStr">
+        <is>
+          <t>Separacya</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="1" t="n">
+        <v>260</v>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>procesa</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>lubiła procesa –</t>
+        </is>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>proces</t>
+        </is>
+      </c>
+      <c r="E262" t="inlineStr">
+        <is>
+          <t>procesa</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="1" t="n">
+        <v>261</v>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>lesniowic</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>do lesniowic przyległe</t>
+        </is>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>Lesniowice</t>
+        </is>
+      </c>
+      <c r="E263" t="inlineStr">
+        <is>
+          <t>Lesniowic</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="1" t="n">
+        <v>262</v>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
           <t>mosty</t>
         </is>
       </c>
-      <c r="C153" t="inlineStr">
+      <c r="C264" t="inlineStr">
         <is>
           <t>przyległe mosty .</t>
         </is>
       </c>
-      <c r="D153" t="inlineStr">
+      <c r="D264" t="inlineStr">
         <is>
           <t>Mosty</t>
         </is>
       </c>
-      <c r="E153" t="inlineStr">
+      <c r="E264" t="inlineStr">
         <is>
           <t>Most</t>
         </is>

--- a/data/mistakes/Morfeusz_lemma_mistakes.xlsx
+++ b/data/mistakes/Morfeusz_lemma_mistakes.xlsx
@@ -461,12 +461,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>dziad</t>
+          <t>Dziad</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> dziad mój</t>
+          <t xml:space="preserve"> Dziad mój</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -486,12 +486,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>komornika</t>
+          <t>Komornika</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>jana komornika ziemi</t>
+          <t>Jana Komornika ziemi</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -511,12 +511,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>dobrrzyńskiej</t>
+          <t>Dobrrzyńskiej</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>ziemi dobrrzyńskiej (</t>
+          <t>ziemi Dobrrzyńskiej (</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -586,12 +586,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pinińskich</t>
+          <t>Pinińskich</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>z pinińskich właścicieli</t>
+          <t>z Pinińskich właścicieli</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -611,12 +611,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>dóbr</t>
+          <t>Dóbr</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>właścicieli dóbr strużewo</t>
+          <t>właścicieli Dóbr Strużewo</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -641,7 +641,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>z adlinencjami puszczanki</t>
+          <t>z adlinencjami Puszczanki</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -661,12 +661,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>puszczanki</t>
+          <t>Puszczanki</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>adlinencjami puszczanki ,</t>
+          <t>adlinencjami Puszczanki ,</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>że śp dziad</t>
+          <t>że śp Dziad</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -711,12 +711,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>dziad</t>
+          <t>Dziad</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>śp dziad mój</t>
+          <t>śp Dziad mój</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -736,12 +736,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>panna</t>
+          <t>Panna</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>siostra panna urszula</t>
+          <t>siostra Panna Urszula</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -761,12 +761,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>stryjów</t>
+          <t>Stryjów</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>. stryjów miał</t>
+          <t>. Stryjów miał</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -811,12 +811,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>głuską</t>
+          <t>Głuską</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>z głuską z</t>
+          <t>z Głuską z</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -836,12 +836,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>floyrana</t>
+          <t>Floyrana</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>i floyrana .</t>
+          <t>i Floyrana .</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -861,12 +861,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>korytyńską</t>
+          <t>Korytyńską</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>z korytyńską ,</t>
+          <t>z Korytyńską ,</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -886,12 +886,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>muczynowską</t>
+          <t>Muczynowską</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>z muczynowską –</t>
+          <t>z Muczynowską –</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -911,12 +911,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>rzotoławskim</t>
+          <t>Rzotoławskim</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>za rzotoławskim –</t>
+          <t>za Rzotoławskim –</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -961,12 +961,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>niewiem</t>
+          <t>Niewiem</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>. niewiem o</t>
+          <t>. Niewiem o</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -986,12 +986,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>czermiński</t>
+          <t>Czermiński</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>karol czermiński –</t>
+          <t>Karol Czermiński –</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1011,12 +1011,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>dziad</t>
+          <t>Dziad</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>jakoby dziad jego</t>
+          <t>jakoby Dziad jego</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1061,12 +1061,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>starostą</t>
+          <t>Starostą</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>podobno starostą ,</t>
+          <t>podobno Starostą ,</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1111,12 +1111,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>dziedziców</t>
+          <t>Dziedziców</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>, dziedziców brzeżan</t>
+          <t>, Dziedziców Brzeżan</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1136,12 +1136,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>brzeżan</t>
+          <t>Brzeżan</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>dziedziców brzeżan i</t>
+          <t>Dziedziców Brzeżan i</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1161,12 +1161,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pan</t>
+          <t>Pan</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>zaś pan potocki</t>
+          <t>zaś Pan Potocki</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1186,12 +1186,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pana</t>
+          <t>Pana</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>odwiedzał pana starostę</t>
+          <t>odwiedzał Pana Starostę</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1211,12 +1211,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>starostę</t>
+          <t>Starostę</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>pana starostę ,</t>
+          <t>Pana Starostę ,</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1236,12 +1236,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pan</t>
+          <t>Pan</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>zapytał pan potocki</t>
+          <t>zapytał Pan Potocki</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1261,12 +1261,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pan</t>
+          <t>Pan</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>mu pan starosta</t>
+          <t>mu Pan Starosta</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1286,12 +1286,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>starosta</t>
+          <t>Starosta</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>pan starosta całą</t>
+          <t>Pan Starosta całą</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1311,12 +1311,12 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pan</t>
+          <t>Pan</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>wtenczas pan potocki</t>
+          <t>wtenczas Pan Potocki</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1336,12 +1336,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pana</t>
+          <t>Pana</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>sobie pana potockiego</t>
+          <t>sobie Pana Potockiego</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1361,12 +1361,12 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>patrona</t>
+          <t>Patrona</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>swojego patrona ,</t>
+          <t>swojego Patrona ,</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1411,12 +1411,12 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>melchiorem</t>
+          <t>Melchiorem</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>przed melchiorem .</t>
+          <t>przed Melchiorem .</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1436,12 +1436,12 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>dziad</t>
+          <t>Dziad</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>wtenczas dziad mój</t>
+          <t>Wtenczas Dziad mój</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1486,12 +1486,12 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>dziada</t>
+          <t>Dziada</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>dla dziada mojego</t>
+          <t>dla Dziada mojego</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1511,12 +1511,12 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>dziad</t>
+          <t>Dziad</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>mój dziad panu</t>
+          <t>mój Dziad Panu</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1586,12 +1586,12 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>pan</t>
+          <t>Pan</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>pamięci pan melchior</t>
+          <t>pamięci Pan Melchior</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1611,12 +1611,12 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>stryjskim</t>
+          <t>Stryjskim</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>w stryjskim cyrkule</t>
+          <t>w Stryjskim cyrkule</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1636,12 +1636,12 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>panną</t>
+          <t>Panną</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>z panną kobylską</t>
+          <t>z Panną Kobylską</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1686,12 +1686,12 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>posadzie</t>
+          <t>Posadzie</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>na posadzie chyrowskiey</t>
+          <t>na Posadzie Chyrowskiey</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -1711,12 +1711,12 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>chyrowskiey</t>
+          <t>Chyrowskiey</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>posadzie chyrowskiey zapędziły</t>
+          <t>Posadzie Chyrowskiey zapędziły</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -1736,12 +1736,12 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>pierściorowskim</t>
+          <t>Pierściorowskim</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>pierwszym pierściorowskim miała</t>
+          <t>pierwszym Pierściorowskim miała</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1761,12 +1761,12 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>maryę</t>
+          <t>Maryę</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>córkę maryę ,</t>
+          <t>córkę Maryę ,</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -1786,12 +1786,12 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>kleofasę</t>
+          <t>Kleofasę</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>, kleofasę .</t>
+          <t>, Kleofasę .</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -1861,12 +1861,12 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>asińdźka</t>
+          <t>Asińdźka</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>wiesz asińdźka co</t>
+          <t>wiesz Asińdźka co</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -1886,12 +1886,12 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>pan</t>
+          <t>Pan</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>drżącą pan melchior</t>
+          <t>drżącą Pan Melchior</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -1911,12 +1911,12 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>pannie</t>
+          <t>Pannie</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>wstąpi pannie się</t>
+          <t>wstąpi Pannie się</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -1936,12 +1936,12 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>chyrowskim</t>
+          <t>Chyrowskim</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>kościele chyrowskim pobłogosławił</t>
+          <t>kościele Chyrowskim pobłogosławił</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -1961,12 +1961,12 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>dziekan</t>
+          <t>Dziekan</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>ówczesny dziekan i</t>
+          <t>ówczesny Dziekan i</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -1986,12 +1986,12 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>oyciec</t>
+          <t>Oyciec</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>mój oyciec franciszek</t>
+          <t>mój Oyciec Franciszek</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2011,12 +2011,12 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>czołhanach</t>
+          <t>Czołhanach</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>w czołhanach roku</t>
+          <t>w Czołhanach roku</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2061,12 +2061,12 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>babki</t>
+          <t>Babki</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>mojej babki ,</t>
+          <t>mojej Babki ,</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2086,12 +2086,12 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>stan</t>
+          <t>Stan</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>za stan .</t>
+          <t>za Stan .</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2111,12 +2111,12 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>aug</t>
+          <t>Aug</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>. aug .</t>
+          <t>. Aug .</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2136,12 +2136,12 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>poniatowskiego</t>
+          <t>Poniatowskiego</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>. poniatowskiego –</t>
+          <t>. Poniatowskiego –</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2161,12 +2161,12 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>bludnikach</t>
+          <t>Bludnikach</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>w bludnikach –</t>
+          <t>w Bludnikach –</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2186,12 +2186,12 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>abbum</t>
+          <t>Abbum</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>drzwiami abbum treterianum</t>
+          <t>drzwiami Abbum Treterianum</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2211,12 +2211,12 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>treterianum</t>
+          <t>Treterianum</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>abbum treterianum .</t>
+          <t>Abbum Treterianum .</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2241,7 +2241,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>przy bombardowaniu lwowa</t>
+          <t>Przy bombardowaniu Lwowa</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2361,12 +2361,12 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>oyca</t>
+          <t>Oyca</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>mojego oyca –</t>
+          <t>mojego Oyca –</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2386,12 +2386,12 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>oyca</t>
+          <t>Oyca</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>familii oyca się</t>
+          <t>familii Oyca się</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2411,12 +2411,12 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>pan</t>
+          <t>Pan</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>leży pan stanisław</t>
+          <t>leży Pan Stanisław</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2436,12 +2436,12 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>pan</t>
+          <t>Pan</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>że pan tylko</t>
+          <t>że Pan tylko</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -2461,12 +2461,12 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>świerzawski</t>
+          <t>Świerzawski</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>wuj świerzawski kuzyn</t>
+          <t>wuj Świerzawski kuzyn</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -2491,7 +2491,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>świerzawski kuzyn polanowskich</t>
+          <t>Świerzawski kuzyn Polanowskich</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -2511,12 +2511,12 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>polanowskich</t>
+          <t>Polanowskich</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>kuzyn polanowskich z</t>
+          <t>kuzyn Polanowskich z</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -2536,12 +2536,12 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>bełzkiego</t>
+          <t>Bełzkiego</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>z bełzkiego często</t>
+          <t>z Bełzkiego często</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -2561,12 +2561,12 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>moszkowie</t>
+          <t>Moszkowie</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>w moszkowie z</t>
+          <t>w Moszkowie z</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -2611,12 +2611,12 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>dziadek</t>
+          <t>Dziadek</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>. dziadek móy</t>
+          <t>. Dziadek móy</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -2636,12 +2636,12 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>komornikowej</t>
+          <t>Komornikowej</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>pani komornikowej niepomięła</t>
+          <t>Pani Komornikowej niepomięła</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -2661,12 +2661,12 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>niewiem</t>
+          <t>Niewiem</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>. niewiem jakim</t>
+          <t>. Niewiem jakim</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -2686,12 +2686,12 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>rosyi</t>
+          <t>Rosyi</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>w rosyi –</t>
+          <t>w Rosyi –</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -2711,12 +2711,12 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>pan</t>
+          <t>Pan</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>nim pan stanisław</t>
+          <t>nim Pan Stanisław</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -2736,12 +2736,12 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>sachsen</t>
+          <t>Sachsen</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>do sachsen cobary</t>
+          <t>do Sachsen Cobary</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -2761,12 +2761,12 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>cobary</t>
+          <t>Cobary</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>sachsen cobary ułanów</t>
+          <t>Sachsen Cobary Ułanów</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -2786,12 +2786,12 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>ułanów</t>
+          <t>Ułanów</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>cobary ułanów mając</t>
+          <t>Cobary Ułanów mając</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -2891,7 +2891,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>wreszcie niebył em</t>
+          <t>Wreszcie niebył em</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -2936,12 +2936,12 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>oycem</t>
+          <t>Oycem</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>z oycem na</t>
+          <t>z Oycem na</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -2961,12 +2961,12 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>oyciec</t>
+          <t>Oyciec</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>a oyciec ciągle</t>
+          <t>a Oyciec ciągle</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -3011,12 +3011,12 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>oyciec</t>
+          <t>Oyciec</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>móy oyciec około</t>
+          <t>móy Oyciec około</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -3086,12 +3086,12 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>dziadek</t>
+          <t>Dziadek</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>. dziadek melchior</t>
+          <t>. Dziadek Melchior</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -3136,12 +3136,12 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>stryjskim</t>
+          <t>Stryjskim</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>w stryjskim -</t>
+          <t>w Stryjskim -</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -3186,12 +3186,12 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>bludniki</t>
+          <t>Bludniki</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>kupił bludniki za</t>
+          <t>kupił Bludniki za</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -3211,12 +3211,12 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>dziedzic</t>
+          <t>Dziedzic</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>nowy dziedzic wchodził</t>
+          <t>Nowy Dziedzic wchodził</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -3266,7 +3266,7 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>któremi obeymował dziedzictwo</t>
+          <t>któremi obeymował Dziedzictwo</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -3336,12 +3336,12 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>pan</t>
+          <t>Pan</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>to pan dawał</t>
+          <t>to Pan dawał</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -3386,12 +3386,12 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>dziadka</t>
+          <t>Dziadka</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>. dziadka ostaszewskigo</t>
+          <t>. Dziadka Ostaszewskigo</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -3486,12 +3486,12 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>dłużanie</t>
+          <t>Dłużanie</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>raz dłużanie żalili</t>
+          <t>raz Dłużanie żalili</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -3541,7 +3541,7 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>oddzieli śp .</t>
+          <t>Oddzieli śp .</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -3561,12 +3561,12 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>pan</t>
+          <t>Pan</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>. pan kazimierz</t>
+          <t>. Pan Kazimierz</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -3661,12 +3661,12 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>niebył</t>
+          <t>Niebył</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>. niebył to</t>
+          <t>. Niebył to</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -3686,12 +3686,12 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>oycowskiey</t>
+          <t>Oycowskiey</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>. oycowskiey .</t>
+          <t>. Oycowskiey .</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -3836,12 +3836,12 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>dziedzica</t>
+          <t>Dziedzica</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>herb dziedzica –</t>
+          <t>Herb Dziedzica –</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -3861,12 +3861,12 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>bludniki</t>
+          <t>Bludniki</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>dominium bludniki –</t>
+          <t>Dominium Bludniki –</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -3941,7 +3941,7 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>nieszlachcic niemógł kupować</t>
+          <t>Nieszlachcic niemógł kupować</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -3961,12 +3961,12 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>dziedzic</t>
+          <t>Dziedzic</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>. dziedzic postanawiał</t>
+          <t>. Dziedzic postanawiał</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -4016,7 +4016,7 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>swojem mieycus mandatariusza</t>
+          <t>swojem mieycus Mandatariusza</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -4036,12 +4036,12 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>dominikalnym</t>
+          <t>Dominikalnym</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>urzędzie dominikalnym .</t>
+          <t>urzędzie Dominikalnym .</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -4086,12 +4086,12 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>dominii</t>
+          <t>Dominii</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>z dominii nieprzyniósł</t>
+          <t>z Dominii nieprzyniósł</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -4111,12 +4111,12 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>pan</t>
+          <t>Pan</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>bo pan we</t>
+          <t>bo Pan we</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -4136,12 +4136,12 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>p</t>
+          <t>P</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>domu p .</t>
+          <t>domu P .</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -4161,12 +4161,12 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>t</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>. t dziadek</t>
+          <t>. T Dziadek</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -4186,12 +4186,12 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>dziadek</t>
+          <t>Dziadek</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>t dziadek móy</t>
+          <t>T Dziadek móy</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -4211,12 +4211,12 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>pana</t>
+          <t>Pana</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>noga pana tego</t>
+          <t>noga Pana tego</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -4236,12 +4236,12 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>mandatariaty</t>
+          <t>Mandatariaty</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>. mandatariaty po</t>
+          <t>. Mandatariaty po</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -4336,12 +4336,12 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>domnikalnego</t>
+          <t>Domnikalnego</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>reprezentanta domnikalnego czyli</t>
+          <t>reprezentanta Domnikalnego czyli</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
@@ -4361,12 +4361,12 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>mandataryusza</t>
+          <t>Mandataryusza</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>czyli mandataryusza .</t>
+          <t>czyli Mandataryusza .</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
@@ -4386,12 +4386,12 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>mandatyrusza</t>
+          <t>Mandatyrusza</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>. mandatyrusza przyjmował</t>
+          <t>. Mandatyrusza przyjmował</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
@@ -4411,12 +4411,12 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>dziedzic</t>
+          <t>Dziedzic</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>przyjmował dziedzic na</t>
+          <t>przyjmował Dziedzic na</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
@@ -4461,12 +4461,12 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>mandataryusz</t>
+          <t>Mandataryusz</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>. mandataryusz pobierał</t>
+          <t>. Mandataryusz pobierał</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
@@ -4486,12 +4486,12 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>dziedzica</t>
+          <t>Dziedzica</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>od dziedzica pensyę</t>
+          <t>od Dziedzica pensyę</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
@@ -4516,7 +4516,7 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>dziedzica pensyę od</t>
+          <t>Dziedzica pensyę od</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
@@ -4561,12 +4561,12 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>dziedzica</t>
+          <t>Dziedzica</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>zastępował dziedzica .</t>
+          <t>zastępował Dziedzica .</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
@@ -4661,12 +4661,12 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>panowie</t>
+          <t>Panowie</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>obrywki panowie ci</t>
+          <t>obrywki Panowie ci</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
@@ -4711,12 +4711,12 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>panom</t>
+          <t>Panom</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>i panom urzędnikom</t>
+          <t>i Panom Urzędnikom</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
@@ -4761,12 +4761,12 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>dziad</t>
+          <t>Dziad</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>móy dziad podbierając</t>
+          <t>móy Dziad podbierając</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
@@ -4786,12 +4786,12 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>bludnikach</t>
+          <t>Bludnikach</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>w bludnikach –</t>
+          <t>w Bludnikach –</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
@@ -4811,12 +4811,12 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>bludnik</t>
+          <t>Bludnik</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>do bludnik należały</t>
+          <t>do Bludnik należały</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
@@ -4836,12 +4836,12 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>siedliska</t>
+          <t>Siedliska</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>i siedliska –</t>
+          <t>i Siedliska –</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
@@ -4861,12 +4861,12 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>dziedzica</t>
+          <t>Dziedzica</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>nowego dziedzica –</t>
+          <t>nowego Dziedzica –</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
@@ -4961,12 +4961,12 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>dziedzicowi</t>
+          <t>Dziedzicowi</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>panu dziedzicowi chodzi</t>
+          <t>Panu Dziedzicowi chodzi</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
@@ -4986,12 +4986,12 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>dziadek</t>
+          <t>Dziadek</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>. dziadek móy</t>
+          <t>. Dziadek móy</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
@@ -5016,7 +5016,7 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>ty człowiecze na</t>
+          <t>Ty człowiecze na</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
@@ -5061,12 +5061,12 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>dziadek</t>
+          <t>Dziadek</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>mu dziadek potrzebuję</t>
+          <t>mu Dziadek potrzebuję</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
@@ -5086,12 +5086,12 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>dukatów</t>
+          <t>Dukatów</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>2000 dukatów –</t>
+          <t>2000 Dukatów –</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
@@ -5111,12 +5111,12 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>dziedzic</t>
+          <t>Dziedzic</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>żeby dziedzic przyjął</t>
+          <t>żeby Dziedzic przyjął</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
@@ -5161,12 +5161,12 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>bludnikach</t>
+          <t>Bludnikach</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>w bludnikach .</t>
+          <t>w Bludnikach .</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
@@ -5186,12 +5186,12 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>pan</t>
+          <t>Pan</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>był pan witwicki</t>
+          <t>był Pan Witwicki</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
@@ -5236,12 +5236,12 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>proboszczem</t>
+          <t>Proboszczem</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>. proboszczem był</t>
+          <t>. Proboszczem był</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
@@ -5261,12 +5261,12 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>głoweckiego</t>
+          <t>Głoweckiego</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>owego głoweckiego –</t>
+          <t>owego Głoweckiego –</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
@@ -5311,12 +5311,12 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>dziad</t>
+          <t>Dziad</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>dokupił dziad móy</t>
+          <t>dokupił Dziad móy</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
@@ -5336,12 +5336,12 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>dochorowie</t>
+          <t>Dochorowie</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>w dochorowie osadził</t>
+          <t>W Dochorowie osadził</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
@@ -5386,12 +5386,12 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>toje</t>
+          <t>Toje</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>– toje diło</t>
+          <t>– Toje diło</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
@@ -5411,12 +5411,12 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>mychayłowu</t>
+          <t>Mychayłowu</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>mojomu mychayłowu .</t>
+          <t>mojomu Mychayłowu .</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
@@ -5436,12 +5436,12 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>bludniki</t>
+          <t>Bludniki</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>. bludniki oddał</t>
+          <t>. Bludniki oddał</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
@@ -5461,12 +5461,12 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>ioycu</t>
+          <t>iOycu</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>józefowi ioycu mojemu</t>
+          <t>Józefowi iOycu mojemu</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
@@ -5486,12 +5486,12 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>pan</t>
+          <t>Pan</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>. pan józef</t>
+          <t>. Pan Józef</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
@@ -5511,12 +5511,12 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>oyciec</t>
+          <t>Oyciec</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>– oyciec móy</t>
+          <t>– Oyciec móy</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
@@ -5536,12 +5536,12 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>oyca</t>
+          <t>Oyca</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>mojego oyca pono</t>
+          <t>mojego Oyca pono</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
@@ -5561,12 +5561,12 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>pana</t>
+          <t>Pana</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>– pana józefa</t>
+          <t>– Pana Józefa</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
@@ -5586,12 +5586,12 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>dziadek</t>
+          <t>Dziadek</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>wziął dziadek móy</t>
+          <t>wziął Dziadek móy</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
@@ -5611,12 +5611,12 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>siemginowa</t>
+          <t>Siemginowa</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>do siemginowa –</t>
+          <t>do Siemginowa –</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
@@ -5641,7 +5641,7 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>aż dośmierci oyca</t>
+          <t>aż dośmierci Oyca</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
@@ -5661,12 +5661,12 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>oyca</t>
+          <t>Oyca</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>dośmierci oyca przy</t>
+          <t>dośmierci Oyca przy</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
@@ -5686,12 +5686,12 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>dziadek</t>
+          <t>Dziadek</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>bo dziadek móy</t>
+          <t>bo Dziadek móy</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
@@ -5711,12 +5711,12 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>doktor</t>
+          <t>Doktor</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>kataraktę doktor słowikowski</t>
+          <t>kataraktę Doktor Słowikowski</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
@@ -5736,12 +5736,12 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>dziadek</t>
+          <t>Dziadek</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>. dziadek umarł</t>
+          <t>. Dziadek umarł</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
@@ -5761,12 +5761,12 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>pan</t>
+          <t>Pan</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>a pan józef</t>
+          <t>a Pan Józef</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
@@ -5786,12 +5786,12 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>oyciec</t>
+          <t>Oyciec</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>wydzielił oyciec schedę</t>
+          <t>wydzielił Oyciec schedę</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
@@ -5816,7 +5816,7 @@
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>lipa niewinem .</t>
+          <t>Lipa niewinem .</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
@@ -5836,12 +5836,12 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>pan</t>
+          <t>Pan</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>. pan michał</t>
+          <t>. Pan Michał</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
@@ -5861,12 +5861,12 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>bludnikami</t>
+          <t>Bludnikami</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>z bludnikami o</t>
+          <t>z Bludnikami o</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
@@ -5886,12 +5886,12 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>temerowiec</t>
+          <t>Temerowiec</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>z temerowiec ,</t>
+          <t>z Temerowiec ,</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
@@ -5911,12 +5911,12 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>stanisława</t>
+          <t>Stanisława</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>i stanisława zabilskich</t>
+          <t>i Stanisława Zabilskich</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
@@ -5936,12 +5936,12 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>oyciec</t>
+          <t>Oyciec</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>go oyciec odumarł</t>
+          <t>go Oyciec odumarł</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
@@ -5961,12 +5961,12 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>oycem</t>
+          <t>Oycem</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>za oycem doszedłszy</t>
+          <t>za Oycem doszedłszy</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
@@ -5986,12 +5986,12 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>majątek</t>
+          <t>Majątek</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>. majątek prawem</t>
+          <t>. Majątek prawem</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
@@ -6036,12 +6036,12 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>pan</t>
+          <t>Pan</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>– pan kazimierz</t>
+          <t>– Pan Kazimierz</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
@@ -6111,12 +6111,12 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>pana</t>
+          <t>Pana</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>„ pana tadeusza</t>
+          <t>„ Pana Tadeusza</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
@@ -6261,12 +6261,12 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>sukcesya</t>
+          <t>Sukcesya</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>. sukcesya po</t>
+          <t>. Sukcesya po</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
@@ -6286,12 +6286,12 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>oyca</t>
+          <t>Oyca</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>mojego oyca spadała</t>
+          <t>mojego Oyca spadała</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
@@ -6311,12 +6311,12 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>treterowej</t>
+          <t>Treterowej</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>rodzonym treterowej i</t>
+          <t>rodzonym Treterowej i</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
@@ -6336,12 +6336,12 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>swieżaskiey</t>
+          <t>Swieżaskiey</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>i swieżaskiey .</t>
+          <t>i Swieżaskiey .</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
@@ -6361,12 +6361,12 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>pan</t>
+          <t>Pan</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>. pan józef</t>
+          <t>. Pan Józef</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
@@ -6386,12 +6386,12 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>oyca</t>
+          <t>Oyca</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>śmierci oyca z</t>
+          <t>śmierci Oyca z</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
@@ -6411,12 +6411,12 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>panną</t>
+          <t>Panną</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>z panną julią</t>
+          <t>z Panną Julią</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
@@ -6436,12 +6436,12 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>kruszelnicę</t>
+          <t>Kruszelnicę</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>czy kruszelnicę –</t>
+          <t>czy Kruszelnicę –</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
@@ -6461,12 +6461,12 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>panny</t>
+          <t>Panny</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>2 panny niemając</t>
+          <t>2 Panny niemając</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
@@ -6486,12 +6486,12 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>panna</t>
+          <t>Panna</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>fatum panna julia</t>
+          <t>fatum Panna Julia</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
@@ -6511,12 +6511,12 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>bludnik</t>
+          <t>Bludnik</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>sąsiedztwo bludnik do</t>
+          <t>sąsiedztwo Bludnik do</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
@@ -6536,12 +6536,12 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>rudzkich</t>
+          <t>Rudzkich</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>państwa rudzkich gdzie</t>
+          <t>Państwa Rudzkich gdzie</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
@@ -6561,12 +6561,12 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>pan</t>
+          <t>Pan</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>. pan józef</t>
+          <t>. Pan Józef</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
@@ -6586,12 +6586,12 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>siemiginowie</t>
+          <t>Siemiginowie</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>na siemiginowie już</t>
+          <t>na Siemiginowie już</t>
         </is>
       </c>
       <c r="D247" t="inlineStr">
@@ -6611,12 +6611,12 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>panny</t>
+          <t>Panny</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>krewni panny juli</t>
+          <t>krewni Panny Juli</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
@@ -6636,12 +6636,12 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>pan</t>
+          <t>Pan</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>że pan józef</t>
+          <t>że Pan Józef</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
@@ -6686,12 +6686,12 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>kruszelnicy</t>
+          <t>Kruszelnicy</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>do kruszelnicy o</t>
+          <t>do Kruszelnicy o</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
@@ -6736,12 +6736,12 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>siemignowa</t>
+          <t>Siemignowa</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>od siemignowa –</t>
+          <t>od Siemignowa –</t>
         </is>
       </c>
       <c r="D253" t="inlineStr">
@@ -6766,7 +6766,7 @@
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>jak łania panna</t>
+          <t>jak łania Panna</t>
         </is>
       </c>
       <c r="D254" t="inlineStr">
@@ -6786,12 +6786,12 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>panna</t>
+          <t>Panna</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>łania panna julia</t>
+          <t>łania Panna Julia</t>
         </is>
       </c>
       <c r="D255" t="inlineStr">
@@ -6811,12 +6811,12 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>siemiginowa</t>
+          <t>Siemiginowa</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>sukcessorka siemiginowa –</t>
+          <t>sukcessorka Siemiginowa –</t>
         </is>
       </c>
       <c r="D256" t="inlineStr">
@@ -6836,12 +6836,12 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>pan</t>
+          <t>Pan</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>kupił pan józef</t>
+          <t>kupił Pan Józef</t>
         </is>
       </c>
       <c r="D257" t="inlineStr">
@@ -6861,12 +6861,12 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>nawaryi</t>
+          <t>Nawaryi</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>koło nawaryi i</t>
+          <t>koło Nawaryi i</t>
         </is>
       </c>
       <c r="D258" t="inlineStr">
@@ -6911,12 +6911,12 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>szołayskiego</t>
+          <t>Szołayskiego</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>pana szołayskiego młodzika</t>
+          <t>pana Szołayskiego młodzika</t>
         </is>
       </c>
       <c r="D260" t="inlineStr">
@@ -6936,12 +6936,12 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>separacya</t>
+          <t>Separacya</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>nastąpiła separacya .</t>
+          <t>nastąpiła Separacya .</t>
         </is>
       </c>
       <c r="D261" t="inlineStr">
@@ -6986,12 +6986,12 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>lesniowic</t>
+          <t>Lesniowic</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>do lesniowic przyległe</t>
+          <t>do Lesniowic przyległe</t>
         </is>
       </c>
       <c r="D263" t="inlineStr">
@@ -7011,12 +7011,12 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>mosty</t>
+          <t>Mosty</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>przyległe mosty .</t>
+          <t>przyległe Mosty .</t>
         </is>
       </c>
       <c r="D264" t="inlineStr">

--- a/data/mistakes/Morfeusz_lemma_mistakes.xlsx
+++ b/data/mistakes/Morfeusz_lemma_mistakes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E264"/>
+  <dimension ref="A1:E275"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2086,22 +2086,22 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Stan</t>
+          <t>Maksymowic</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>za Stan .</t>
+          <t>właściciela Maksymowic w</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Stanisława</t>
+          <t>Maksymowice</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Stan</t>
+          <t>Maksymowic</t>
         </is>
       </c>
     </row>
@@ -2111,22 +2111,22 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Aug</t>
+          <t>Stan</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>. Aug .</t>
+          <t>za Stan .</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Augusta</t>
+          <t>Stanisława</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Aug</t>
+          <t>Stan</t>
         </is>
       </c>
     </row>
@@ -2136,22 +2136,22 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Poniatowskiego</t>
+          <t>Aug</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>. Poniatowskiego –</t>
+          <t>. Aug .</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Poniatowski</t>
+          <t>Augusta</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>poniatowski</t>
+          <t>Aug</t>
         </is>
       </c>
     </row>
@@ -2161,22 +2161,22 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Bludnikach</t>
+          <t>Poniatowskiego</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>w Bludnikach –</t>
+          <t>. Poniatowskiego –</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Bludniki</t>
+          <t>Poniatowski</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Bludnik</t>
+          <t>poniatowski</t>
         </is>
       </c>
     </row>
@@ -2186,22 +2186,22 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Abbum</t>
+          <t>Bludnikach</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>drzwiami Abbum Treterianum</t>
+          <t>w Bludnikach –</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>abbum</t>
+          <t>Bludniki</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Abbum</t>
+          <t>Bludnik</t>
         </is>
       </c>
     </row>
@@ -2211,22 +2211,22 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Treterianum</t>
+          <t>Abbum</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Abbum Treterianum .</t>
+          <t>drzwiami Abbum Treterianum</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>treterianum</t>
+          <t>abbum</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Treterianum</t>
+          <t>Abbum</t>
         </is>
       </c>
     </row>
@@ -2236,22 +2236,22 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>bombardowaniu</t>
+          <t>Treterianum</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Przy bombardowaniu Lwowa</t>
+          <t>Abbum Treterianum .</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>bombardowanie</t>
+          <t>treterianum</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>bombardować</t>
+          <t>Treterianum</t>
         </is>
       </c>
     </row>
@@ -2261,22 +2261,22 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>obrucona</t>
+          <t>bombardowaniu</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>perzynę obrucona –</t>
+          <t>Przy bombardowaniu Lwowa</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>obrucony</t>
+          <t>bombardowanie</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>obrucona</t>
+          <t>bombardować</t>
         </is>
       </c>
     </row>
@@ -2286,22 +2286,22 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>niespotyka</t>
+          <t>obrucona</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>się niespotyka .</t>
+          <t>perzynę obrucona –</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>niespotykać</t>
+          <t>obrucony</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>niespotyka</t>
+          <t>obrucona</t>
         </is>
       </c>
     </row>
@@ -2311,22 +2311,22 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>dobrami</t>
+          <t>niespotyka</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>wielkimi dobrami ,</t>
+          <t>się niespotyka .</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>dobra</t>
+          <t>niespotykać</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>dobro</t>
+          <t>niespotyka</t>
         </is>
       </c>
     </row>
@@ -2336,22 +2336,22 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>arye</t>
+          <t>dobrami</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>różne arye krakowiaki</t>
+          <t>wielkimi dobrami ,</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>arya</t>
+          <t>dobra</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>arye</t>
+          <t>dobro</t>
         </is>
       </c>
     </row>
@@ -2361,22 +2361,22 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Oyca</t>
+          <t>arye</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>mojego Oyca –</t>
+          <t>różne arye krakowiaki</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>oyca</t>
+          <t>arya</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Oyca</t>
+          <t>arye</t>
         </is>
       </c>
     </row>
@@ -2391,7 +2391,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>familii Oyca się</t>
+          <t>mojego Oyca –</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2411,22 +2411,22 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Pan</t>
+          <t>Oyca</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>leży Pan Stanisław</t>
+          <t>familii Oyca się</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>pan</t>
+          <t>oyca</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Pan</t>
+          <t>Oyca</t>
         </is>
       </c>
     </row>
@@ -2441,7 +2441,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>że Pan tylko</t>
+          <t>leży Pan Stanisław</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -2461,22 +2461,22 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Świerzawski</t>
+          <t>Pan</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>wuj Świerzawski kuzyn</t>
+          <t>że Pan tylko</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Świerzawski</t>
+          <t>pan</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>świerzawski</t>
+          <t>Pan</t>
         </is>
       </c>
     </row>
@@ -2486,22 +2486,22 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>kuzyn</t>
+          <t>Świerzawski</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Świerzawski kuzyn Polanowskich</t>
+          <t>wuj Świerzawski kuzyn</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>kuzyn</t>
+          <t>Świerzawski</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>kuzyna</t>
+          <t>świerzawski</t>
         </is>
       </c>
     </row>
@@ -2511,22 +2511,22 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Polanowskich</t>
+          <t>kuzyn</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>kuzyn Polanowskich z</t>
+          <t>Świerzawski kuzyn Polanowskich</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Polanowski</t>
+          <t>kuzyn</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>polanowski</t>
+          <t>kuzyna</t>
         </is>
       </c>
     </row>
@@ -2536,22 +2536,22 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Bełzkiego</t>
+          <t>Polanowskich</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>z Bełzkiego często</t>
+          <t>kuzyn Polanowskich z</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Bełzkie</t>
+          <t>Polanowski</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Bełzkiego</t>
+          <t>polanowski</t>
         </is>
       </c>
     </row>
@@ -2561,22 +2561,22 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Moszkowie</t>
+          <t>Bełzkiego</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>w Moszkowie z</t>
+          <t>z Bełzkiego często</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Moszkowo</t>
+          <t>Bełzkie</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Moszek</t>
+          <t>Bełzkiego</t>
         </is>
       </c>
     </row>
@@ -2586,22 +2586,22 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>śp</t>
+          <t>Moszkowie</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>mi śp .</t>
+          <t>w Moszkowie z</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>świętej</t>
+          <t>Moszkowo</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>świętej_pamięci</t>
+          <t>Moszek</t>
         </is>
       </c>
     </row>
@@ -2611,22 +2611,22 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Dziadek</t>
+          <t>śp</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>. Dziadek móy</t>
+          <t>mi śp .</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>dziadek</t>
+          <t>świętej</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Dziadek</t>
+          <t>świętej_pamięci</t>
         </is>
       </c>
     </row>
@@ -2636,22 +2636,22 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Komornikowej</t>
+          <t>Dziadek</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Pani Komornikowej niepomięła</t>
+          <t>. Dziadek móy</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>komornikowej</t>
+          <t>dziadek</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Komornikowej</t>
+          <t>Dziadek</t>
         </is>
       </c>
     </row>
@@ -2661,22 +2661,22 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Niewiem</t>
+          <t>Komornikowej</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>. Niewiem jakim</t>
+          <t>Pani Komornikowej niepomięła</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>niewiem</t>
+          <t>komornikowa</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Niewiem</t>
+          <t>Komornikowej</t>
         </is>
       </c>
     </row>
@@ -2686,22 +2686,22 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Rosyi</t>
+          <t>niepomięła</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>w Rosyi –</t>
+          <t>Komornikowej niepomięła –</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Rosya</t>
+          <t>niepomiąć</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Rosyi</t>
+          <t>niepomięła</t>
         </is>
       </c>
     </row>
@@ -2711,22 +2711,22 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Pan</t>
+          <t>Niewiem</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>nim Pan Stanisław</t>
+          <t>. Niewiem jakim</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>pan</t>
+          <t>niewiem</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Pan</t>
+          <t>Niewiem</t>
         </is>
       </c>
     </row>
@@ -2736,22 +2736,22 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Sachsen</t>
+          <t>Treterówną</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>do Sachsen Cobary</t>
+          <t>siostrą Treterówną -</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>sachsen</t>
+          <t>Treterówna</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Sachsen</t>
+          <t>Treterówną</t>
         </is>
       </c>
     </row>
@@ -2761,22 +2761,22 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Cobary</t>
+          <t>Rosyi</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Sachsen Cobary Ułanów</t>
+          <t>w Rosyi –</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>cobary</t>
+          <t>Rosya</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Cobary</t>
+          <t>Rosyi</t>
         </is>
       </c>
     </row>
@@ -2786,22 +2786,22 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Ułanów</t>
+          <t>Pan</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Cobary Ułanów mając</t>
+          <t>nim Pan Stanisław</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>ułan</t>
+          <t>pan</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Ułan</t>
+          <t>Pan</t>
         </is>
       </c>
     </row>
@@ -2811,22 +2811,22 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>p</t>
+          <t>Sachsen</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>. p .</t>
+          <t>do Sachsen Cobary</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>p</t>
+          <t>sachsen</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>List_świętego_Piotra</t>
+          <t>Sachsen</t>
         </is>
       </c>
     </row>
@@ -2836,22 +2836,22 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>nieśmiał</t>
+          <t>Cobary</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>ja nieśmiał em</t>
+          <t>Sachsen Cobary Ułanów</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>nieśmieć</t>
+          <t>cobary</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>MISPARSED</t>
+          <t>Cobary</t>
         </is>
       </c>
     </row>
@@ -2861,22 +2861,22 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>em</t>
+          <t>Ułanów</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>nieśmiał em wypytywać</t>
+          <t>Cobary Ułanów mając</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>być</t>
+          <t>ułan</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>MISPARSED</t>
+          <t>Ułan</t>
         </is>
       </c>
     </row>
@@ -2886,22 +2886,22 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>niebył</t>
+          <t>p</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Wreszcie niebył em</t>
+          <t>. p .</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>niebyć</t>
+          <t>p</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>MISPARSED</t>
+          <t>List_świętego_Piotra</t>
         </is>
       </c>
     </row>
@@ -2911,17 +2911,17 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>em</t>
+          <t>nieśmiał</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>niebył em nigdy</t>
+          <t>ja nieśmiał em</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>być</t>
+          <t>nieśmieć</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -2936,22 +2936,22 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Oycem</t>
+          <t>em</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>z Oycem na</t>
+          <t>nieśmiał em wypytywać</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>oycem</t>
+          <t>być</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Oycem</t>
+          <t>MISPARSED</t>
         </is>
       </c>
     </row>
@@ -2961,22 +2961,22 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Oyciec</t>
+          <t>niebył</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>a Oyciec ciągle</t>
+          <t>Wreszcie niebył em</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>oyciec</t>
+          <t>niebyć</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Oyciec</t>
+          <t>MISPARSED</t>
         </is>
       </c>
     </row>
@@ -2986,22 +2986,22 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>śp</t>
+          <t>em</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>zakończył śp .</t>
+          <t>niebył em nigdy</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>świętej</t>
+          <t>być</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>świętej_pamięci</t>
+          <t>MISPARSED</t>
         </is>
       </c>
     </row>
@@ -3011,22 +3011,22 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Oyciec</t>
+          <t>Oycem</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>móy Oyciec około</t>
+          <t>z Oycem na</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>oyciec</t>
+          <t>oycem</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Oyciec</t>
+          <t>Oycem</t>
         </is>
       </c>
     </row>
@@ -3036,22 +3036,22 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>kończ</t>
+          <t>Oyciec</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>do kończ życia</t>
+          <t>a Oyciec ciągle</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>koniec</t>
+          <t>oyciec</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>kończyć</t>
+          <t>Oyciec</t>
         </is>
       </c>
     </row>
@@ -3061,22 +3061,22 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>assekuracyi</t>
+          <t>śp</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>w assekuracyi armat</t>
+          <t>zakończył śp .</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>assekuracya</t>
+          <t>świętej</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>assekuracyi</t>
+          <t>świętej_pamięci</t>
         </is>
       </c>
     </row>
@@ -3086,22 +3086,22 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Dziadek</t>
+          <t>Oyciec</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>. Dziadek Melchior</t>
+          <t>móy Oyciec około</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>dziadek</t>
+          <t>oyciec</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Dziadek</t>
+          <t>Oyciec</t>
         </is>
       </c>
     </row>
@@ -3111,22 +3111,22 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>skrzętnem</t>
+          <t>kończ</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>fortuny skrzętnem gospodarstwem</t>
+          <t>do kończ życia</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>skrzętny</t>
+          <t>koniec</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>skrzętnem</t>
+          <t>kończyć</t>
         </is>
       </c>
     </row>
@@ -3136,22 +3136,22 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Stryjskim</t>
+          <t>assekuracyi</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>w Stryjskim -</t>
+          <t>w assekuracyi armat</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>stryjski</t>
+          <t>assekuracya</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Stryjski</t>
+          <t>assekuracyi</t>
         </is>
       </c>
     </row>
@@ -3161,22 +3161,22 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>tem</t>
+          <t>Dziadek</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>po tem jak</t>
+          <t>. Dziadek Melchior</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>to</t>
+          <t>dziadek</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>tema</t>
+          <t>Dziadek</t>
         </is>
       </c>
     </row>
@@ -3186,22 +3186,22 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Bludniki</t>
+          <t>skrzętnem</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>kupił Bludniki za</t>
+          <t>fortuny skrzętnem gospodarstwem</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Bludniki</t>
+          <t>skrzętny</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Bludnik</t>
+          <t>skrzętnem</t>
         </is>
       </c>
     </row>
@@ -3211,22 +3211,22 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Dziedzic</t>
+          <t>Stryjskim</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Nowy Dziedzic wchodził</t>
+          <t>w Stryjskim -</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>dziedzic</t>
+          <t>stryjski</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Dziedzic</t>
+          <t>Stryjski</t>
         </is>
       </c>
     </row>
@@ -3236,22 +3236,22 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>któremi</t>
+          <t>tem</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>nad któremi obeymował</t>
+          <t>po tem jak</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>który</t>
+          <t>to</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>któremi</t>
+          <t>tema</t>
         </is>
       </c>
     </row>
@@ -3261,22 +3261,22 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>obeymował</t>
+          <t>Bludniki</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>któremi obeymował Dziedzictwo</t>
+          <t>kupił Bludniki za</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>obeymować</t>
+          <t>Bludniki</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>obeymował</t>
+          <t>Bludnik</t>
         </is>
       </c>
     </row>
@@ -3286,22 +3286,22 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>juryzdyksye</t>
+          <t>Dziedzic</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>prawną juryzdyksye sądową</t>
+          <t>Nowy Dziedzic wchodził</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>juryzdyksya</t>
+          <t>dziedzic</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>juryzdyksye</t>
+          <t>Dziedzic</t>
         </is>
       </c>
     </row>
@@ -3311,22 +3311,22 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>instantacyi</t>
+          <t>któremi</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>pierwszey instantacyi .</t>
+          <t>nad któremi obeymował</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>instantacya</t>
+          <t>który</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>instantacyi</t>
+          <t>któremi</t>
         </is>
       </c>
     </row>
@@ -3336,22 +3336,22 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Pan</t>
+          <t>obeymował</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>to Pan dawał</t>
+          <t>któremi obeymował Dziedzictwo</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>pan</t>
+          <t>obeymować</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Pan</t>
+          <t>obeymował</t>
         </is>
       </c>
     </row>
@@ -3361,22 +3361,22 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>śp</t>
+          <t>juryzdyksye</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>em śp .</t>
+          <t>prawną juryzdyksye sądową</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>świętej</t>
+          <t>juryzdyksya</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>świętej_pamięci</t>
+          <t>juryzdyksye</t>
         </is>
       </c>
     </row>
@@ -3386,22 +3386,22 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Dziadka</t>
+          <t>instantacyi</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>. Dziadka Ostaszewskigo</t>
+          <t>pierwszey instantacyi .</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>dziadek</t>
+          <t>instantacya</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Dziadek</t>
+          <t>instantacyi</t>
         </is>
       </c>
     </row>
@@ -3411,22 +3411,22 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>kmiecie</t>
+          <t>Pan</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>jego kmiecie na</t>
+          <t>to Pan dawał</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>kmieć</t>
+          <t>pan</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>kmieci</t>
+          <t>Pan</t>
         </is>
       </c>
     </row>
@@ -3436,22 +3436,22 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>mają</t>
+          <t>śp</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>najlepsze mają konie</t>
+          <t>em śp .</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>mieć</t>
+          <t>świętej</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>maić</t>
+          <t>świętej_pamięci</t>
         </is>
       </c>
     </row>
@@ -3461,22 +3461,22 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>bydle</t>
+          <t>Dziadka</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>padło bydle robocze</t>
+          <t>. Dziadka Ostaszewskigo</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>bydlę</t>
+          <t>dziadek</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>bydło</t>
+          <t>Dziadek</t>
         </is>
       </c>
     </row>
@@ -3486,22 +3486,22 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Dłużanie</t>
+          <t>Ostaszewskigo</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>raz Dłużanie żalili</t>
+          <t>Dziadka Ostaszewskigo jak</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Dłużanin</t>
+          <t>Ostaszewski</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Dłużanie</t>
+          <t>Ostaszewskigo</t>
         </is>
       </c>
     </row>
@@ -3511,22 +3511,22 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>niemają</t>
+          <t>kmiecie</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>że niemają dogodnego</t>
+          <t>jego kmiecie na</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>niemieć</t>
+          <t>kmieć</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>niemaja</t>
+          <t>kmieci</t>
         </is>
       </c>
     </row>
@@ -3536,22 +3536,22 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>śp</t>
+          <t>mają</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Oddzieli śp .</t>
+          <t>najlepsze mają konie</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>świętej</t>
+          <t>mieć</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>świętej_pamięci</t>
+          <t>maić</t>
         </is>
       </c>
     </row>
@@ -3561,22 +3561,22 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Pan</t>
+          <t>bydle</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>. Pan Kazimierz</t>
+          <t>padło bydle robocze</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>pan</t>
+          <t>bydlę</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Pan</t>
+          <t>bydło</t>
         </is>
       </c>
     </row>
@@ -3586,22 +3586,22 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>suchey</t>
+          <t>Dłużanie</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>morgów suchey łąki</t>
+          <t>raz Dłużanie żalili</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>suchy</t>
+          <t>Dłużanin</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>suchey</t>
+          <t>Dłużanie</t>
         </is>
       </c>
     </row>
@@ -3611,22 +3611,22 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>podedworem</t>
+          <t>niemają</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>łąki podedworem a</t>
+          <t>że niemają dogodnego</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>podedwór</t>
+          <t>niemieć</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>podedworem</t>
+          <t>niemaja</t>
         </is>
       </c>
     </row>
@@ -3636,22 +3636,22 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>nayskładniey</t>
+          <t>śp</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>a nayskładniey położone</t>
+          <t>Oddzieli śp .</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>składnie</t>
+          <t>świętej</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>nayskładniey</t>
+          <t>świętej_pamięci</t>
         </is>
       </c>
     </row>
@@ -3661,22 +3661,22 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Niebył</t>
+          <t>Pan</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>. Niebył to</t>
+          <t>. Pan Kazimierz</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>niebyć</t>
+          <t>pan</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Niebyła</t>
+          <t>Pan</t>
         </is>
       </c>
     </row>
@@ -3686,22 +3686,22 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Oycowskiey</t>
+          <t>suchey</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>. Oycowskiey .</t>
+          <t>morgów suchey łąki</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>oycowski</t>
+          <t>suchy</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Oycowskiey</t>
+          <t>suchey</t>
         </is>
       </c>
     </row>
@@ -3711,22 +3711,22 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>warżenia</t>
+          <t>podedworem</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>prawo warżenia piwa</t>
+          <t>łąki podedworem a</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>warżyć</t>
+          <t>podedwór</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>warżenia</t>
+          <t>podedworem</t>
         </is>
       </c>
     </row>
@@ -3736,22 +3736,22 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>dworskim</t>
+          <t>nayskładniey</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>tak dworskim jak</t>
+          <t>a nayskładniey położone</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>dworski</t>
+          <t>składnie</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>dworskie</t>
+          <t>nayskładniey</t>
         </is>
       </c>
     </row>
@@ -3761,22 +3761,22 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>miarkmi</t>
+          <t>Niebył</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>– miarkmi wianki</t>
+          <t>. Niebył to</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>miarka</t>
+          <t>niebyć</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>miarkmi</t>
+          <t>Niebyła</t>
         </is>
       </c>
     </row>
@@ -3786,22 +3786,22 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>takiem</t>
+          <t>Oycowskiey</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>przy takiem obciążeniu</t>
+          <t>. Oycowskiey .</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>taki</t>
+          <t>oycowski</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>takiem</t>
+          <t>Oycowskiey</t>
         </is>
       </c>
     </row>
@@ -3811,22 +3811,22 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>jurysdykcyi</t>
+          <t>warżenia</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>urzędowa jurysdykcyi był</t>
+          <t>prawo warżenia piwa</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>jurysdykcya</t>
+          <t>warżyć</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>jurysdykcyi</t>
+          <t>warżenia</t>
         </is>
       </c>
     </row>
@@ -3836,22 +3836,22 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Dziedzica</t>
+          <t>dworskim</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Herb Dziedzica –</t>
+          <t>tak dworskim jak</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>dziedzic</t>
+          <t>dworski</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Dziedzic</t>
+          <t>dworskie</t>
         </is>
       </c>
     </row>
@@ -3861,22 +3861,22 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Bludniki</t>
+          <t>miarkmi</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Dominium Bludniki –</t>
+          <t>– miarkmi wianki</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Bludniki</t>
+          <t>miarka</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Bludnik</t>
+          <t>miarkmi</t>
         </is>
       </c>
     </row>
@@ -3886,22 +3886,22 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>t</t>
+          <t>takiem</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>i t .</t>
+          <t>przy takiem obciążeniu</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>tym</t>
+          <t>taki</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>tona</t>
+          <t>takiem</t>
         </is>
       </c>
     </row>
@@ -3911,22 +3911,22 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>p</t>
+          <t>jurysdykcyi</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>. p .</t>
+          <t>urzędowa jurysdykcyi był</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>podobne</t>
+          <t>jurysdykcya</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>List_świętego_Piotra</t>
+          <t>jurysdykcyi</t>
         </is>
       </c>
     </row>
@@ -3936,22 +3936,22 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>niemógł</t>
+          <t>Dziedzica</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Nieszlachcic niemógł kupować</t>
+          <t>Herb Dziedzica –</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>niemóc</t>
+          <t>dziedzic</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>niemógł</t>
+          <t>Dziedzic</t>
         </is>
       </c>
     </row>
@@ -3961,22 +3961,22 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Dziedzic</t>
+          <t>Bludniki</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>. Dziedzic postanawiał</t>
+          <t>Dominium Bludniki –</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>dziedzic</t>
+          <t>Bludniki</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Dziedzic</t>
+          <t>Bludnik</t>
         </is>
       </c>
     </row>
@@ -3986,22 +3986,22 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>swojem</t>
+          <t>t</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>na swojem mieycus</t>
+          <t>i t .</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>swój</t>
+          <t>tym</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>swojem</t>
+          <t>tona</t>
         </is>
       </c>
     </row>
@@ -4011,22 +4011,22 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>mieycus</t>
+          <t>p</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>swojem mieycus Mandatariusza</t>
+          <t>. p .</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>mieysce</t>
+          <t>podobne</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>mieycus</t>
+          <t>List_świętego_Piotra</t>
         </is>
       </c>
     </row>
@@ -4036,22 +4036,22 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Dominikalnym</t>
+          <t>niemógł</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>urzędzie Dominikalnym .</t>
+          <t>Nieszlachcic niemógł kupować</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>dominikalnym</t>
+          <t>niemóc</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Dominikalnym</t>
+          <t>niemógł</t>
         </is>
       </c>
     </row>
@@ -4061,22 +4061,22 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>niemogło</t>
+          <t>Dziedzic</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>– niemogło się</t>
+          <t>. Dziedzic postanawiał</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>niemóc</t>
+          <t>dziedzic</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>niemogło</t>
+          <t>Dziedzic</t>
         </is>
       </c>
     </row>
@@ -4086,22 +4086,22 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Dominii</t>
+          <t>swojem</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>z Dominii nieprzyniósł</t>
+          <t>na swojem mieycus</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>dominia</t>
+          <t>swój</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Dominii</t>
+          <t>swojem</t>
         </is>
       </c>
     </row>
@@ -4111,22 +4111,22 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Pan</t>
+          <t>mieycus</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>bo Pan we</t>
+          <t>swojem mieycus Mandatariusza</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>pan</t>
+          <t>mieysce</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Pan</t>
+          <t>mieycus</t>
         </is>
       </c>
     </row>
@@ -4136,22 +4136,22 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>Dominikalnym</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>domu P .</t>
+          <t>urzędzie Dominikalnym .</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>p</t>
+          <t>dominikalnym</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>List_świętego_Piotra</t>
+          <t>Dominikalnym</t>
         </is>
       </c>
     </row>
@@ -4161,22 +4161,22 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>niemogło</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>. T Dziadek</t>
+          <t>– niemogło się</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>t</t>
+          <t>niemóc</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>tona</t>
+          <t>niemogło</t>
         </is>
       </c>
     </row>
@@ -4186,22 +4186,22 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Dziadek</t>
+          <t>Dominii</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>T Dziadek móy</t>
+          <t>z Dominii nieprzyniósł</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>dziadek</t>
+          <t>dominia</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Dziadek</t>
+          <t>Dominii</t>
         </is>
       </c>
     </row>
@@ -4211,22 +4211,22 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Pana</t>
+          <t>nieprzyniósł</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>noga Pana tego</t>
+          <t>Dominii nieprzyniósł kartki</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>pan</t>
+          <t>nieprzynieść</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Pan</t>
+          <t>nieprzyniósł</t>
         </is>
       </c>
     </row>
@@ -4236,22 +4236,22 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Mandatariaty</t>
+          <t>Pan</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>. Mandatariaty po</t>
+          <t>bo Pan we</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>mandatariat</t>
+          <t>pan</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Mandatariaty</t>
+          <t>Pan</t>
         </is>
       </c>
     </row>
@@ -4261,22 +4261,22 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>ludowemi</t>
+          <t>P</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>dziś ludowemi zwanych</t>
+          <t>domu P .</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>ludowe</t>
+          <t>p</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>ludowemi</t>
+          <t>List_świętego_Piotra</t>
         </is>
       </c>
     </row>
@@ -4286,22 +4286,22 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>manipulacyi</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>– manipulacyi urzędowey</t>
+          <t>. T Dziadek</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>manipulacya</t>
+          <t>t</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>manipulacyi</t>
+          <t>tona</t>
         </is>
       </c>
     </row>
@@ -4311,22 +4311,22 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>urzędowey</t>
+          <t>Dziadek</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>manipulacyi urzędowey –</t>
+          <t>T Dziadek móy</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>urzędowa</t>
+          <t>dziadek</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>urzędowey</t>
+          <t>Dziadek</t>
         </is>
       </c>
     </row>
@@ -4336,22 +4336,22 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Domnikalnego</t>
+          <t>Pana</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>reprezentanta Domnikalnego czyli</t>
+          <t>noga Pana tego</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>domnikalny</t>
+          <t>pan</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Domnikalnego</t>
+          <t>Pan</t>
         </is>
       </c>
     </row>
@@ -4361,22 +4361,22 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Mandataryusza</t>
+          <t>Mandatariaty</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>czyli Mandataryusza .</t>
+          <t>. Mandatariaty po</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>mandataryusza</t>
+          <t>mandatariat</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Mandataryusza</t>
+          <t>Mandatariaty</t>
         </is>
       </c>
     </row>
@@ -4386,22 +4386,22 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Mandatyrusza</t>
+          <t>ludowemi</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>. Mandatyrusza przyjmował</t>
+          <t>dziś ludowemi zwanych</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>mandatyrusza</t>
+          <t>ludowe</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Mandatyrusza</t>
+          <t>ludowemi</t>
         </is>
       </c>
     </row>
@@ -4411,22 +4411,22 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Dziedzic</t>
+          <t>mandataryusza</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>przyjmował Dziedzic na</t>
+          <t>do mandataryusza –</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>dziedzic</t>
+          <t>mandataryusz</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Dziedzic</t>
+          <t>mandataryusza</t>
         </is>
       </c>
     </row>
@@ -4436,22 +4436,22 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>depozyta</t>
+          <t>manipulacyi</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>i depozyta starościńskie</t>
+          <t>– manipulacyi urzędowey</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>depozyt</t>
+          <t>manipulacya</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>depozyta</t>
+          <t>manipulacyi</t>
         </is>
       </c>
     </row>
@@ -4461,22 +4461,22 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Mandataryusz</t>
+          <t>urzędowey</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>. Mandataryusz pobierał</t>
+          <t>manipulacyi urzędowey –</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>mandataryusz</t>
+          <t>urzędowa</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>Mandataryusz</t>
+          <t>urzędowey</t>
         </is>
       </c>
     </row>
@@ -4486,22 +4486,22 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Dziedzica</t>
+          <t>Domnikalnego</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>od Dziedzica pensyę</t>
+          <t>reprezentanta Domnikalnego czyli</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>dziedzic</t>
+          <t>domnikalny</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Dziedzic</t>
+          <t>Domnikalnego</t>
         </is>
       </c>
     </row>
@@ -4511,22 +4511,22 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>pensyę</t>
+          <t>Mandataryusza</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Dziedzica pensyę od</t>
+          <t>czyli Mandataryusza .</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>pensya</t>
+          <t>mandataryusz</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>pensyę</t>
+          <t>Mandataryusza</t>
         </is>
       </c>
     </row>
@@ -4536,22 +4536,22 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>ordynaryi</t>
+          <t>Mandatyrusza</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>korcy ordynaryi –</t>
+          <t>. Mandatyrusza przyjmował</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>ordynarya</t>
+          <t>mandatyrusz</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>ordynaryi</t>
+          <t>Mandatyrusza</t>
         </is>
       </c>
     </row>
@@ -4561,12 +4561,12 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Dziedzica</t>
+          <t>Dziedzic</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>zastępował Dziedzica .</t>
+          <t>przyjmował Dziedzic na</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
@@ -4586,22 +4586,22 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>szczupłey</t>
+          <t>depozyta</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>tak szczupłey dotacyi</t>
+          <t>i depozyta starościńskie</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>szczupła</t>
+          <t>depozyt</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>szczupłey</t>
+          <t>depozyta</t>
         </is>
       </c>
     </row>
@@ -4611,22 +4611,22 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>dotacyi</t>
+          <t>Mandataryusz</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>szczupłey dotacyi uwzględniając</t>
+          <t>. Mandataryusz pobierał</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>dotacya</t>
+          <t>mandataryusz</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>dotacyi</t>
+          <t>Mandataryusz</t>
         </is>
       </c>
     </row>
@@ -4636,22 +4636,22 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>mając</t>
+          <t>Dziedzica</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>– mając przytem</t>
+          <t>od Dziedzica pensyę</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>mieć</t>
+          <t>dziedzic</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>maić</t>
+          <t>Dziedzic</t>
         </is>
       </c>
     </row>
@@ -4661,22 +4661,22 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Panowie</t>
+          <t>pensyę</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>obrywki Panowie ci</t>
+          <t>Dziedzica pensyę od</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>pan</t>
+          <t>pensya</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>Pan</t>
+          <t>pensyę</t>
         </is>
       </c>
     </row>
@@ -4686,22 +4686,22 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>lepiey</t>
+          <t>ordynaryi</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>nieraz lepiey jak</t>
+          <t>korcy ordynaryi –</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>dobrze</t>
+          <t>ordynarya</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>lepiey</t>
+          <t>ordynaryi</t>
         </is>
       </c>
     </row>
@@ -4711,22 +4711,22 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Panom</t>
+          <t>Dziedzica</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>i Panom Urzędnikom</t>
+          <t>zastępował Dziedzica .</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>pan</t>
+          <t>dziedzic</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Pan</t>
+          <t>Dziedzic</t>
         </is>
       </c>
     </row>
@@ -4736,22 +4736,22 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>ładąn</t>
+          <t>szczupłey</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>– ładąn parą</t>
+          <t>tak szczupłey dotacyi</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>ładna</t>
+          <t>szczupła</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>ładąn</t>
+          <t>szczupłey</t>
         </is>
       </c>
     </row>
@@ -4761,22 +4761,22 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Dziad</t>
+          <t>dotacyi</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>móy Dziad podbierając</t>
+          <t>szczupłey dotacyi uwzględniając</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>dziad</t>
+          <t>dotacya</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Dziad</t>
+          <t>dotacyi</t>
         </is>
       </c>
     </row>
@@ -4786,22 +4786,22 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Bludnikach</t>
+          <t>cwansigera</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>w Bludnikach –</t>
+          <t>owsa cwansigera –</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Bludniki</t>
+          <t>cwansiger</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Bludnik</t>
+          <t>cwansigera</t>
         </is>
       </c>
     </row>
@@ -4811,22 +4811,22 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Bludnik</t>
+          <t>mając</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>do Bludnik należały</t>
+          <t>– mając przytem</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Bludniki</t>
+          <t>mieć</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Bludnik</t>
+          <t>maić</t>
         </is>
       </c>
     </row>
@@ -4836,22 +4836,22 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Siedliska</t>
+          <t>Panowie</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>i Siedliska –</t>
+          <t>obrywki Panowie ci</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Siedliska</t>
+          <t>pan</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>siedliski</t>
+          <t>Pan</t>
         </is>
       </c>
     </row>
@@ -4861,22 +4861,22 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Dziedzica</t>
+          <t>lepiey</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>nowego Dziedzica –</t>
+          <t>nieraz lepiey jak</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>dziedzic</t>
+          <t>dobrze</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>Dziedzic</t>
+          <t>lepiey</t>
         </is>
       </c>
     </row>
@@ -4886,22 +4886,22 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>grube</t>
+          <t>Panom</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>bielone grube po</t>
+          <t>i Panom Urzędnikom</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>gruby</t>
+          <t>pan</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>grube</t>
+          <t>Pan</t>
         </is>
       </c>
     </row>
@@ -4911,22 +4911,22 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>zkończone</t>
+          <t>ładąn</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>białą zkończone )</t>
+          <t>– ładąn parą</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>zkończony</t>
+          <t>ładna</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>zkończone</t>
+          <t>ładąn</t>
         </is>
       </c>
     </row>
@@ -4936,22 +4936,22 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>niewiem</t>
+          <t>Dziad</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>– niewiem czy</t>
+          <t>móy Dziad podbierając</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>niewiem</t>
+          <t>dziad</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>Niewiem</t>
+          <t>Dziad</t>
         </is>
       </c>
     </row>
@@ -4961,22 +4961,22 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Dziedzicowi</t>
+          <t>Bludnikach</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>Panu Dziedzicowi chodzi</t>
+          <t>w Bludnikach –</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>dziedzic</t>
+          <t>Bludniki</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Dziedzic</t>
+          <t>Bludnik</t>
         </is>
       </c>
     </row>
@@ -4986,22 +4986,22 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Dziadek</t>
+          <t>Bludnik</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>. Dziadek móy</t>
+          <t>do Bludnik należały</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>dziadek</t>
+          <t>Bludniki</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>Dziadek</t>
+          <t>Bludnik</t>
         </is>
       </c>
     </row>
@@ -5011,22 +5011,22 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>człowiecze</t>
+          <t>Siedliska</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>Ty człowiecze na</t>
+          <t>i Siedliska –</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>człowiek</t>
+          <t>Siedliska</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>człowieczy</t>
+          <t>siedliski</t>
         </is>
       </c>
     </row>
@@ -5036,22 +5036,22 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>nieporadzisz</t>
+          <t>Dziedzica</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>mi nieporadzisz –</t>
+          <t>nowego Dziedzica –</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>nieporadzić</t>
+          <t>dziedzic</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>niePoradzisz</t>
+          <t>Dziedzic</t>
         </is>
       </c>
     </row>
@@ -5061,22 +5061,22 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Dziadek</t>
+          <t>rantuchem</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>mu Dziadek potrzebuję</t>
+          <t>długim rantuchem –</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>dziadek</t>
+          <t>rantuch</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>Dziadek</t>
+          <t>rantuchem</t>
         </is>
       </c>
     </row>
@@ -5086,22 +5086,22 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Dukatów</t>
+          <t>grube</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>2000 Dukatów –</t>
+          <t>bielone grube po</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>dukat</t>
+          <t>gruby</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>Dukat</t>
+          <t>grube</t>
         </is>
       </c>
     </row>
@@ -5111,22 +5111,22 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Dziedzic</t>
+          <t>zkończone</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>żeby Dziedzic przyjął</t>
+          <t>białą zkończone )</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>dziedzic</t>
+          <t>zkończony</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>Dziedzic</t>
+          <t>zkończone</t>
         </is>
       </c>
     </row>
@@ -5136,22 +5136,22 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>mojey</t>
+          <t>niewiem</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>za mojey pamięci</t>
+          <t>– niewiem czy</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>mój</t>
+          <t>niewiem</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>mojey</t>
+          <t>Niewiem</t>
         </is>
       </c>
     </row>
@@ -5161,22 +5161,22 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Bludnikach</t>
+          <t>Dziedzicowi</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>w Bludnikach .</t>
+          <t>Panu Dziedzicowi chodzi</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>Bludniki</t>
+          <t>dziedzic</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>Bludnik</t>
+          <t>Dziedzic</t>
         </is>
       </c>
     </row>
@@ -5186,22 +5186,22 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Pan</t>
+          <t>Dziadek</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>był Pan Witwicki</t>
+          <t>. Dziadek móy</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>pan</t>
+          <t>dziadek</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>Pan</t>
+          <t>Dziadek</t>
         </is>
       </c>
     </row>
@@ -5211,22 +5211,22 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>jaszcze</t>
+          <t>człowiecze</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>był jaszcze tam</t>
+          <t>Ty człowiecze na</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>jaszcze</t>
+          <t>człowiek</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>jaszcz</t>
+          <t>człowieczy</t>
         </is>
       </c>
     </row>
@@ -5236,22 +5236,22 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Proboszczem</t>
+          <t>nieporadzisz</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>. Proboszczem był</t>
+          <t>mi nieporadzisz –</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>proboszcz</t>
+          <t>nieporadzić</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>Proboszcz</t>
+          <t>niePoradzisz</t>
         </is>
       </c>
     </row>
@@ -5261,22 +5261,22 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Głoweckiego</t>
+          <t>Dziadek</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>owego Głoweckiego –</t>
+          <t>mu Dziadek potrzebuję</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>Głowecki</t>
+          <t>dziadek</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>Głoweckiego</t>
+          <t>Dziadek</t>
         </is>
       </c>
     </row>
@@ -5286,22 +5286,22 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>późney</t>
+          <t>Dukatów</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>tak późney dokupił</t>
+          <t>2000 Dukatów –</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>późno</t>
+          <t>dukat</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>późney</t>
+          <t>Dukat</t>
         </is>
       </c>
     </row>
@@ -5311,22 +5311,22 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Dziad</t>
+          <t>Dziedzic</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>dokupił Dziad móy</t>
+          <t>żeby Dziedzic przyjął</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>dziad</t>
+          <t>dziedzic</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>Dziad</t>
+          <t>Dziedzic</t>
         </is>
       </c>
     </row>
@@ -5336,22 +5336,22 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Dochorowie</t>
+          <t>mojey</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>W Dochorowie osadził</t>
+          <t>za mojey pamięci</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>Dochorów</t>
+          <t>mój</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>Dochorowie</t>
+          <t>mojey</t>
         </is>
       </c>
     </row>
@@ -5361,22 +5361,22 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>nayjstarszego</t>
+          <t>Bludnikach</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>osadził nayjstarszego syna</t>
+          <t>w Bludnikach .</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>stary</t>
+          <t>Bludniki</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>nayjstarszego</t>
+          <t>Bludnik</t>
         </is>
       </c>
     </row>
@@ -5386,22 +5386,22 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Toje</t>
+          <t>Pan</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>– Toje diło</t>
+          <t>był Pan Witwicki</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>toje</t>
+          <t>pan</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>Toje</t>
+          <t>Pan</t>
         </is>
       </c>
     </row>
@@ -5411,22 +5411,22 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Mychayłowu</t>
+          <t>jaszcze</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>mojomu Mychayłowu .</t>
+          <t>był jaszcze tam</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>mychayłowu</t>
+          <t>jaszcze</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>Mychayłowu</t>
+          <t>jaszcz</t>
         </is>
       </c>
     </row>
@@ -5436,22 +5436,22 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Bludniki</t>
+          <t>Proboszczem</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>. Bludniki oddał</t>
+          <t>. Proboszczem był</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>Bludniki</t>
+          <t>proboszcz</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>Bludnik</t>
+          <t>Proboszcz</t>
         </is>
       </c>
     </row>
@@ -5461,22 +5461,22 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>iOycu</t>
+          <t>Głoweckiego</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>Józefowi iOycu mojemu</t>
+          <t>owego Głoweckiego –</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>ioyciec</t>
+          <t>Głowecki</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>iOycu</t>
+          <t>Głoweckiego</t>
         </is>
       </c>
     </row>
@@ -5486,22 +5486,22 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Pan</t>
+          <t>późney</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>. Pan Józef</t>
+          <t>tak późney dokupił</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>pan</t>
+          <t>późno</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>Pan</t>
+          <t>późney</t>
         </is>
       </c>
     </row>
@@ -5511,22 +5511,22 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Oyciec</t>
+          <t>Dziad</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>– Oyciec móy</t>
+          <t>dokupił Dziad móy</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>oyciec</t>
+          <t>dziad</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>Oyciec</t>
+          <t>Dziad</t>
         </is>
       </c>
     </row>
@@ -5536,22 +5536,22 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Oyca</t>
+          <t>Dochorowie</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>mojego Oyca pono</t>
+          <t>W Dochorowie osadził</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>oyca</t>
+          <t>Dochorów</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>Oyca</t>
+          <t>Dochorowie</t>
         </is>
       </c>
     </row>
@@ -5561,22 +5561,22 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Pana</t>
+          <t>nayjstarszego</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>– Pana Józefa</t>
+          <t>osadził nayjstarszego syna</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>pan</t>
+          <t>stary</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>Pan</t>
+          <t>nayjstarszego</t>
         </is>
       </c>
     </row>
@@ -5586,22 +5586,22 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Dziadek</t>
+          <t>Toje</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>wziął Dziadek móy</t>
+          <t>– Toje diło</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>dziadek</t>
+          <t>toje</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>Dziadek</t>
+          <t>Toje</t>
         </is>
       </c>
     </row>
@@ -5611,22 +5611,22 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Siemginowa</t>
+          <t>Mychayłowu</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>do Siemginowa –</t>
+          <t>mojomu Mychayłowu .</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>Siemginów</t>
+          <t>mychayłowu</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>Siemginowa</t>
+          <t>Mychayłowu</t>
         </is>
       </c>
     </row>
@@ -5636,22 +5636,22 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>dośmierci</t>
+          <t>Bludniki</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>aż dośmierci Oyca</t>
+          <t>. Bludniki oddał</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>dośmierć</t>
+          <t>Bludniki</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>dośmierci</t>
+          <t>Bludnik</t>
         </is>
       </c>
     </row>
@@ -5661,22 +5661,22 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Oyca</t>
+          <t>iOycu</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>dośmierci Oyca przy</t>
+          <t>Józefowi iOycu mojemu</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>oyciec</t>
+          <t>ioyciec</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>Oyca</t>
+          <t>iOycu</t>
         </is>
       </c>
     </row>
@@ -5686,22 +5686,22 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Dziadek</t>
+          <t>Pan</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>bo Dziadek móy</t>
+          <t>. Pan Józef</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>dziadek</t>
+          <t>pan</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>Dziadek</t>
+          <t>Pan</t>
         </is>
       </c>
     </row>
@@ -5711,22 +5711,22 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Doktor</t>
+          <t>Oyciec</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>kataraktę Doktor Słowikowski</t>
+          <t>– Oyciec móy</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>doktor</t>
+          <t>oyciec</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>Doktor</t>
+          <t>Oyciec</t>
         </is>
       </c>
     </row>
@@ -5736,22 +5736,22 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Dziadek</t>
+          <t>Oyca</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>. Dziadek umarł</t>
+          <t>mojego Oyca pono</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>dziadek</t>
+          <t>oyca</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>Dziadek</t>
+          <t>Oyca</t>
         </is>
       </c>
     </row>
@@ -5761,12 +5761,12 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Pan</t>
+          <t>Pana</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>a Pan Józef</t>
+          <t>– Pana Józefa</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
@@ -5786,22 +5786,22 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Oyciec</t>
+          <t>Dziadek</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>wydzielił Oyciec schedę</t>
+          <t>wziął Dziadek móy</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>oyciec</t>
+          <t>dziadek</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>Oyciec</t>
+          <t>Dziadek</t>
         </is>
       </c>
     </row>
@@ -5811,22 +5811,22 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>niewinem</t>
+          <t>Siemginowa</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>Lipa niewinem .</t>
+          <t>do Siemginowa –</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>niewiedzieć</t>
+          <t>Siemginów</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>Niewino</t>
+          <t>Siemginowa</t>
         </is>
       </c>
     </row>
@@ -5836,22 +5836,22 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Pan</t>
+          <t>dośmierci</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>. Pan Michał</t>
+          <t>aż dośmierci Oyca</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>pan</t>
+          <t>dośmierć</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>Pan</t>
+          <t>dośmierci</t>
         </is>
       </c>
     </row>
@@ -5861,22 +5861,22 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Bludnikami</t>
+          <t>Oyca</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>z Bludnikami o</t>
+          <t>dośmierci Oyca przy</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>Bludniki</t>
+          <t>oyciec</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>Bludnik</t>
+          <t>Oyca</t>
         </is>
       </c>
     </row>
@@ -5886,22 +5886,22 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Temerowiec</t>
+          <t>Dziadek</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>z Temerowiec ,</t>
+          <t>bo Dziadek móy</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>Temerowice</t>
+          <t>dziadek</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>Temerowiec</t>
+          <t>Dziadek</t>
         </is>
       </c>
     </row>
@@ -5911,22 +5911,22 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Stanisława</t>
+          <t>Doktor</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>i Stanisława Zabilskich</t>
+          <t>kataraktę Doktor Słowikowski</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>Stanisław</t>
+          <t>doktor</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>Stanisława</t>
+          <t>Doktor</t>
         </is>
       </c>
     </row>
@@ -5936,22 +5936,22 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Oyciec</t>
+          <t>Dziadek</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>go Oyciec odumarł</t>
+          <t>. Dziadek umarł</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>oyciec</t>
+          <t>dziadek</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>Oyciec</t>
+          <t>Dziadek</t>
         </is>
       </c>
     </row>
@@ -5961,22 +5961,22 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Oycem</t>
+          <t>Pan</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>za Oycem doszedłszy</t>
+          <t>a Pan Józef</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>oyciec</t>
+          <t>pan</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>Oycem</t>
+          <t>Pan</t>
         </is>
       </c>
     </row>
@@ -5986,22 +5986,22 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Majątek</t>
+          <t>Oyciec</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>. Majątek prawem</t>
+          <t>wydzielił Oyciec schedę</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>majątek</t>
+          <t>oyciec</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>Majątek</t>
+          <t>Oyciec</t>
         </is>
       </c>
     </row>
@@ -6011,22 +6011,22 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>sukcessyi</t>
+          <t>niewinem</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>prawem sukcessyi przeszedł</t>
+          <t>Lipa niewinem .</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>sukcessya</t>
+          <t>niewiedzieć</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>sukcessyi</t>
+          <t>Niewino</t>
         </is>
       </c>
     </row>
@@ -6041,7 +6041,7 @@
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>– Pan Kazimierz</t>
+          <t>. Pan Michał</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
@@ -6061,22 +6061,22 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>niebył</t>
+          <t>Bludnikami</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>– niebył gospodarzem</t>
+          <t>z Bludnikami o</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>niebyć</t>
+          <t>Bludniki</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>Niebyła</t>
+          <t>Bludnik</t>
         </is>
       </c>
     </row>
@@ -6086,22 +6086,22 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>więcey</t>
+          <t>Temerowiec</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>gospodarzem więcey fantasta</t>
+          <t>z Temerowiec ,</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>dużo</t>
+          <t>Temerowice</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>więcey</t>
+          <t>Temerowiec</t>
         </is>
       </c>
     </row>
@@ -6111,22 +6111,22 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Pana</t>
+          <t>Stanisława</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>„ Pana Tadeusza</t>
+          <t>i Stanisława Zabilskich</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>pan</t>
+          <t>Stanisław</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>Pan</t>
+          <t>Stanisława</t>
         </is>
       </c>
     </row>
@@ -6136,22 +6136,22 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>gołey</t>
+          <t>Oyciec</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>na gołey podłodze</t>
+          <t>go Oyciec odumarł</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>goła</t>
+          <t>oyciec</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>gołey</t>
+          <t>Oyciec</t>
         </is>
       </c>
     </row>
@@ -6161,22 +6161,22 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>niemogli</t>
+          <t>Oycem</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>ci niemogli długo</t>
+          <t>za Oycem doszedłszy</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>niemóc</t>
+          <t>oyciec</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>niemogel</t>
+          <t>Oycem</t>
         </is>
       </c>
     </row>
@@ -6186,22 +6186,22 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>nietylko</t>
+          <t>Majątek</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>– nietylko czeladź</t>
+          <t>. Majątek prawem</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>nietylko</t>
+          <t>majątek</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>nieTylko</t>
+          <t>Majątek</t>
         </is>
       </c>
     </row>
@@ -6211,22 +6211,22 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>obeyściu</t>
+          <t>sukcessyi</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>na obeyściu niemożna</t>
+          <t>prawem sukcessyi przeszedł</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>obeyście</t>
+          <t>sukcessya</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>obeyściu</t>
+          <t>sukcessyi</t>
         </is>
       </c>
     </row>
@@ -6236,22 +6236,22 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>niemożna</t>
+          <t>Pan</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>obeyściu niemożna było</t>
+          <t>– Pan Kazimierz</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>niemóc</t>
+          <t>pan</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>niemożny</t>
+          <t>Pan</t>
         </is>
       </c>
     </row>
@@ -6261,22 +6261,22 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Sukcesya</t>
+          <t>niebył</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>. Sukcesya po</t>
+          <t>– niebył gospodarzem</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>sukcesya</t>
+          <t>niebyć</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>Sukcesya</t>
+          <t>Niebyła</t>
         </is>
       </c>
     </row>
@@ -6286,22 +6286,22 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Oyca</t>
+          <t>więcey</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>mojego Oyca spadała</t>
+          <t>gospodarzem więcey fantasta</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>oyciec</t>
+          <t>dużo</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>Oyca</t>
+          <t>więcey</t>
         </is>
       </c>
     </row>
@@ -6311,22 +6311,22 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Treterowej</t>
+          <t>Pana</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>rodzonym Treterowej i</t>
+          <t>„ Pana Tadeusza</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>Treterowa</t>
+          <t>pan</t>
         </is>
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>Treterowej</t>
+          <t>Pan</t>
         </is>
       </c>
     </row>
@@ -6336,22 +6336,22 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Swieżaskiey</t>
+          <t>gołey</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>i Swieżaskiey .</t>
+          <t>na gołey podłodze</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>Swieżaska</t>
+          <t>goła</t>
         </is>
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>Swieżaskiey</t>
+          <t>gołey</t>
         </is>
       </c>
     </row>
@@ -6361,22 +6361,22 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Pan</t>
+          <t>niemogli</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>. Pan Józef</t>
+          <t>ci niemogli długo</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>pan</t>
+          <t>niemóc</t>
         </is>
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>Pan</t>
+          <t>niemogel</t>
         </is>
       </c>
     </row>
@@ -6386,22 +6386,22 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Oyca</t>
+          <t>nietylko</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>śmierci Oyca z</t>
+          <t>– nietylko czeladź</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>oyca</t>
+          <t>nietylko</t>
         </is>
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>Oyca</t>
+          <t>nieTylko</t>
         </is>
       </c>
     </row>
@@ -6411,22 +6411,22 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Panną</t>
+          <t>obeyściu</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>z Panną Julią</t>
+          <t>na obeyściu niemożna</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>panna</t>
+          <t>obeyście</t>
         </is>
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>Panna</t>
+          <t>obeyściu</t>
         </is>
       </c>
     </row>
@@ -6436,22 +6436,22 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Kruszelnicę</t>
+          <t>niemożna</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>czy Kruszelnicę –</t>
+          <t>obeyściu niemożna było</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>Kruszelnica</t>
+          <t>niemóc</t>
         </is>
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>Kruszelnicę</t>
+          <t>niemożny</t>
         </is>
       </c>
     </row>
@@ -6461,22 +6461,22 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>Panny</t>
+          <t>Sukcesya</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>2 Panny niemając</t>
+          <t>. Sukcesya po</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>panna</t>
+          <t>sukcesya</t>
         </is>
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>Panna</t>
+          <t>Sukcesya</t>
         </is>
       </c>
     </row>
@@ -6486,22 +6486,22 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>Panna</t>
+          <t>Oyca</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>fatum Panna Julia</t>
+          <t>mojego Oyca spadała</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>panna</t>
+          <t>oyciec</t>
         </is>
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>Panna</t>
+          <t>Oyca</t>
         </is>
       </c>
     </row>
@@ -6511,22 +6511,22 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>Bludnik</t>
+          <t>Treterowej</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>sąsiedztwo Bludnik do</t>
+          <t>rodzonym Treterowej i</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>Bludniki</t>
+          <t>Treterowa</t>
         </is>
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>Bludnik</t>
+          <t>Treterowej</t>
         </is>
       </c>
     </row>
@@ -6536,22 +6536,22 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>Rudzkich</t>
+          <t>Swieżaskiey</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>Państwa Rudzkich gdzie</t>
+          <t>i Swieżaskiey .</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>Rudzki</t>
+          <t>Swieżaska</t>
         </is>
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>rudzki</t>
+          <t>Swieżaskiey</t>
         </is>
       </c>
     </row>
@@ -6586,22 +6586,22 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>Siemiginowie</t>
+          <t>Oyca</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>na Siemiginowie już</t>
+          <t>śmierci Oyca z</t>
         </is>
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>Siemiginów</t>
+          <t>oyca</t>
         </is>
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>Siemiginowie</t>
+          <t>Oyca</t>
         </is>
       </c>
     </row>
@@ -6611,12 +6611,12 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>Panny</t>
+          <t>Panną</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>krewni Panny Juli</t>
+          <t>z Panną Julią</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
@@ -6636,22 +6636,22 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>Pan</t>
+          <t>Stryiskim</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>że Pan Józef</t>
+          <t>w Stryiskim w</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>pan</t>
+          <t>Stryiskie</t>
         </is>
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>Pan</t>
+          <t>Stryiskim</t>
         </is>
       </c>
     </row>
@@ -6661,22 +6661,22 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>sukcessorów</t>
+          <t>Kruszelnicę</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>niema sukcessorów ,</t>
+          <t>czy Kruszelnicę –</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>sukcessor</t>
+          <t>Kruszelnica</t>
         </is>
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>sukcessorów</t>
+          <t>Kruszelnicę</t>
         </is>
       </c>
     </row>
@@ -6686,22 +6686,22 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>Kruszelnicy</t>
+          <t>generacyi</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>do Kruszelnicy o</t>
+          <t>kilka generacyi na</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>Kruszelnica</t>
+          <t>generacya</t>
         </is>
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>Kruszelnicy</t>
+          <t>generacyi</t>
         </is>
       </c>
     </row>
@@ -6711,22 +6711,22 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>odległey</t>
+          <t>obeyściu</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>mil odległey od</t>
+          <t>jednem obeyściu było</t>
         </is>
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>odległa</t>
+          <t>obeyście</t>
         </is>
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>odległey</t>
+          <t>obeyściu</t>
         </is>
       </c>
     </row>
@@ -6736,22 +6736,22 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>Siemignowa</t>
+          <t>Panny</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>od Siemignowa –</t>
+          <t>2 Panny niemając</t>
         </is>
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>Siemignów</t>
+          <t>panna</t>
         </is>
       </c>
       <c r="E253" t="inlineStr">
         <is>
-          <t>Siemignowa</t>
+          <t>Panna</t>
         </is>
       </c>
     </row>
@@ -6761,22 +6761,22 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>łania</t>
+          <t>Panna</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>jak łania Panna</t>
+          <t>fatum Panna Julia</t>
         </is>
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>łania</t>
+          <t>panna</t>
         </is>
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>łani</t>
+          <t>Panna</t>
         </is>
       </c>
     </row>
@@ -6786,22 +6786,22 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>Panna</t>
+          <t>Bludnik</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>łania Panna Julia</t>
+          <t>sąsiedztwo Bludnik do</t>
         </is>
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>panna</t>
+          <t>Bludniki</t>
         </is>
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>Panna</t>
+          <t>Bludnik</t>
         </is>
       </c>
     </row>
@@ -6811,22 +6811,22 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>Siemiginowa</t>
+          <t>Rudzkich</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>sukcessorka Siemiginowa –</t>
+          <t>Państwa Rudzkich gdzie</t>
         </is>
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>Siemiginów</t>
+          <t>Rudzki</t>
         </is>
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>Siemiginowa</t>
+          <t>rudzki</t>
         </is>
       </c>
     </row>
@@ -6841,7 +6841,7 @@
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>kupił Pan Józef</t>
+          <t>. Pan Józef</t>
         </is>
       </c>
       <c r="D257" t="inlineStr">
@@ -6861,22 +6861,22 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>Nawaryi</t>
+          <t>Siemiginowie</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>koło Nawaryi i</t>
+          <t>na Siemiginowie już</t>
         </is>
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>Nawarya</t>
+          <t>Siemiginów</t>
         </is>
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>Nawaryi</t>
+          <t>Siemiginowie</t>
         </is>
       </c>
     </row>
@@ -6886,22 +6886,22 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>ciepłey</t>
+          <t>Panny</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>ale ciepłey wdowy</t>
+          <t>krewni Panny Juli</t>
         </is>
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>ciepła</t>
+          <t>panna</t>
         </is>
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>ciepłey</t>
+          <t>Panna</t>
         </is>
       </c>
     </row>
@@ -6911,22 +6911,22 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>Szołayskiego</t>
+          <t>Pan</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>pana Szołayskiego młodzika</t>
+          <t>że Pan Józef</t>
         </is>
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>Szołayski</t>
+          <t>pan</t>
         </is>
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>Szołayskiego</t>
+          <t>Pan</t>
         </is>
       </c>
     </row>
@@ -6936,22 +6936,22 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>Separacya</t>
+          <t>sukcessorów</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>nastąpiła Separacya .</t>
+          <t>niema sukcessorów ,</t>
         </is>
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>separacya</t>
+          <t>sukcessor</t>
         </is>
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>Separacya</t>
+          <t>sukcessorów</t>
         </is>
       </c>
     </row>
@@ -6961,22 +6961,22 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>procesa</t>
+          <t>Kruszelnicy</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>lubiła procesa –</t>
+          <t>do Kruszelnicy o</t>
         </is>
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>proces</t>
+          <t>Kruszelnica</t>
         </is>
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>procesa</t>
+          <t>Kruszelnicy</t>
         </is>
       </c>
     </row>
@@ -6986,22 +6986,22 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>Lesniowic</t>
+          <t>odległey</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>do Lesniowic przyległe</t>
+          <t>mil odległey od</t>
         </is>
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>Lesniowice</t>
+          <t>odległa</t>
         </is>
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>Lesniowic</t>
+          <t>odległey</t>
         </is>
       </c>
     </row>
@@ -7011,20 +7011,295 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
+          <t>Siemignowa</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>od Siemignowa –</t>
+        </is>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>Siemignów</t>
+        </is>
+      </c>
+      <c r="E264" t="inlineStr">
+        <is>
+          <t>Siemignowa</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="1" t="n">
+        <v>263</v>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>łania</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>jak łania Panna</t>
+        </is>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>łania</t>
+        </is>
+      </c>
+      <c r="E265" t="inlineStr">
+        <is>
+          <t>łani</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="1" t="n">
+        <v>264</v>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>Panna</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>łania Panna Julia</t>
+        </is>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>panna</t>
+        </is>
+      </c>
+      <c r="E266" t="inlineStr">
+        <is>
+          <t>Panna</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="1" t="n">
+        <v>265</v>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>Siemiginowa</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>sukcessorka Siemiginowa –</t>
+        </is>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>Siemiginów</t>
+        </is>
+      </c>
+      <c r="E267" t="inlineStr">
+        <is>
+          <t>Siemiginowa</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="1" t="n">
+        <v>266</v>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>Pan</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>kupił Pan Józef</t>
+        </is>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>pan</t>
+        </is>
+      </c>
+      <c r="E268" t="inlineStr">
+        <is>
+          <t>Pan</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="1" t="n">
+        <v>267</v>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>Nawaryi</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>koło Nawaryi i</t>
+        </is>
+      </c>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>Nawarya</t>
+        </is>
+      </c>
+      <c r="E269" t="inlineStr">
+        <is>
+          <t>Nawaryi</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="1" t="n">
+        <v>268</v>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>ciepłey</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>ale ciepłey wdowy</t>
+        </is>
+      </c>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>ciepła</t>
+        </is>
+      </c>
+      <c r="E270" t="inlineStr">
+        <is>
+          <t>ciepłey</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="1" t="n">
+        <v>269</v>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>Szołayskiego</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>pana Szołayskiego młodzika</t>
+        </is>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>Szołayski</t>
+        </is>
+      </c>
+      <c r="E271" t="inlineStr">
+        <is>
+          <t>Szołayskiego</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="1" t="n">
+        <v>270</v>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>Separacya</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>nastąpiła Separacya .</t>
+        </is>
+      </c>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>separacya</t>
+        </is>
+      </c>
+      <c r="E272" t="inlineStr">
+        <is>
+          <t>Separacya</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="1" t="n">
+        <v>271</v>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>procesa</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>lubiła procesa –</t>
+        </is>
+      </c>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>proces</t>
+        </is>
+      </c>
+      <c r="E273" t="inlineStr">
+        <is>
+          <t>procesa</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="1" t="n">
+        <v>272</v>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>Lesniowic</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>do Lesniowic przyległe</t>
+        </is>
+      </c>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>Lesniowice</t>
+        </is>
+      </c>
+      <c r="E274" t="inlineStr">
+        <is>
+          <t>Lesniowic</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="1" t="n">
+        <v>273</v>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
           <t>Mosty</t>
         </is>
       </c>
-      <c r="C264" t="inlineStr">
+      <c r="C275" t="inlineStr">
         <is>
           <t>przyległe Mosty .</t>
         </is>
       </c>
-      <c r="D264" t="inlineStr">
+      <c r="D275" t="inlineStr">
         <is>
           <t>Mosty</t>
         </is>
       </c>
-      <c r="E264" t="inlineStr">
+      <c r="E275" t="inlineStr">
         <is>
           <t>Most</t>
         </is>

--- a/data/mistakes/Morfeusz_lemma_mistakes.xlsx
+++ b/data/mistakes/Morfeusz_lemma_mistakes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E275"/>
+  <dimension ref="A1:E297"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -536,22 +536,22 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>p</t>
+          <t>ś</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>. p .</t>
+          <t>bratem ś .</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>p</t>
+          <t>świętej</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>List_świętego_Piotra</t>
+          <t>ś</t>
         </is>
       </c>
     </row>
@@ -561,22 +561,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>wdokumentach</t>
+          <t>p</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>później wdokumentach się</t>
+          <t>. p .</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>dokument</t>
+          <t>pamięci</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>wdokumentach</t>
+          <t>List_świętego_Piotra</t>
         </is>
       </c>
     </row>
@@ -586,22 +586,22 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Pinińskich</t>
+          <t>wdokumentach</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>z Pinińskich właścicieli</t>
+          <t>później wdokumentach się</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Piniński</t>
+          <t>wdokument</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Pinińskich</t>
+          <t>wdokumentach</t>
         </is>
       </c>
     </row>
@@ -611,22 +611,22 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Dóbr</t>
+          <t>Pinińskich</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>właścicieli Dóbr Strużewo</t>
+          <t>z Pinińskich właścicieli</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>dobra</t>
+          <t>Piniński</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Dobra</t>
+          <t>Pinińskich</t>
         </is>
       </c>
     </row>
@@ -636,22 +636,22 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>adlinencjami</t>
+          <t>Dóbr</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>z adlinencjami Puszczanki</t>
+          <t>właścicieli Dóbr Strużewo</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>adlinencja</t>
+          <t>dobra</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>adlinencjami</t>
+          <t>Dobra</t>
         </is>
       </c>
     </row>
@@ -661,22 +661,22 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Puszczanki</t>
+          <t>adlinencjami</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>adlinencjami Puszczanki ,</t>
+          <t>z adlinencjami Puszczanki</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Puszczanka</t>
+          <t>adlinencja</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>puszczanka</t>
+          <t>adlinencjami</t>
         </is>
       </c>
     </row>
@@ -686,22 +686,22 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>śp</t>
+          <t>Puszczanki</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>że śp Dziad</t>
+          <t>adlinencjami Puszczanki ,</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>świętej</t>
+          <t>Puszczanka</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>śp</t>
+          <t>puszczanka</t>
         </is>
       </c>
     </row>
@@ -711,22 +711,22 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Dziad</t>
+          <t>śp</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>śp Dziad mój</t>
+          <t>że śp Dziad</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>dziad</t>
+          <t>świętej pamięci</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Dziad</t>
+          <t>śp</t>
         </is>
       </c>
     </row>
@@ -736,22 +736,22 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Panna</t>
+          <t>Dziad</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>siostra Panna Urszula</t>
+          <t>śp Dziad mój</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>panna</t>
+          <t>dziad</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Panna</t>
+          <t>Dziad</t>
         </is>
       </c>
     </row>
@@ -761,22 +761,22 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Stryjów</t>
+          <t>Panna</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>. Stryjów miał</t>
+          <t>siostra Panna Urszula</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>stryj</t>
+          <t>panna</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Stryj</t>
+          <t>Panna</t>
         </is>
       </c>
     </row>
@@ -786,22 +786,22 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>śp</t>
+          <t>Stryjów</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>miał śp .</t>
+          <t>. Stryjów miał</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>świętej</t>
+          <t>stryj</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>świętej_pamięci</t>
+          <t>Stryj</t>
         </is>
       </c>
     </row>
@@ -811,22 +811,22 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Głuską</t>
+          <t>śp</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>z Głuską z</t>
+          <t>miał śp .</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Głuska</t>
+          <t>świętej pamięci</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>głuski</t>
+          <t>świętej_pamięci</t>
         </is>
       </c>
     </row>
@@ -836,22 +836,22 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Floyrana</t>
+          <t>Głuską</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>i Floyrana .</t>
+          <t>z Głuską z</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Floyran</t>
+          <t>Głuska</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Floyrana</t>
+          <t>głuski</t>
         </is>
       </c>
     </row>
@@ -861,22 +861,22 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Korytyńską</t>
+          <t>Floyrana</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>z Korytyńską ,</t>
+          <t>i Floyrana .</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Korytyńska</t>
+          <t>Floyran</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Korytyńską</t>
+          <t>Floyrana</t>
         </is>
       </c>
     </row>
@@ -886,22 +886,22 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Muczynowską</t>
+          <t>Korytyńską</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>z Muczynowską –</t>
+          <t>z Korytyńską ,</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Muczynowska</t>
+          <t>Korytyńska</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Muczynowską</t>
+          <t>Korytyńską</t>
         </is>
       </c>
     </row>
@@ -911,22 +911,22 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Rzotoławskim</t>
+          <t>Muczynowską</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>za Rzotoławskim –</t>
+          <t>z Muczynowską –</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Rzotoławski</t>
+          <t>Muczynowska</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Rzotoławskim</t>
+          <t>Muczynowską</t>
         </is>
       </c>
     </row>
@@ -936,22 +936,22 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>śp</t>
+          <t>Rzotoławskim</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>stryjecznych śp .</t>
+          <t>za Rzotoławskim –</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>świętej</t>
+          <t>Rzotoławski</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>świętej_pamięci</t>
+          <t>Rzotoławskim</t>
         </is>
       </c>
     </row>
@@ -961,22 +961,22 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Niewiem</t>
+          <t>śp</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>. Niewiem o</t>
+          <t>stryjecznych śp .</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>niewiedzieć</t>
+          <t>świętej pamięci</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Niewiem</t>
+          <t>świętej_pamięci</t>
         </is>
       </c>
     </row>
@@ -986,22 +986,22 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Czermiński</t>
+          <t>Niewiem</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Karol Czermiński –</t>
+          <t>. Niewiem o</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Czermiński</t>
+          <t>niewiedzieć</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>czermiński</t>
+          <t>Niewiem</t>
         </is>
       </c>
     </row>
@@ -1011,22 +1011,22 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Dziad</t>
+          <t>Czermiński</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>jakoby Dziad jego</t>
+          <t>Karol Czermiński –</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>dziad</t>
+          <t>Czermiński</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Dziad</t>
+          <t>czermiński</t>
         </is>
       </c>
     </row>
@@ -1036,22 +1036,22 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>wychowanie</t>
+          <t>Dziad</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>na wychowanie po</t>
+          <t>jakoby Dziad jego</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>wychowanie</t>
+          <t>dziad</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>wychować</t>
+          <t>Dziad</t>
         </is>
       </c>
     </row>
@@ -1061,22 +1061,22 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Starostą</t>
+          <t>wychowanie</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>podobno Starostą ,</t>
+          <t>na wychowanie po</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>starosta</t>
+          <t>wychowanie</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Starosta</t>
+          <t>wychować</t>
         </is>
       </c>
     </row>
@@ -1086,22 +1086,22 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>niepamiętam</t>
+          <t>Starostą</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>jakim niepamiętam .</t>
+          <t>podobno Starostą ,</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>niepamiętać</t>
+          <t>starosta</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>niepamiętam</t>
+          <t>Starosta</t>
         </is>
       </c>
     </row>
@@ -1111,22 +1111,22 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Dziedziców</t>
+          <t>niepamiętam</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>, Dziedziców Brzeżan</t>
+          <t>jakim niepamiętam .</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>dziedzic</t>
+          <t>niepamiętać</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Dziedzic</t>
+          <t>niepamiętam</t>
         </is>
       </c>
     </row>
@@ -1136,22 +1136,22 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Brzeżan</t>
+          <t>Dziedziców</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Dziedziców Brzeżan i</t>
+          <t>, Dziedziców Brzeżan</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Brzeżany</t>
+          <t>dziedzic</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>brzeżanin</t>
+          <t>Dziedzic</t>
         </is>
       </c>
     </row>
@@ -1161,22 +1161,22 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Pan</t>
+          <t>Brzeżan</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>zaś Pan Potocki</t>
+          <t>Dziedziców Brzeżan i</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>pan</t>
+          <t>Brzeżany</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Pan</t>
+          <t>brzeżanin</t>
         </is>
       </c>
     </row>
@@ -1186,12 +1186,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Pana</t>
+          <t>Pan</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>odwiedzał Pana Starostę</t>
+          <t>zaś Pan Potocki</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1211,22 +1211,22 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Starostę</t>
+          <t>Pana</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Pana Starostę ,</t>
+          <t>odwiedzał Pana Starostę</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>starosta</t>
+          <t>pan</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Starosta</t>
+          <t>Pan</t>
         </is>
       </c>
     </row>
@@ -1236,22 +1236,22 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Pan</t>
+          <t>Starostę</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>zapytał Pan Potocki</t>
+          <t>Pana Starostę ,</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>pan</t>
+          <t>starosta</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Pan</t>
+          <t>Starosta</t>
         </is>
       </c>
     </row>
@@ -1266,7 +1266,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>mu Pan Starosta</t>
+          <t>zapytał Pan Potocki</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1286,22 +1286,22 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Starosta</t>
+          <t>Pan</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Pan Starosta całą</t>
+          <t>mu Pan Starosta</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>starosta</t>
+          <t>pan</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Starosta</t>
+          <t>Pan</t>
         </is>
       </c>
     </row>
@@ -1311,22 +1311,22 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Pan</t>
+          <t>Starosta</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>wtenczas Pan Potocki</t>
+          <t>Pan Starosta całą</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>pan</t>
+          <t>starosta</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Pan</t>
+          <t>Starosta</t>
         </is>
       </c>
     </row>
@@ -1336,12 +1336,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Pana</t>
+          <t>Pan</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>sobie Pana Potockiego</t>
+          <t>wtenczas Pan Potocki</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1361,22 +1361,22 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Patrona</t>
+          <t>Pana</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>swojego Patrona ,</t>
+          <t>sobie Pana Potockiego</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>patron</t>
+          <t>pan</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Patron</t>
+          <t>Pan</t>
         </is>
       </c>
     </row>
@@ -1386,22 +1386,22 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>dobra</t>
+          <t>Patrona</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>rozległe dobra w</t>
+          <t>swojego Patrona ,</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>dobra</t>
+          <t>patron</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>dobry</t>
+          <t>Patron</t>
         </is>
       </c>
     </row>
@@ -1411,22 +1411,22 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Melchiorem</t>
+          <t>dobra</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>przed Melchiorem .</t>
+          <t>rozległe dobra w</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Melchior</t>
+          <t>dobra</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>melchior</t>
+          <t>dobry</t>
         </is>
       </c>
     </row>
@@ -1436,22 +1436,22 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Dziad</t>
+          <t>Melchiorem</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Wtenczas Dziad mój</t>
+          <t>przed Melchiorem .</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>dziad</t>
+          <t>Melchior</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Dziad</t>
+          <t>melchior</t>
         </is>
       </c>
     </row>
@@ -1461,22 +1461,22 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>administracyę</t>
+          <t>Dziad</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>objął administracyę tych</t>
+          <t>Wtenczas Dziad mój</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>administracya</t>
+          <t>dziad</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>administracyę</t>
+          <t>Dziad</t>
         </is>
       </c>
     </row>
@@ -1486,22 +1486,22 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Dziada</t>
+          <t>administracyę</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>dla Dziada mojego</t>
+          <t>objął administracyę tych</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>dziad</t>
+          <t>administracya</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Dziad</t>
+          <t>administracyę</t>
         </is>
       </c>
     </row>
@@ -1511,12 +1511,12 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Dziad</t>
+          <t>Dziada</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>mój Dziad Panu</t>
+          <t>dla Dziada mojego</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1536,22 +1536,22 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>tem</t>
+          <t>Dziad</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>ujęty tem zaproponował</t>
+          <t>mój Dziad Panu</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>to</t>
+          <t>dziad</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>tema</t>
+          <t>Dziad</t>
         </is>
       </c>
     </row>
@@ -1561,22 +1561,22 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>śp</t>
+          <t>owe</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>zaproponował śp .</t>
+          <t>na owe czasy</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>świętej</t>
+          <t>ów</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>świętej_pamięci</t>
+          <t>ow</t>
         </is>
       </c>
     </row>
@@ -1586,22 +1586,22 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Pan</t>
+          <t>tem</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>pamięci Pan Melchior</t>
+          <t>ujęty tem zaproponował</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>pan</t>
+          <t>to</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Pan</t>
+          <t>tema</t>
         </is>
       </c>
     </row>
@@ -1611,22 +1611,22 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Stryjskim</t>
+          <t>śp</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>w Stryjskim cyrkule</t>
+          <t>zaproponował śp .</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>stryjski</t>
+          <t>świętej pamięci</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Stryjski</t>
+          <t>świętej_pamięci</t>
         </is>
       </c>
     </row>
@@ -1636,22 +1636,22 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Panną</t>
+          <t>Pan</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>z Panną Kobylską</t>
+          <t>pamięci Pan Melchior</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>panna</t>
+          <t>pan</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Panna</t>
+          <t>Pan</t>
         </is>
       </c>
     </row>
@@ -1661,22 +1661,22 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>śp</t>
+          <t>owe</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>pojechał śp .</t>
+          <t>w owe czasy</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>świętej</t>
+          <t>ów</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>świętej_pamięci</t>
+          <t>ow</t>
         </is>
       </c>
     </row>
@@ -1686,22 +1686,22 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Posadzie</t>
+          <t>Stryjskim</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>na Posadzie Chyrowskiey</t>
+          <t>w Stryjskim cyrkule</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>posada</t>
+          <t>stryjski</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Posada</t>
+          <t>Stryjski</t>
         </is>
       </c>
     </row>
@@ -1711,22 +1711,22 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Chyrowskiey</t>
+          <t>Panną</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Posadzie Chyrowskiey zapędziły</t>
+          <t>z Panną Kobylską</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>chyrowska</t>
+          <t>panna</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Chyrowskiey</t>
+          <t>Panna</t>
         </is>
       </c>
     </row>
@@ -1736,22 +1736,22 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Pierściorowskim</t>
+          <t>rodu</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>pierwszym Pierściorowskim miała</t>
+          <t>zacnego rodu osobą</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Pierściorowski</t>
+          <t>ród</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Pierściorowskim</t>
+          <t>rod</t>
         </is>
       </c>
     </row>
@@ -1761,22 +1761,22 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Maryę</t>
+          <t>śp</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>córkę Maryę ,</t>
+          <t>pojechał śp .</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Marya</t>
+          <t>świętej pamięci</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Maryę</t>
+          <t>świętej_pamięci</t>
         </is>
       </c>
     </row>
@@ -1786,22 +1786,22 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Kleofasę</t>
+          <t>Posadzie</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>, Kleofasę .</t>
+          <t>na Posadzie Chyrowskiey</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Kleofasa</t>
+          <t>posada</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Kleofasę</t>
+          <t>Posada</t>
         </is>
       </c>
     </row>
@@ -1811,22 +1811,22 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>gościowi</t>
+          <t>Chyrowskiey</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>gosposia gościowi a</t>
+          <t>Posadzie Chyrowskiey zapędziły</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>gość</t>
+          <t>chyrowska</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>gościowy</t>
+          <t>Chyrowskiey</t>
         </is>
       </c>
     </row>
@@ -1836,22 +1836,22 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>śp</t>
+          <t>Pierściorowskim</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>a śp .</t>
+          <t>pierwszym Pierściorowskim miała</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>świętej</t>
+          <t>Pierściorowski</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>świętej_pamięci</t>
+          <t>Pierściorowskim</t>
         </is>
       </c>
     </row>
@@ -1861,22 +1861,22 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Asińdźka</t>
+          <t>Maryę</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>wiesz Asińdźka co</t>
+          <t>córkę Maryę ,</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Asińdźka</t>
+          <t>Marya</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>asińdźka</t>
+          <t>Maryę</t>
         </is>
       </c>
     </row>
@@ -1886,22 +1886,22 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Pan</t>
+          <t>Kleofasę</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>drżącą Pan Melchior</t>
+          <t>, Kleofasę .</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>pan</t>
+          <t>Kleofasa</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Pan</t>
+          <t>Kleofasę</t>
         </is>
       </c>
     </row>
@@ -1911,22 +1911,22 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Pannie</t>
+          <t>gościowi</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>wstąpi Pannie się</t>
+          <t>gosposia gościowi a</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>panna</t>
+          <t>gość</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Panna</t>
+          <t>gościowy</t>
         </is>
       </c>
     </row>
@@ -1936,22 +1936,22 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Chyrowskim</t>
+          <t>śp</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>kościele Chyrowskim pobłogosławił</t>
+          <t>a śp .</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>chyrowski</t>
+          <t>świętej pamięci</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Chyrowskim</t>
+          <t>świętej_pamięci</t>
         </is>
       </c>
     </row>
@@ -1961,22 +1961,22 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Dziekan</t>
+          <t>Asińdźka</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>ówczesny Dziekan i</t>
+          <t>wiesz Asińdźka co</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>dziekan</t>
+          <t>Asińdźka</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Dziekan</t>
+          <t>asińdźka</t>
         </is>
       </c>
     </row>
@@ -1986,22 +1986,22 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Oyciec</t>
+          <t>Kleosię</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>mój Oyciec Franciszek</t>
+          <t>moją Kleosię ”</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>oyciec</t>
+          <t>Kleosia</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Oyciec</t>
+          <t>Kleosię</t>
         </is>
       </c>
     </row>
@@ -2011,22 +2011,22 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Czołhanach</t>
+          <t>Pan</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>w Czołhanach roku</t>
+          <t>drżącą Pan Melchior</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Czołhany</t>
+          <t>pan</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Czołhanach</t>
+          <t>Pan</t>
         </is>
       </c>
     </row>
@@ -2036,22 +2036,22 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>osiedli</t>
+          <t>Pannie</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>nauki osiedli na</t>
+          <t>wstąpi Pannie się</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>osiadać</t>
+          <t>panna</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>osiedle</t>
+          <t>Panna</t>
         </is>
       </c>
     </row>
@@ -2061,22 +2061,22 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Babki</t>
+          <t>Chyrowskim</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>mojej Babki ,</t>
+          <t>kościele Chyrowskim pobłogosławił</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>babka</t>
+          <t>chyrowski</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Babka</t>
+          <t>Chyrowskim</t>
         </is>
       </c>
     </row>
@@ -2086,22 +2086,22 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Maksymowic</t>
+          <t>Dziekan</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>właściciela Maksymowic w</t>
+          <t>ówczesny Dziekan i</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Maksymowice</t>
+          <t>dziekan</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Maksymowic</t>
+          <t>Dziekan</t>
         </is>
       </c>
     </row>
@@ -2111,22 +2111,22 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Stan</t>
+          <t>Oyciec</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>za Stan .</t>
+          <t>mój Oyciec Franciszek</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Stanisława</t>
+          <t>oyciec</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Stan</t>
+          <t>Oyciec</t>
         </is>
       </c>
     </row>
@@ -2136,22 +2136,22 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Aug</t>
+          <t>Czołhanach</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>. Aug .</t>
+          <t>w Czołhanach roku</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Augusta</t>
+          <t>Czołhany</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Aug</t>
+          <t>Czołhanach</t>
         </is>
       </c>
     </row>
@@ -2161,22 +2161,22 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Poniatowskiego</t>
+          <t>osiedli</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>. Poniatowskiego –</t>
+          <t>nauki osiedli na</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Poniatowski</t>
+          <t>osiąść</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>poniatowski</t>
+          <t>osiedle</t>
         </is>
       </c>
     </row>
@@ -2186,22 +2186,22 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Bludnikach</t>
+          <t>Babki</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>w Bludnikach –</t>
+          <t>mojej Babki ,</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Bludniki</t>
+          <t>babka</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Bludnik</t>
+          <t>Babka</t>
         </is>
       </c>
     </row>
@@ -2211,22 +2211,22 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Abbum</t>
+          <t>Bolechowie</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>drzwiami Abbum Treterianum</t>
+          <t>w Bolechowie umarła</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>abbum</t>
+          <t>Bolechów</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Abbum</t>
+          <t>Bolechowo</t>
         </is>
       </c>
     </row>
@@ -2236,22 +2236,22 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Treterianum</t>
+          <t>Maksymowic</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Abbum Treterianum .</t>
+          <t>właściciela Maksymowic w</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>treterianum</t>
+          <t>Maksymowice</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Treterianum</t>
+          <t>Maksymowic</t>
         </is>
       </c>
     </row>
@@ -2261,22 +2261,22 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>bombardowaniu</t>
+          <t>Stan</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Przy bombardowaniu Lwowa</t>
+          <t>za Stan .</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>bombardowanie</t>
+          <t>Stanisława</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>bombardować</t>
+          <t>Stan</t>
         </is>
       </c>
     </row>
@@ -2286,22 +2286,22 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>obrucona</t>
+          <t>Aug</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>perzynę obrucona –</t>
+          <t>. Aug .</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>obrucony</t>
+          <t>Augusta</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>obrucona</t>
+          <t>Aug</t>
         </is>
       </c>
     </row>
@@ -2311,22 +2311,22 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>niespotyka</t>
+          <t>Poniatowskiego</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>się niespotyka .</t>
+          <t>. Poniatowskiego –</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>niespotykać</t>
+          <t>Poniatowski</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>niespotyka</t>
+          <t>poniatowski</t>
         </is>
       </c>
     </row>
@@ -2336,22 +2336,22 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>dobrami</t>
+          <t>Bludnikach</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>wielkimi dobrami ,</t>
+          <t>w Bludnikach –</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>dobra</t>
+          <t>Bludniki</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>dobro</t>
+          <t>Bludnik</t>
         </is>
       </c>
     </row>
@@ -2361,22 +2361,22 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>arye</t>
+          <t>oddany</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>różne arye krakowiaki</t>
+          <t>gabinet oddany z</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>arya</t>
+          <t>oddać</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>arye</t>
+          <t>oddany</t>
         </is>
       </c>
     </row>
@@ -2386,22 +2386,22 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Oyca</t>
+          <t>Abbum</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>mojego Oyca –</t>
+          <t>drzwiami Abbum Treterianum</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>oyca</t>
+          <t>abbum</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Oyca</t>
+          <t>Abbum</t>
         </is>
       </c>
     </row>
@@ -2411,22 +2411,22 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Oyca</t>
+          <t>Treterianum</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>familii Oyca się</t>
+          <t>Abbum Treterianum .</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>oyca</t>
+          <t>treterianum</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Oyca</t>
+          <t>Treterianum</t>
         </is>
       </c>
     </row>
@@ -2436,22 +2436,22 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Pan</t>
+          <t>bombardowaniu</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>leży Pan Stanisław</t>
+          <t>Przy bombardowaniu Lwowa</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>pan</t>
+          <t>bombardowanie</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Pan</t>
+          <t>bombardować</t>
         </is>
       </c>
     </row>
@@ -2461,22 +2461,22 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Pan</t>
+          <t>obrucona</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>że Pan tylko</t>
+          <t>perzynę obrucona –</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>pan</t>
+          <t>obrucić</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Pan</t>
+          <t>obrucona</t>
         </is>
       </c>
     </row>
@@ -2486,22 +2486,22 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Świerzawski</t>
+          <t>niespotyka</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>wuj Świerzawski kuzyn</t>
+          <t>się niespotyka .</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Świerzawski</t>
+          <t>niespotykać</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>świerzawski</t>
+          <t>niespotyka</t>
         </is>
       </c>
     </row>
@@ -2511,22 +2511,22 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>kuzyn</t>
+          <t>dobrami</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Świerzawski kuzyn Polanowskich</t>
+          <t>wielkimi dobrami ,</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>kuzyn</t>
+          <t>dobra</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>kuzyna</t>
+          <t>dobro</t>
         </is>
       </c>
     </row>
@@ -2536,22 +2536,22 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Polanowskich</t>
+          <t>arye</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>kuzyn Polanowskich z</t>
+          <t>różne arye krakowiaki</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Polanowski</t>
+          <t>arya</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>polanowski</t>
+          <t>arye</t>
         </is>
       </c>
     </row>
@@ -2561,22 +2561,22 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Bełzkiego</t>
+          <t>Oyca</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>z Bełzkiego często</t>
+          <t>mojego Oyca –</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Bełzkie</t>
+          <t>oyca</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Bełzkiego</t>
+          <t>Oyca</t>
         </is>
       </c>
     </row>
@@ -2586,22 +2586,22 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Moszkowie</t>
+          <t>Oyca</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>w Moszkowie z</t>
+          <t>familii Oyca się</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Moszkowo</t>
+          <t>oyca</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Moszek</t>
+          <t>Oyca</t>
         </is>
       </c>
     </row>
@@ -2611,22 +2611,22 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>śp</t>
+          <t>pożycia</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>mi śp .</t>
+          <t>z pożycia moich</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>świętej</t>
+          <t>pożycie</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>świętej_pamięci</t>
+          <t>pożyć</t>
         </is>
       </c>
     </row>
@@ -2636,22 +2636,22 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Dziadek</t>
+          <t>Pan</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>. Dziadek móy</t>
+          <t>leży Pan Stanisław</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>dziadek</t>
+          <t>pan</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Dziadek</t>
+          <t>Pan</t>
         </is>
       </c>
     </row>
@@ -2661,22 +2661,22 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Komornikowej</t>
+          <t>Pan</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Pani Komornikowej niepomięła</t>
+          <t>że Pan tylko</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>komornikowa</t>
+          <t>pan</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Komornikowej</t>
+          <t>Pan</t>
         </is>
       </c>
     </row>
@@ -2686,22 +2686,22 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>niepomięła</t>
+          <t>Bóg</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Komornikowej niepomięła –</t>
+          <t>Ci Bóg na</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>niepomiąć</t>
+          <t>Bóg</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>niepomięła</t>
+          <t>bóg</t>
         </is>
       </c>
     </row>
@@ -2711,22 +2711,22 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Niewiem</t>
+          <t>Świerzawski</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>. Niewiem jakim</t>
+          <t>wuj Świerzawski kuzyn</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>niewiem</t>
+          <t>Świerzawski</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Niewiem</t>
+          <t>świerzawski</t>
         </is>
       </c>
     </row>
@@ -2736,22 +2736,22 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Treterówną</t>
+          <t>kuzyn</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>siostrą Treterówną -</t>
+          <t>Świerzawski kuzyn Polanowskich</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Treterówna</t>
+          <t>kuzyn</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Treterówną</t>
+          <t>kuzyna</t>
         </is>
       </c>
     </row>
@@ -2761,22 +2761,22 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Rosyi</t>
+          <t>Polanowskich</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>w Rosyi –</t>
+          <t>kuzyn Polanowskich z</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Rosya</t>
+          <t>Polanowski</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Rosyi</t>
+          <t>polanowski</t>
         </is>
       </c>
     </row>
@@ -2786,22 +2786,22 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Pan</t>
+          <t>Bełzkiego</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>nim Pan Stanisław</t>
+          <t>z Bełzkiego często</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>pan</t>
+          <t>Bełzkie</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Pan</t>
+          <t>Bełzkiego</t>
         </is>
       </c>
     </row>
@@ -2811,22 +2811,22 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Sachsen</t>
+          <t>Moszkowie</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>do Sachsen Cobary</t>
+          <t>w Moszkowie z</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>sachsen</t>
+          <t>Moszków</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Sachsen</t>
+          <t>Moszek</t>
         </is>
       </c>
     </row>
@@ -2836,22 +2836,22 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Cobary</t>
+          <t>śp</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Sachsen Cobary Ułanów</t>
+          <t>mi śp .</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>cobary</t>
+          <t>świętej pamięci</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Cobary</t>
+          <t>świętej_pamięci</t>
         </is>
       </c>
     </row>
@@ -2861,22 +2861,22 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Ułanów</t>
+          <t>Dziadek</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Cobary Ułanów mając</t>
+          <t>. Dziadek móy</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>ułan</t>
+          <t>dziadek</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Ułan</t>
+          <t>Dziadek</t>
         </is>
       </c>
     </row>
@@ -2886,22 +2886,22 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>p</t>
+          <t>Komornikowej</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>. p .</t>
+          <t>Pani Komornikowej niepomięła</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>p</t>
+          <t>komornikowa</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>List_świętego_Piotra</t>
+          <t>Komornikowej</t>
         </is>
       </c>
     </row>
@@ -2911,22 +2911,22 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>nieśmiał</t>
+          <t>niepomięła</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>ja nieśmiał em</t>
+          <t>Komornikowej niepomięła –</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>nieśmieć</t>
+          <t>niepomiąć</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>MISPARSED</t>
+          <t>niepomięła</t>
         </is>
       </c>
     </row>
@@ -2936,22 +2936,22 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>em</t>
+          <t>Niewiem</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>nieśmiał em wypytywać</t>
+          <t>. Niewiem jakim</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>być</t>
+          <t>niewiem</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>MISPARSED</t>
+          <t>Niewiem</t>
         </is>
       </c>
     </row>
@@ -2961,22 +2961,22 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>niebył</t>
+          <t>Treterówną</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Wreszcie niebył em</t>
+          <t>siostrą Treterówną -</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>niebyć</t>
+          <t>Treterówna</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>MISPARSED</t>
+          <t>Treterówną</t>
         </is>
       </c>
     </row>
@@ -2986,22 +2986,22 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>em</t>
+          <t>Rosyi</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>niebył em nigdy</t>
+          <t>w Rosyi –</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>być</t>
+          <t>Rosya</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>MISPARSED</t>
+          <t>Rosyi</t>
         </is>
       </c>
     </row>
@@ -3011,22 +3011,22 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Oycem</t>
+          <t>Pan</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>z Oycem na</t>
+          <t>nim Pan Stanisław</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>oycem</t>
+          <t>pan</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Oycem</t>
+          <t>Pan</t>
         </is>
       </c>
     </row>
@@ -3036,22 +3036,22 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Oyciec</t>
+          <t>Sachsen</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>a Oyciec ciągle</t>
+          <t>do Sachsen Cobary</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>oyciec</t>
+          <t>sachsen</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Oyciec</t>
+          <t>Sachsen</t>
         </is>
       </c>
     </row>
@@ -3061,22 +3061,22 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>śp</t>
+          <t>Cobary</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>zakończył śp .</t>
+          <t>Sachsen Cobary Ułanów</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>świętej</t>
+          <t>cobary</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>świętej_pamięci</t>
+          <t>Cobary</t>
         </is>
       </c>
     </row>
@@ -3086,22 +3086,22 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Oyciec</t>
+          <t>Ułanów</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>móy Oyciec około</t>
+          <t>Cobary Ułanów mając</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>oyciec</t>
+          <t>ułan</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Oyciec</t>
+          <t>Ułan</t>
         </is>
       </c>
     </row>
@@ -3111,22 +3111,22 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>kończ</t>
+          <t>mając</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>do kończ życia</t>
+          <t>Ułanów mając lat</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>koniec</t>
+          <t>mieć</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>kończyć</t>
+          <t>maić</t>
         </is>
       </c>
     </row>
@@ -3136,22 +3136,22 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>assekuracyi</t>
+          <t>ś</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>w assekuracyi armat</t>
+          <t>mi ś .</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>assekuracya</t>
+          <t>świętej</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>assekuracyi</t>
+          <t>ś</t>
         </is>
       </c>
     </row>
@@ -3161,22 +3161,22 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Dziadek</t>
+          <t>p</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>. Dziadek Melchior</t>
+          <t>. p .</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>dziadek</t>
+          <t>pamięci</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Dziadek</t>
+          <t>List_świętego_Piotra</t>
         </is>
       </c>
     </row>
@@ -3186,22 +3186,22 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>skrzętnem</t>
+          <t>nieśmiał</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>fortuny skrzętnem gospodarstwem</t>
+          <t>ja nieśmiał em</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>skrzętny</t>
+          <t>nieśmieć</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>skrzętnem</t>
+          <t>MISPARSED</t>
         </is>
       </c>
     </row>
@@ -3211,22 +3211,22 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Stryjskim</t>
+          <t>em</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>w Stryjskim -</t>
+          <t>nieśmiał em wypytywać</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>stryjski</t>
+          <t>być</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Stryjski</t>
+          <t>MISPARSED</t>
         </is>
       </c>
     </row>
@@ -3236,22 +3236,22 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>tem</t>
+          <t>niebył</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>po tem jak</t>
+          <t>Wreszcie niebył em</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>to</t>
+          <t>niebyć</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>tema</t>
+          <t>MISPARSED</t>
         </is>
       </c>
     </row>
@@ -3261,22 +3261,22 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Bludniki</t>
+          <t>em</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>kupił Bludniki za</t>
+          <t>niebył em nigdy</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Bludniki</t>
+          <t>być</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Bludnik</t>
+          <t>MISPARSED</t>
         </is>
       </c>
     </row>
@@ -3286,22 +3286,22 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Dziedzic</t>
+          <t>Oycem</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Nowy Dziedzic wchodził</t>
+          <t>z Oycem na</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>dziedzic</t>
+          <t>oyciec</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Dziedzic</t>
+          <t>Oycem</t>
         </is>
       </c>
     </row>
@@ -3311,22 +3311,22 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>któremi</t>
+          <t>Oyciec</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>nad któremi obeymował</t>
+          <t>a Oyciec ciągle</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>który</t>
+          <t>oyciec</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>któremi</t>
+          <t>Oyciec</t>
         </is>
       </c>
     </row>
@@ -3336,22 +3336,22 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>obeymował</t>
+          <t>śp</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>któremi obeymował Dziedzictwo</t>
+          <t>zakończył śp .</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>obeymować</t>
+          <t>świętej pamięci</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>obeymował</t>
+          <t>świętej_pamięci</t>
         </is>
       </c>
     </row>
@@ -3361,22 +3361,22 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>juryzdyksye</t>
+          <t>Oyciec</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>prawną juryzdyksye sądową</t>
+          <t>móy Oyciec około</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>juryzdyksya</t>
+          <t>oyciec</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>juryzdyksye</t>
+          <t>Oyciec</t>
         </is>
       </c>
     </row>
@@ -3386,22 +3386,22 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>instantacyi</t>
+          <t>kończ</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>pierwszey instantacyi .</t>
+          <t>do kończ życia</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>instantacya</t>
+          <t>koniec</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>instantacyi</t>
+          <t>kończyć</t>
         </is>
       </c>
     </row>
@@ -3411,22 +3411,22 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Pan</t>
+          <t>życia</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>to Pan dawał</t>
+          <t>kończ życia .</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>pan</t>
+          <t>życie</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Pan</t>
+          <t>żyć</t>
         </is>
       </c>
     </row>
@@ -3436,22 +3436,22 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>śp</t>
+          <t>assekuracyi</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>em śp .</t>
+          <t>w assekuracyi armat</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>świętej</t>
+          <t>assekuracya</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>świętej_pamięci</t>
+          <t>assekuracyi</t>
         </is>
       </c>
     </row>
@@ -3461,12 +3461,12 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Dziadka</t>
+          <t>Dziadek</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>. Dziadka Ostaszewskigo</t>
+          <t>. Dziadek Melchior</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -3486,22 +3486,22 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Ostaszewskigo</t>
+          <t>skrzętnem</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Dziadka Ostaszewskigo jak</t>
+          <t>fortuny skrzętnem gospodarstwem</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Ostaszewski</t>
+          <t>skrzętny</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Ostaszewskigo</t>
+          <t>skrzętnem</t>
         </is>
       </c>
     </row>
@@ -3511,22 +3511,22 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>kmiecie</t>
+          <t>Stryjskim</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>jego kmiecie na</t>
+          <t>w Stryjskim -</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>kmieć</t>
+          <t>stryjski</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>kmieci</t>
+          <t>Stryjski</t>
         </is>
       </c>
     </row>
@@ -3536,22 +3536,22 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>mają</t>
+          <t>tem</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>najlepsze mają konie</t>
+          <t>po tem jak</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>mieć</t>
+          <t>to</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>maić</t>
+          <t>tema</t>
         </is>
       </c>
     </row>
@@ -3561,22 +3561,22 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>bydle</t>
+          <t>set</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>padło bydle robocze</t>
+          <t>parę set sztuk</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>bydlę</t>
+          <t>sto</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>bydło</t>
+          <t>seta</t>
         </is>
       </c>
     </row>
@@ -3586,22 +3586,22 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Dłużanie</t>
+          <t>Bludniki</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>raz Dłużanie żalili</t>
+          <t>kupił Bludniki za</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Dłużanin</t>
+          <t>Bludniki</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Dłużanie</t>
+          <t>Bludnik</t>
         </is>
       </c>
     </row>
@@ -3611,22 +3611,22 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>niemają</t>
+          <t>Dziedzic</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>że niemają dogodnego</t>
+          <t>Nowy Dziedzic wchodził</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>niemieć</t>
+          <t>dziedzic</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>niemaja</t>
+          <t>Dziedzic</t>
         </is>
       </c>
     </row>
@@ -3636,22 +3636,22 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>śp</t>
+          <t>któremi</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Oddzieli śp .</t>
+          <t>nad któremi obeymował</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>świętej</t>
+          <t>który</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>świętej_pamięci</t>
+          <t>któremi</t>
         </is>
       </c>
     </row>
@@ -3661,22 +3661,22 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Pan</t>
+          <t>obeymował</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>. Pan Kazimierz</t>
+          <t>któremi obeymował Dziedzictwo</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>pan</t>
+          <t>obeymować</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Pan</t>
+          <t>obeymował</t>
         </is>
       </c>
     </row>
@@ -3686,22 +3686,22 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>suchey</t>
+          <t>juryzdyksye</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>morgów suchey łąki</t>
+          <t>prawną juryzdyksye sądową</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>suchy</t>
+          <t>juryzdyksya</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>suchey</t>
+          <t>juryzdyksye</t>
         </is>
       </c>
     </row>
@@ -3711,22 +3711,22 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>podedworem</t>
+          <t>pierwszey</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>łąki podedworem a</t>
+          <t>policyjną pierwszey instantacyi</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>podedwór</t>
+          <t>pierwsza</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>podedworem</t>
+          <t>pierwszey</t>
         </is>
       </c>
     </row>
@@ -3736,22 +3736,22 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>nayskładniey</t>
+          <t>instantacyi</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>a nayskładniey położone</t>
+          <t>pierwszey instantacyi .</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>składnie</t>
+          <t>instantacya</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>nayskładniey</t>
+          <t>instantacyi</t>
         </is>
       </c>
     </row>
@@ -3761,22 +3761,22 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Niebył</t>
+          <t>morgów</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>. Niebył to</t>
+          <t>posiadanych morgów -</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>niebyć</t>
+          <t>morg</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Niebyła</t>
+          <t>mórg</t>
         </is>
       </c>
     </row>
@@ -3786,22 +3786,22 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Oycowskiey</t>
+          <t>jaja</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>. Oycowskiey .</t>
+          <t>, jaja –</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>oycowski</t>
+          <t>jaja</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Oycowskiey</t>
+          <t>jaje</t>
         </is>
       </c>
     </row>
@@ -3811,22 +3811,22 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>warżenia</t>
+          <t>Pan</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>prawo warżenia piwa</t>
+          <t>to Pan dawał</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>warżyć</t>
+          <t>pan</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>warżenia</t>
+          <t>Pan</t>
         </is>
       </c>
     </row>
@@ -3836,22 +3836,22 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>dworskim</t>
+          <t>śp</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>tak dworskim jak</t>
+          <t>em śp .</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>dworski</t>
+          <t>świętej pamięci</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>dworskie</t>
+          <t>świętej_pamięci</t>
         </is>
       </c>
     </row>
@@ -3861,22 +3861,22 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>miarkmi</t>
+          <t>Dziadka</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>– miarkmi wianki</t>
+          <t>. Dziadka Ostaszewskigo</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>miarka</t>
+          <t>dziadek</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>miarkmi</t>
+          <t>Dziadek</t>
         </is>
       </c>
     </row>
@@ -3886,22 +3886,22 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>takiem</t>
+          <t>Ostaszewskigo</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>przy takiem obciążeniu</t>
+          <t>Dziadka Ostaszewskigo jak</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>taki</t>
+          <t>Ostaszewski</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>takiem</t>
+          <t>Ostaszewskigo</t>
         </is>
       </c>
     </row>
@@ -3911,22 +3911,22 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>jurysdykcyi</t>
+          <t>kmiecie</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>urzędowa jurysdykcyi był</t>
+          <t>jego kmiecie na</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>jurysdykcya</t>
+          <t>kmieć</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>jurysdykcyi</t>
+          <t>kmieci</t>
         </is>
       </c>
     </row>
@@ -3936,22 +3936,22 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Dziedzica</t>
+          <t>mają</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Herb Dziedzica –</t>
+          <t>najlepsze mają konie</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>dziedzic</t>
+          <t>mieć</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Dziedzic</t>
+          <t>maić</t>
         </is>
       </c>
     </row>
@@ -3961,22 +3961,22 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Bludniki</t>
+          <t>bydle</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Dominium Bludniki –</t>
+          <t>padło bydle robocze</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Bludniki</t>
+          <t>bydlę</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Bludnik</t>
+          <t>bydło</t>
         </is>
       </c>
     </row>
@@ -3986,22 +3986,22 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>t</t>
+          <t>Dłużanie</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>i t .</t>
+          <t>raz Dłużanie żalili</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>tym</t>
+          <t>Dłużanin</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>tona</t>
+          <t>Dłużanie</t>
         </is>
       </c>
     </row>
@@ -4011,22 +4011,22 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>p</t>
+          <t>niemają</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>. p .</t>
+          <t>że niemają dogodnego</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>podobne</t>
+          <t>niemieć</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>List_świętego_Piotra</t>
+          <t>niemaja</t>
         </is>
       </c>
     </row>
@@ -4036,22 +4036,22 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>niemógł</t>
+          <t>śp</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Nieszlachcic niemógł kupować</t>
+          <t>Oddzieli śp .</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>niemóc</t>
+          <t>świętej pamięci</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>niemógł</t>
+          <t>świętej_pamięci</t>
         </is>
       </c>
     </row>
@@ -4061,22 +4061,22 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Dziedzic</t>
+          <t>Pan</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>. Dziedzic postanawiał</t>
+          <t>. Pan Kazimierz</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>dziedzic</t>
+          <t>pan</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Dziedzic</t>
+          <t>Pan</t>
         </is>
       </c>
     </row>
@@ -4086,22 +4086,22 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>swojem</t>
+          <t>suchey</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>na swojem mieycus</t>
+          <t>morgów suchey łąki</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>swój</t>
+          <t>suchy</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>swojem</t>
+          <t>suchey</t>
         </is>
       </c>
     </row>
@@ -4111,22 +4111,22 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>mieycus</t>
+          <t>podedworem</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>swojem mieycus Mandatariusza</t>
+          <t>łąki podedworem a</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>mieysce</t>
+          <t>podedwór</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>mieycus</t>
+          <t>podedworem</t>
         </is>
       </c>
     </row>
@@ -4136,22 +4136,22 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Dominikalnym</t>
+          <t>nayskładniey</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>urzędzie Dominikalnym .</t>
+          <t>a nayskładniey położone</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>dominikalnym</t>
+          <t>składnie</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Dominikalnym</t>
+          <t>nayskładniey</t>
         </is>
       </c>
     </row>
@@ -4161,22 +4161,22 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>niemogło</t>
+          <t>Niebył</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>– niemogło się</t>
+          <t>. Niebył to</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>niemóc</t>
+          <t>niebyć</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>niemogło</t>
+          <t>Niebyła</t>
         </is>
       </c>
     </row>
@@ -4186,22 +4186,22 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Dominii</t>
+          <t>Oycowskiey</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>z Dominii nieprzyniósł</t>
+          <t>. Oycowskiey .</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>dominia</t>
+          <t>oycowski</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Dominii</t>
+          <t>Oycowskiey</t>
         </is>
       </c>
     </row>
@@ -4211,22 +4211,22 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>nieprzyniósł</t>
+          <t>warżenia</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Dominii nieprzyniósł kartki</t>
+          <t>prawo warżenia piwa</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>nieprzynieść</t>
+          <t>warżyć</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>nieprzyniósł</t>
+          <t>warżenia</t>
         </is>
       </c>
     </row>
@@ -4236,22 +4236,22 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Pan</t>
+          <t>dworskim</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>bo Pan we</t>
+          <t>tak dworskim jak</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>pan</t>
+          <t>dworski</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Pan</t>
+          <t>dworskie</t>
         </is>
       </c>
     </row>
@@ -4261,22 +4261,22 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>miarkmi</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>domu P .</t>
+          <t>– miarkmi wianki</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>p</t>
+          <t>miarka</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>List_świętego_Piotra</t>
+          <t>miarkmi</t>
         </is>
       </c>
     </row>
@@ -4286,22 +4286,22 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>takiem</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>. T Dziadek</t>
+          <t>przy takiem obciążeniu</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>t</t>
+          <t>taki</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>tona</t>
+          <t>takiem</t>
         </is>
       </c>
     </row>
@@ -4311,22 +4311,22 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Dziadek</t>
+          <t>jurysdykcyi</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>T Dziadek móy</t>
+          <t>urzędowa jurysdykcyi był</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>dziadek</t>
+          <t>jurysdykcya</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Dziadek</t>
+          <t>jurysdykcyi</t>
         </is>
       </c>
     </row>
@@ -4336,22 +4336,22 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Pana</t>
+          <t>Dziedzica</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>noga Pana tego</t>
+          <t>Herb Dziedzica –</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>pan</t>
+          <t>dziedzic</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Pan</t>
+          <t>Dziedzic</t>
         </is>
       </c>
     </row>
@@ -4361,22 +4361,22 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Mandatariaty</t>
+          <t>Bludniki</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>. Mandatariaty po</t>
+          <t>Dominium Bludniki –</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>mandatariat</t>
+          <t>Bludniki</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Mandatariaty</t>
+          <t>Bludnik</t>
         </is>
       </c>
     </row>
@@ -4386,22 +4386,22 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>ludowemi</t>
+          <t>t</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>dziś ludowemi zwanych</t>
+          <t>i t .</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>ludowe</t>
+          <t>tym</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>ludowemi</t>
+          <t>tona</t>
         </is>
       </c>
     </row>
@@ -4411,22 +4411,22 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>mandataryusza</t>
+          <t>p</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>do mandataryusza –</t>
+          <t>. p .</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>mandataryusz</t>
+          <t>podobne</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>mandataryusza</t>
+          <t>List_świętego_Piotra</t>
         </is>
       </c>
     </row>
@@ -4436,22 +4436,22 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>manipulacyi</t>
+          <t>niemógł</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>– manipulacyi urzędowey</t>
+          <t>Nieszlachcic niemógł kupować</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>manipulacya</t>
+          <t>niemóc</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>manipulacyi</t>
+          <t>niemógł</t>
         </is>
       </c>
     </row>
@@ -4461,22 +4461,22 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>urzędowey</t>
+          <t>Dziedzic</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>manipulacyi urzędowey –</t>
+          <t>. Dziedzic postanawiał</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>urzędowa</t>
+          <t>dziedzic</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>urzędowey</t>
+          <t>Dziedzic</t>
         </is>
       </c>
     </row>
@@ -4486,22 +4486,22 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Domnikalnego</t>
+          <t>swojem</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>reprezentanta Domnikalnego czyli</t>
+          <t>na swojem mieycus</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>domnikalny</t>
+          <t>swój</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Domnikalnego</t>
+          <t>swojem</t>
         </is>
       </c>
     </row>
@@ -4511,22 +4511,22 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Mandataryusza</t>
+          <t>mieycus</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>czyli Mandataryusza .</t>
+          <t>swojem mieycus Mandatariusza</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>mandataryusz</t>
+          <t>mieysce</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Mandataryusza</t>
+          <t>mieycus</t>
         </is>
       </c>
     </row>
@@ -4536,22 +4536,22 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Mandatyrusza</t>
+          <t>Dominikalnym</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>. Mandatyrusza przyjmował</t>
+          <t>urzędzie Dominikalnym .</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>mandatyrusz</t>
+          <t>dominikalny</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>Mandatyrusza</t>
+          <t>Dominikalnym</t>
         </is>
       </c>
     </row>
@@ -4561,22 +4561,22 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Dziedzic</t>
+          <t>niemogło</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>przyjmował Dziedzic na</t>
+          <t>– niemogło się</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>dziedzic</t>
+          <t>niemóc</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>Dziedzic</t>
+          <t>niemogło</t>
         </is>
       </c>
     </row>
@@ -4586,22 +4586,22 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>depozyta</t>
+          <t>Dominii</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>i depozyta starościńskie</t>
+          <t>z Dominii nieprzyniósł</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>depozyt</t>
+          <t>dominia</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>depozyta</t>
+          <t>Dominii</t>
         </is>
       </c>
     </row>
@@ -4611,22 +4611,22 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Mandataryusz</t>
+          <t>nieprzyniósł</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>. Mandataryusz pobierał</t>
+          <t>Dominii nieprzyniósł kartki</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>mandataryusz</t>
+          <t>nieprzynieść</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>Mandataryusz</t>
+          <t>nieprzyniósł</t>
         </is>
       </c>
     </row>
@@ -4636,22 +4636,22 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Dziedzica</t>
+          <t>Pan</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>od Dziedzica pensyę</t>
+          <t>bo Pan we</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>dziedzic</t>
+          <t>pan</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>Dziedzic</t>
+          <t>Pan</t>
         </is>
       </c>
     </row>
@@ -4661,22 +4661,22 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>pensyę</t>
+          <t>P</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Dziedzica pensyę od</t>
+          <t>domu P .</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>pensya</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>pensyę</t>
+          <t>List_świętego_Piotra</t>
         </is>
       </c>
     </row>
@@ -4686,22 +4686,22 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>ordynaryi</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>korcy ordynaryi –</t>
+          <t>. T Dziadek</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>ordynarya</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>ordynaryi</t>
+          <t>tona</t>
         </is>
       </c>
     </row>
@@ -4711,22 +4711,22 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Dziedzica</t>
+          <t>Dziadek</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>zastępował Dziedzica .</t>
+          <t>T Dziadek móy</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>dziedzic</t>
+          <t>dziadek</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Dziedzic</t>
+          <t>Dziadek</t>
         </is>
       </c>
     </row>
@@ -4736,22 +4736,22 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>szczupłey</t>
+          <t>Pana</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>tak szczupłey dotacyi</t>
+          <t>noga Pana tego</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>szczupła</t>
+          <t>pan</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>szczupłey</t>
+          <t>Pan</t>
         </is>
       </c>
     </row>
@@ -4761,22 +4761,22 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>dotacyi</t>
+          <t>Mandatariaty</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>szczupłey dotacyi uwzględniając</t>
+          <t>. Mandatariaty po</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>dotacya</t>
+          <t>mandatariat</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>dotacyi</t>
+          <t>Mandatariaty</t>
         </is>
       </c>
     </row>
@@ -4786,22 +4786,22 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>cwansigera</t>
+          <t>ludowemi</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>owsa cwansigera –</t>
+          <t>dziś ludowemi zwanych</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>cwansiger</t>
+          <t>ludowe</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>cwansigera</t>
+          <t>ludowemi</t>
         </is>
       </c>
     </row>
@@ -4811,22 +4811,22 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>mając</t>
+          <t>mandataryusza</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>– mając przytem</t>
+          <t>do mandataryusza –</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>mieć</t>
+          <t>mandataryusz</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>maić</t>
+          <t>mandataryusza</t>
         </is>
       </c>
     </row>
@@ -4836,22 +4836,22 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Panowie</t>
+          <t>manipulacyi</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>obrywki Panowie ci</t>
+          <t>– manipulacyi urzędowey</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>pan</t>
+          <t>manipulacya</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>Pan</t>
+          <t>manipulacyi</t>
         </is>
       </c>
     </row>
@@ -4861,22 +4861,22 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>lepiey</t>
+          <t>urzędowey</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>nieraz lepiey jak</t>
+          <t>manipulacyi urzędowey –</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>dobrze</t>
+          <t>urzędowa</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>lepiey</t>
+          <t>urzędowey</t>
         </is>
       </c>
     </row>
@@ -4886,22 +4886,22 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Panom</t>
+          <t>Domnikalnego</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>i Panom Urzędnikom</t>
+          <t>reprezentanta Domnikalnego czyli</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>pan</t>
+          <t>domnikalny</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>Pan</t>
+          <t>Domnikalnego</t>
         </is>
       </c>
     </row>
@@ -4911,22 +4911,22 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>ładąn</t>
+          <t>Mandataryusza</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>– ładąn parą</t>
+          <t>czyli Mandataryusza .</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>ładna</t>
+          <t>mandataryusz</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>ładąn</t>
+          <t>Mandataryusza</t>
         </is>
       </c>
     </row>
@@ -4936,22 +4936,22 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Dziad</t>
+          <t>Mandatyrusza</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>móy Dziad podbierając</t>
+          <t>. Mandatyrusza przyjmował</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>dziad</t>
+          <t>mandatyrusz</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>Dziad</t>
+          <t>Mandatyrusza</t>
         </is>
       </c>
     </row>
@@ -4961,22 +4961,22 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Bludnikach</t>
+          <t>Dziedzic</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>w Bludnikach –</t>
+          <t>przyjmował Dziedzic na</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>Bludniki</t>
+          <t>dziedzic</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Bludnik</t>
+          <t>Dziedzic</t>
         </is>
       </c>
     </row>
@@ -4986,22 +4986,22 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Bludnik</t>
+          <t>depozyta</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>do Bludnik należały</t>
+          <t>i depozyta starościńskie</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Bludniki</t>
+          <t>depozyt</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>Bludnik</t>
+          <t>depozyta</t>
         </is>
       </c>
     </row>
@@ -5011,22 +5011,22 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Siedliska</t>
+          <t>Mandataryusz</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>i Siedliska –</t>
+          <t>. Mandataryusz pobierał</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>Siedliska</t>
+          <t>mandataryusz</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>siedliski</t>
+          <t>Mandataryusz</t>
         </is>
       </c>
     </row>
@@ -5041,7 +5041,7 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>nowego Dziedzica –</t>
+          <t>od Dziedzica pensyę</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
@@ -5061,22 +5061,22 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>rantuchem</t>
+          <t>pensyę</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>długim rantuchem –</t>
+          <t>Dziedzica pensyę od</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>rantuch</t>
+          <t>pensya</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>rantuchem</t>
+          <t>pensyę</t>
         </is>
       </c>
     </row>
@@ -5086,22 +5086,22 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>grube</t>
+          <t>ordynaryi</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>bielone grube po</t>
+          <t>korcy ordynaryi –</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>gruby</t>
+          <t>ordynarya</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>grube</t>
+          <t>ordynaryi</t>
         </is>
       </c>
     </row>
@@ -5111,22 +5111,22 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>zkończone</t>
+          <t>Dziedzica</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>białą zkończone )</t>
+          <t>zastępował Dziedzica .</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>zkończony</t>
+          <t>dziedzic</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>zkończone</t>
+          <t>Dziedzic</t>
         </is>
       </c>
     </row>
@@ -5136,22 +5136,22 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>niewiem</t>
+          <t>szczupłey</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>– niewiem czy</t>
+          <t>tak szczupłey dotacyi</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>niewiem</t>
+          <t>szczupła</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>Niewiem</t>
+          <t>szczupłey</t>
         </is>
       </c>
     </row>
@@ -5161,22 +5161,22 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Dziedzicowi</t>
+          <t>dotacyi</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>Panu Dziedzicowi chodzi</t>
+          <t>szczupłey dotacyi uwzględniając</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>dziedzic</t>
+          <t>dotacya</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>Dziedzic</t>
+          <t>dotacyi</t>
         </is>
       </c>
     </row>
@@ -5186,22 +5186,22 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Dziadek</t>
+          <t>cwansigera</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>. Dziadek móy</t>
+          <t>owsa cwansigera –</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>dziadek</t>
+          <t>cwansiger</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>Dziadek</t>
+          <t>cwansigera</t>
         </is>
       </c>
     </row>
@@ -5211,22 +5211,22 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>człowiecze</t>
+          <t>mając</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>Ty człowiecze na</t>
+          <t>– mając przytem</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>człowiek</t>
+          <t>mieć</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>człowieczy</t>
+          <t>maić</t>
         </is>
       </c>
     </row>
@@ -5236,22 +5236,22 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>nieporadzisz</t>
+          <t>przytem</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>mi nieporadzisz –</t>
+          <t>mając przytem jakiś</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>nieporadzić</t>
+          <t>przyto</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>niePoradzisz</t>
+          <t>przytem</t>
         </is>
       </c>
     </row>
@@ -5261,22 +5261,22 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Dziadek</t>
+          <t>Panowie</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>mu Dziadek potrzebuję</t>
+          <t>obrywki Panowie ci</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>dziadek</t>
+          <t>pan</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>Dziadek</t>
+          <t>Pan</t>
         </is>
       </c>
     </row>
@@ -5286,22 +5286,22 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Dukatów</t>
+          <t>lepiey</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>2000 Dukatów –</t>
+          <t>nieraz lepiey jak</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>dukat</t>
+          <t>dobrze</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>Dukat</t>
+          <t>lepiey</t>
         </is>
       </c>
     </row>
@@ -5311,22 +5311,22 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Dziedzic</t>
+          <t>Panom</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>żeby Dziedzic przyjął</t>
+          <t>i Panom Urzędnikom</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>dziedzic</t>
+          <t>pan</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>Dziedzic</t>
+          <t>Pan</t>
         </is>
       </c>
     </row>
@@ -5336,22 +5336,22 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>mojey</t>
+          <t>ładąn</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>za mojey pamięci</t>
+          <t>– ładąn parą</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>mój</t>
+          <t>ładna</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>mojey</t>
+          <t>ładąn</t>
         </is>
       </c>
     </row>
@@ -5361,22 +5361,22 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Bludnikach</t>
+          <t>Dziad</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>w Bludnikach .</t>
+          <t>móy Dziad podbierając</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>Bludniki</t>
+          <t>dziad</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>Bludnik</t>
+          <t>Dziad</t>
         </is>
       </c>
     </row>
@@ -5386,22 +5386,22 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Pan</t>
+          <t>Bludnikach</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>był Pan Witwicki</t>
+          <t>w Bludnikach –</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>pan</t>
+          <t>Bludniki</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>Pan</t>
+          <t>Bludnik</t>
         </is>
       </c>
     </row>
@@ -5411,22 +5411,22 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>jaszcze</t>
+          <t>Bludnik</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>był jaszcze tam</t>
+          <t>do Bludnik należały</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>jaszcze</t>
+          <t>Bludniki</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>jaszcz</t>
+          <t>Bludnik</t>
         </is>
       </c>
     </row>
@@ -5436,22 +5436,22 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Proboszczem</t>
+          <t>Siedliska</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>. Proboszczem był</t>
+          <t>i Siedliska –</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>proboszcz</t>
+          <t>Siedliska</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>Proboszcz</t>
+          <t>siedliski</t>
         </is>
       </c>
     </row>
@@ -5461,22 +5461,22 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Głoweckiego</t>
+          <t>Dziedzica</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>owego Głoweckiego –</t>
+          <t>nowego Dziedzica –</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>Głowecki</t>
+          <t>dziedzic</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>Głoweckiego</t>
+          <t>Dziedzic</t>
         </is>
       </c>
     </row>
@@ -5486,22 +5486,22 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>późney</t>
+          <t>rantuchem</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>tak późney dokupił</t>
+          <t>długim rantuchem –</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>późno</t>
+          <t>rantuch</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>późney</t>
+          <t>rantuchem</t>
         </is>
       </c>
     </row>
@@ -5511,22 +5511,22 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Dziad</t>
+          <t>grube</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>dokupił Dziad móy</t>
+          <t>bielone grube po</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>dziad</t>
+          <t>gruby</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>Dziad</t>
+          <t>grube</t>
         </is>
       </c>
     </row>
@@ -5536,22 +5536,22 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Dochorowie</t>
+          <t>zkończone</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>W Dochorowie osadził</t>
+          <t>białą zkończone )</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>Dochorów</t>
+          <t>zkończyć</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>Dochorowie</t>
+          <t>zkończone</t>
         </is>
       </c>
     </row>
@@ -5561,22 +5561,22 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>nayjstarszego</t>
+          <t>niewiem</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>osadził nayjstarszego syna</t>
+          <t>– niewiem czy</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>stary</t>
+          <t>niewiem</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>nayjstarszego</t>
+          <t>Niewiem</t>
         </is>
       </c>
     </row>
@@ -5586,22 +5586,22 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Toje</t>
+          <t>Dziedzicowi</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>– Toje diło</t>
+          <t>Panu Dziedzicowi chodzi</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>toje</t>
+          <t>dziedzic</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>Toje</t>
+          <t>Dziedzic</t>
         </is>
       </c>
     </row>
@@ -5611,22 +5611,22 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Mychayłowu</t>
+          <t>Dziadek</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>mojomu Mychayłowu .</t>
+          <t>. Dziadek móy</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>mychayłowu</t>
+          <t>dziadek</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>Mychayłowu</t>
+          <t>Dziadek</t>
         </is>
       </c>
     </row>
@@ -5636,22 +5636,22 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Bludniki</t>
+          <t>człowiecze</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>. Bludniki oddał</t>
+          <t>Ty człowiecze na</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>Bludniki</t>
+          <t>człowiek</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>Bludnik</t>
+          <t>człowieczy</t>
         </is>
       </c>
     </row>
@@ -5661,22 +5661,22 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>iOycu</t>
+          <t>nieporadzisz</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>Józefowi iOycu mojemu</t>
+          <t>mi nieporadzisz –</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>ioyciec</t>
+          <t>nieporadzić</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>iOycu</t>
+          <t>niePoradzisz</t>
         </is>
       </c>
     </row>
@@ -5686,22 +5686,22 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Pan</t>
+          <t>Dziadek</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>. Pan Józef</t>
+          <t>mu Dziadek potrzebuję</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>pan</t>
+          <t>dziadek</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>Pan</t>
+          <t>Dziadek</t>
         </is>
       </c>
     </row>
@@ -5711,22 +5711,22 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Oyciec</t>
+          <t>Dukatów</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>– Oyciec móy</t>
+          <t>2000 Dukatów –</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>oyciec</t>
+          <t>dukat</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>Oyciec</t>
+          <t>Dukat</t>
         </is>
       </c>
     </row>
@@ -5736,22 +5736,22 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Oyca</t>
+          <t>Dziedzic</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>mojego Oyca pono</t>
+          <t>żeby Dziedzic przyjął</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>oyca</t>
+          <t>dziedzic</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>Oyca</t>
+          <t>Dziedzic</t>
         </is>
       </c>
     </row>
@@ -5761,22 +5761,22 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Pana</t>
+          <t>mojey</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>– Pana Józefa</t>
+          <t>za mojey pamięci</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>pan</t>
+          <t>mój</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>Pan</t>
+          <t>mojey</t>
         </is>
       </c>
     </row>
@@ -5786,22 +5786,22 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Dziadek</t>
+          <t>Bludnikach</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>wziął Dziadek móy</t>
+          <t>w Bludnikach .</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>dziadek</t>
+          <t>Bludniki</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>Dziadek</t>
+          <t>Bludnik</t>
         </is>
       </c>
     </row>
@@ -5811,22 +5811,22 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Siemginowa</t>
+          <t>owe</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>do Siemginowa –</t>
+          <t>w owe czasy</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>Siemginów</t>
+          <t>ów</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>Siemginowa</t>
+          <t>ow</t>
         </is>
       </c>
     </row>
@@ -5836,22 +5836,22 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>dośmierci</t>
+          <t>Pan</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>aż dośmierci Oyca</t>
+          <t>był Pan Witwicki</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>dośmierć</t>
+          <t>pan</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>dośmierci</t>
+          <t>Pan</t>
         </is>
       </c>
     </row>
@@ -5861,22 +5861,22 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Oyca</t>
+          <t>jaszcze</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>dośmierci Oyca przy</t>
+          <t>był jaszcze tam</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>oyciec</t>
+          <t>jaszcze</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>Oyca</t>
+          <t>jaszcz</t>
         </is>
       </c>
     </row>
@@ -5886,22 +5886,22 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Dziadek</t>
+          <t>Proboszczem</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>bo Dziadek móy</t>
+          <t>. Proboszczem był</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>dziadek</t>
+          <t>proboszcz</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>Dziadek</t>
+          <t>Proboszcz</t>
         </is>
       </c>
     </row>
@@ -5911,22 +5911,22 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Doktor</t>
+          <t>Głoweckiego</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>kataraktę Doktor Słowikowski</t>
+          <t>owego Głoweckiego –</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>doktor</t>
+          <t>Głowecki</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>Doktor</t>
+          <t>Głoweckiego</t>
         </is>
       </c>
     </row>
@@ -5936,22 +5936,22 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Dziadek</t>
+          <t>późney</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>. Dziadek umarł</t>
+          <t>tak późney dokupił</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>dziadek</t>
+          <t>późno</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>Dziadek</t>
+          <t>późney</t>
         </is>
       </c>
     </row>
@@ -5961,22 +5961,22 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Pan</t>
+          <t>Dziad</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>a Pan Józef</t>
+          <t>dokupił Dziad móy</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>pan</t>
+          <t>dziad</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>Pan</t>
+          <t>Dziad</t>
         </is>
       </c>
     </row>
@@ -5986,22 +5986,22 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Oyciec</t>
+          <t>Dochorowie</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>wydzielił Oyciec schedę</t>
+          <t>W Dochorowie osadził</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>oyciec</t>
+          <t>Dochorów</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>Oyciec</t>
+          <t>Dochorowie</t>
         </is>
       </c>
     </row>
@@ -6011,22 +6011,22 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>niewinem</t>
+          <t>nayjstarszego</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>Lipa niewinem .</t>
+          <t>osadził nayjstarszego syna</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>niewiedzieć</t>
+          <t>stary</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>Niewino</t>
+          <t>nayjstarszego</t>
         </is>
       </c>
     </row>
@@ -6036,22 +6036,22 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Pan</t>
+          <t>Toje</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>. Pan Michał</t>
+          <t>– Toje diło</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>pan</t>
+          <t>toje</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>Pan</t>
+          <t>Toje</t>
         </is>
       </c>
     </row>
@@ -6061,22 +6061,22 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Bludnikami</t>
+          <t>Mychayłowu</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>z Bludnikami o</t>
+          <t>mojomu Mychayłowu .</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>Bludniki</t>
+          <t>mychayłowu</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>Bludnik</t>
+          <t>Mychayłowu</t>
         </is>
       </c>
     </row>
@@ -6086,22 +6086,22 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Temerowiec</t>
+          <t>Bludniki</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>z Temerowiec ,</t>
+          <t>. Bludniki oddał</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>Temerowice</t>
+          <t>Bludniki</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>Temerowiec</t>
+          <t>Bludnik</t>
         </is>
       </c>
     </row>
@@ -6111,22 +6111,22 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Stanisława</t>
+          <t>iOycu</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>i Stanisława Zabilskich</t>
+          <t>Józefowi iOycu mojemu</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>Stanisław</t>
+          <t>ioyciec</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>Stanisława</t>
+          <t>iOycu</t>
         </is>
       </c>
     </row>
@@ -6136,22 +6136,22 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Oyciec</t>
+          <t>Pan</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>go Oyciec odumarł</t>
+          <t>. Pan Józef</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>oyciec</t>
+          <t>pan</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>Oyciec</t>
+          <t>Pan</t>
         </is>
       </c>
     </row>
@@ -6161,12 +6161,12 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Oycem</t>
+          <t>Oyciec</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>za Oycem doszedłszy</t>
+          <t>– Oyciec móy</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
@@ -6176,7 +6176,7 @@
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>Oycem</t>
+          <t>Oyciec</t>
         </is>
       </c>
     </row>
@@ -6186,22 +6186,22 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Majątek</t>
+          <t>Oyca</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>. Majątek prawem</t>
+          <t>mojego Oyca pono</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>majątek</t>
+          <t>oyca</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>Majątek</t>
+          <t>Oyca</t>
         </is>
       </c>
     </row>
@@ -6211,22 +6211,22 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>sukcessyi</t>
+          <t>Pana</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>prawem sukcessyi przeszedł</t>
+          <t>– Pana Józefa</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>sukcessya</t>
+          <t>pan</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>sukcessyi</t>
+          <t>Pan</t>
         </is>
       </c>
     </row>
@@ -6236,22 +6236,22 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Pan</t>
+          <t>Dziadek</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>– Pan Kazimierz</t>
+          <t>wziął Dziadek móy</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>pan</t>
+          <t>dziadek</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>Pan</t>
+          <t>Dziadek</t>
         </is>
       </c>
     </row>
@@ -6261,22 +6261,22 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>niebył</t>
+          <t>Siemginowa</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>– niebył gospodarzem</t>
+          <t>do Siemginowa –</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>niebyć</t>
+          <t>Siemginów</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>Niebyła</t>
+          <t>Siemginowa</t>
         </is>
       </c>
     </row>
@@ -6286,22 +6286,22 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>więcey</t>
+          <t>dośmierci</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>gospodarzem więcey fantasta</t>
+          <t>aż dośmierci Oyca</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>dużo</t>
+          <t>dośmierć</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>więcey</t>
+          <t>dośmierci</t>
         </is>
       </c>
     </row>
@@ -6311,22 +6311,22 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Pana</t>
+          <t>Oyca</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>„ Pana Tadeusza</t>
+          <t>dośmierci Oyca przy</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>pan</t>
+          <t>oyciec</t>
         </is>
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>Pan</t>
+          <t>Oyca</t>
         </is>
       </c>
     </row>
@@ -6336,22 +6336,22 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>gołey</t>
+          <t>Dziadek</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>na gołey podłodze</t>
+          <t>bo Dziadek móy</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>goła</t>
+          <t>dziadek</t>
         </is>
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>gołey</t>
+          <t>Dziadek</t>
         </is>
       </c>
     </row>
@@ -6361,22 +6361,22 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>niemogli</t>
+          <t>Doktor</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>ci niemogli długo</t>
+          <t>kataraktę Doktor Słowikowski</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>niemóc</t>
+          <t>doktor</t>
         </is>
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>niemogel</t>
+          <t>Doktor</t>
         </is>
       </c>
     </row>
@@ -6386,22 +6386,22 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>nietylko</t>
+          <t>Dziadek</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>– nietylko czeladź</t>
+          <t>. Dziadek umarł</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>nietylko</t>
+          <t>dziadek</t>
         </is>
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>nieTylko</t>
+          <t>Dziadek</t>
         </is>
       </c>
     </row>
@@ -6411,22 +6411,22 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>obeyściu</t>
+          <t>Pan</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>na obeyściu niemożna</t>
+          <t>a Pan Józef</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>obeyście</t>
+          <t>pan</t>
         </is>
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>obeyściu</t>
+          <t>Pan</t>
         </is>
       </c>
     </row>
@@ -6436,22 +6436,22 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>niemożna</t>
+          <t>Oyciec</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>obeyściu niemożna było</t>
+          <t>wydzielił Oyciec schedę</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>niemóc</t>
+          <t>oyciec</t>
         </is>
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>niemożny</t>
+          <t>Oyciec</t>
         </is>
       </c>
     </row>
@@ -6461,22 +6461,22 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>Sukcesya</t>
+          <t>niewinem</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>. Sukcesya po</t>
+          <t>Lipa niewinem .</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>sukcesya</t>
+          <t>niewiedzieć</t>
         </is>
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>Sukcesya</t>
+          <t>Niewino</t>
         </is>
       </c>
     </row>
@@ -6486,22 +6486,22 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>Oyca</t>
+          <t>Pan</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>mojego Oyca spadała</t>
+          <t>. Pan Michał</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>oyciec</t>
+          <t>pan</t>
         </is>
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>Oyca</t>
+          <t>Pan</t>
         </is>
       </c>
     </row>
@@ -6511,22 +6511,22 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>Treterowej</t>
+          <t>Bludnikami</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>rodzonym Treterowej i</t>
+          <t>z Bludnikami o</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>Treterowa</t>
+          <t>Bludniki</t>
         </is>
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>Treterowej</t>
+          <t>Bludnik</t>
         </is>
       </c>
     </row>
@@ -6536,22 +6536,22 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>Swieżaskiey</t>
+          <t>Temerowiec</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>i Swieżaskiey .</t>
+          <t>z Temerowiec ,</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>Swieżaska</t>
+          <t>Temerowice</t>
         </is>
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>Swieżaskiey</t>
+          <t>Temerowiec</t>
         </is>
       </c>
     </row>
@@ -6561,22 +6561,22 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>Pan</t>
+          <t>Stanisława</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>. Pan Józef</t>
+          <t>i Stanisława Zabilskich</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>pan</t>
+          <t>Stanisław</t>
         </is>
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>Pan</t>
+          <t>Stanisława</t>
         </is>
       </c>
     </row>
@@ -6586,22 +6586,22 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>Oyca</t>
+          <t>Oyciec</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>śmierci Oyca z</t>
+          <t>go Oyciec odumarł</t>
         </is>
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>oyca</t>
+          <t>oyciec</t>
         </is>
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>Oyca</t>
+          <t>Oyciec</t>
         </is>
       </c>
     </row>
@@ -6611,22 +6611,22 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>Panną</t>
+          <t>Oycem</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>z Panną Julią</t>
+          <t>za Oycem doszedłszy</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>panna</t>
+          <t>oyciec</t>
         </is>
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>Panna</t>
+          <t>Oycem</t>
         </is>
       </c>
     </row>
@@ -6636,22 +6636,22 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>Stryiskim</t>
+          <t>Majątek</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>w Stryiskim w</t>
+          <t>. Majątek prawem</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>Stryiskie</t>
+          <t>majątek</t>
         </is>
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>Stryiskim</t>
+          <t>Majątek</t>
         </is>
       </c>
     </row>
@@ -6661,22 +6661,22 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>Kruszelnicę</t>
+          <t>sukcessyi</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>czy Kruszelnicę –</t>
+          <t>prawem sukcessyi przeszedł</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>Kruszelnica</t>
+          <t>sukcessya</t>
         </is>
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>Kruszelnicę</t>
+          <t>sukcessyi</t>
         </is>
       </c>
     </row>
@@ -6686,22 +6686,22 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>generacyi</t>
+          <t>Pan</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>kilka generacyi na</t>
+          <t>– Pan Kazimierz</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>generacya</t>
+          <t>pan</t>
         </is>
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>generacyi</t>
+          <t>Pan</t>
         </is>
       </c>
     </row>
@@ -6711,22 +6711,22 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>obeyściu</t>
+          <t>niebył</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>jednem obeyściu było</t>
+          <t>– niebył gospodarzem</t>
         </is>
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>obeyście</t>
+          <t>niebyć</t>
         </is>
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>obeyściu</t>
+          <t>Niebyła</t>
         </is>
       </c>
     </row>
@@ -6736,22 +6736,22 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>Panny</t>
+          <t>więcey</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>2 Panny niemając</t>
+          <t>gospodarzem więcey fantasta</t>
         </is>
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>panna</t>
+          <t>dużo</t>
         </is>
       </c>
       <c r="E253" t="inlineStr">
         <is>
-          <t>Panna</t>
+          <t>więcey</t>
         </is>
       </c>
     </row>
@@ -6761,22 +6761,22 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>Panna</t>
+          <t>Pana</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>fatum Panna Julia</t>
+          <t>„ Pana Tadeusza</t>
         </is>
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>panna</t>
+          <t>pan</t>
         </is>
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>Panna</t>
+          <t>Pan</t>
         </is>
       </c>
     </row>
@@ -6786,22 +6786,22 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>Bludnik</t>
+          <t>gołey</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>sąsiedztwo Bludnik do</t>
+          <t>na gołey podłodze</t>
         </is>
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>Bludniki</t>
+          <t>goła</t>
         </is>
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>Bludnik</t>
+          <t>gołey</t>
         </is>
       </c>
     </row>
@@ -6811,22 +6811,22 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>Rudzkich</t>
+          <t>niemogli</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>Państwa Rudzkich gdzie</t>
+          <t>ci niemogli długo</t>
         </is>
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>Rudzki</t>
+          <t>niemóc</t>
         </is>
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>rudzki</t>
+          <t>niemogel</t>
         </is>
       </c>
     </row>
@@ -6836,22 +6836,22 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>Pan</t>
+          <t>nietylko</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>. Pan Józef</t>
+          <t>– nietylko czeladź</t>
         </is>
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>pan</t>
+          <t>nietylko</t>
         </is>
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>Pan</t>
+          <t>nieTylko</t>
         </is>
       </c>
     </row>
@@ -6861,22 +6861,22 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>Siemiginowie</t>
+          <t>obeyściu</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>na Siemiginowie już</t>
+          <t>na obeyściu niemożna</t>
         </is>
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>Siemiginów</t>
+          <t>obeyście</t>
         </is>
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>Siemiginowie</t>
+          <t>obeyściu</t>
         </is>
       </c>
     </row>
@@ -6886,22 +6886,22 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>Panny</t>
+          <t>niemożna</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>krewni Panny Juli</t>
+          <t>obeyściu niemożna było</t>
         </is>
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>panna</t>
+          <t>niemóc</t>
         </is>
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>Panna</t>
+          <t>niemożny</t>
         </is>
       </c>
     </row>
@@ -6911,22 +6911,22 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>Pan</t>
+          <t>klęczącym</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>że Pan Józef</t>
+          <t>służba klęczącym ze</t>
         </is>
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>pan</t>
+          <t>klęczeć</t>
         </is>
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>Pan</t>
+          <t>klęczący</t>
         </is>
       </c>
     </row>
@@ -6936,22 +6936,22 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>sukcessorów</t>
+          <t>Sukcesya</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>niema sukcessorów ,</t>
+          <t>. Sukcesya po</t>
         </is>
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>sukcessor</t>
+          <t>sukcesya</t>
         </is>
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>sukcessorów</t>
+          <t>Sukcesya</t>
         </is>
       </c>
     </row>
@@ -6961,22 +6961,22 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>Kruszelnicy</t>
+          <t>Oyca</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>do Kruszelnicy o</t>
+          <t>mojego Oyca spadała</t>
         </is>
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>Kruszelnica</t>
+          <t>oyciec</t>
         </is>
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>Kruszelnicy</t>
+          <t>Oyca</t>
         </is>
       </c>
     </row>
@@ -6986,22 +6986,22 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>odległey</t>
+          <t>Treterowej</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>mil odległey od</t>
+          <t>rodzonym Treterowej i</t>
         </is>
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>odległa</t>
+          <t>Treterowa</t>
         </is>
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>odległey</t>
+          <t>Treterowej</t>
         </is>
       </c>
     </row>
@@ -7011,22 +7011,22 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>Siemignowa</t>
+          <t>Swieżaskiey</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>od Siemignowa –</t>
+          <t>i Swieżaskiey .</t>
         </is>
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>Siemignów</t>
+          <t>Swieżaska</t>
         </is>
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>Siemignowa</t>
+          <t>Swieżaskiey</t>
         </is>
       </c>
     </row>
@@ -7036,22 +7036,22 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>łania</t>
+          <t>Pan</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>jak łania Panna</t>
+          <t>. Pan Józef</t>
         </is>
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>łania</t>
+          <t>pan</t>
         </is>
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>łani</t>
+          <t>Pan</t>
         </is>
       </c>
     </row>
@@ -7061,22 +7061,22 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>Panna</t>
+          <t>Oyca</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>łania Panna Julia</t>
+          <t>śmierci Oyca z</t>
         </is>
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>panna</t>
+          <t>oyca</t>
         </is>
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>Panna</t>
+          <t>Oyca</t>
         </is>
       </c>
     </row>
@@ -7086,22 +7086,22 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>Siemiginowa</t>
+          <t>Panną</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>sukcessorka Siemiginowa –</t>
+          <t>z Panną Julią</t>
         </is>
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>Siemiginów</t>
+          <t>panna</t>
         </is>
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>Siemiginowa</t>
+          <t>Panna</t>
         </is>
       </c>
     </row>
@@ -7111,22 +7111,22 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>Pan</t>
+          <t>Stryiskim</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>kupił Pan Józef</t>
+          <t>w Stryiskim w</t>
         </is>
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>pan</t>
+          <t>Stryiskie</t>
         </is>
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>Pan</t>
+          <t>Stryiskim</t>
         </is>
       </c>
     </row>
@@ -7136,22 +7136,22 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>Nawaryi</t>
+          <t>Kruszelnicę</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>koło Nawaryi i</t>
+          <t>czy Kruszelnicę –</t>
         </is>
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>Nawarya</t>
+          <t>Kruszelnica</t>
         </is>
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>Nawaryi</t>
+          <t>Kruszelnicę</t>
         </is>
       </c>
     </row>
@@ -7161,22 +7161,22 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>ciepłey</t>
+          <t>generacyi</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>ale ciepłey wdowy</t>
+          <t>kilka generacyi na</t>
         </is>
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>ciepła</t>
+          <t>generacya</t>
         </is>
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>ciepłey</t>
+          <t>generacyi</t>
         </is>
       </c>
     </row>
@@ -7186,22 +7186,22 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>Szołayskiego</t>
+          <t>obeyściu</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>pana Szołayskiego młodzika</t>
+          <t>jednem obeyściu było</t>
         </is>
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>Szołayski</t>
+          <t>obeyście</t>
         </is>
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>Szołayskiego</t>
+          <t>obeyściu</t>
         </is>
       </c>
     </row>
@@ -7211,22 +7211,22 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>Separacya</t>
+          <t>Panny</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>nastąpiła Separacya .</t>
+          <t>2 Panny niemając</t>
         </is>
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>separacya</t>
+          <t>panna</t>
         </is>
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>Separacya</t>
+          <t>Panna</t>
         </is>
       </c>
     </row>
@@ -7236,22 +7236,22 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>procesa</t>
+          <t>niemając</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>lubiła procesa –</t>
+          <t>Panny niemając widoków</t>
         </is>
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>proces</t>
+          <t>niemieć</t>
         </is>
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>procesa</t>
+          <t>niemając</t>
         </is>
       </c>
     </row>
@@ -7261,22 +7261,22 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>Lesniowic</t>
+          <t>Panna</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>do Lesniowic przyległe</t>
+          <t>fatum Panna Julia</t>
         </is>
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>Lesniowice</t>
+          <t>panna</t>
         </is>
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>Lesniowic</t>
+          <t>Panna</t>
         </is>
       </c>
     </row>
@@ -7286,20 +7286,570 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
+          <t>Bludnik</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>sąsiedztwo Bludnik do</t>
+        </is>
+      </c>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>Bludniki</t>
+        </is>
+      </c>
+      <c r="E275" t="inlineStr">
+        <is>
+          <t>Bludnik</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="1" t="n">
+        <v>274</v>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>Rudzkich</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>Państwa Rudzkich gdzie</t>
+        </is>
+      </c>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>Rudzki</t>
+        </is>
+      </c>
+      <c r="E276" t="inlineStr">
+        <is>
+          <t>rudzki</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="1" t="n">
+        <v>275</v>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>Pan</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>. Pan Józef</t>
+        </is>
+      </c>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>pan</t>
+        </is>
+      </c>
+      <c r="E277" t="inlineStr">
+        <is>
+          <t>Pan</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="1" t="n">
+        <v>276</v>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>Siemiginowie</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>na Siemiginowie już</t>
+        </is>
+      </c>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>Siemiginów</t>
+        </is>
+      </c>
+      <c r="E278" t="inlineStr">
+        <is>
+          <t>Siemiginowie</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="1" t="n">
+        <v>277</v>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>Panny</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>krewni Panny Juli</t>
+        </is>
+      </c>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>panna</t>
+        </is>
+      </c>
+      <c r="E279" t="inlineStr">
+        <is>
+          <t>Panna</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="1" t="n">
+        <v>278</v>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>Pan</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>że Pan Józef</t>
+        </is>
+      </c>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>pan</t>
+        </is>
+      </c>
+      <c r="E280" t="inlineStr">
+        <is>
+          <t>Pan</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="1" t="n">
+        <v>279</v>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>niema</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>że niema sukcessorów</t>
+        </is>
+      </c>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>niemieć</t>
+        </is>
+      </c>
+      <c r="E281" t="inlineStr">
+        <is>
+          <t>niema</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="1" t="n">
+        <v>280</v>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>sukcessorów</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>niema sukcessorów ,</t>
+        </is>
+      </c>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>sukcessor</t>
+        </is>
+      </c>
+      <c r="E282" t="inlineStr">
+        <is>
+          <t>sukcessorów</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="1" t="n">
+        <v>281</v>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>Kruszelnicy</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>do Kruszelnicy o</t>
+        </is>
+      </c>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>Kruszelnica</t>
+        </is>
+      </c>
+      <c r="E283" t="inlineStr">
+        <is>
+          <t>Kruszelnicy</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="1" t="n">
+        <v>282</v>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>odległey</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>mil odległey od</t>
+        </is>
+      </c>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>odległa</t>
+        </is>
+      </c>
+      <c r="E284" t="inlineStr">
+        <is>
+          <t>odległey</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="1" t="n">
+        <v>283</v>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>Siemignowa</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>od Siemignowa –</t>
+        </is>
+      </c>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>Siemignów</t>
+        </is>
+      </c>
+      <c r="E285" t="inlineStr">
+        <is>
+          <t>Siemignowa</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="1" t="n">
+        <v>284</v>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>łania</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>jak łania Panna</t>
+        </is>
+      </c>
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>łania</t>
+        </is>
+      </c>
+      <c r="E286" t="inlineStr">
+        <is>
+          <t>łani</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="1" t="n">
+        <v>285</v>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>Panna</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>łania Panna Julia</t>
+        </is>
+      </c>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>panna</t>
+        </is>
+      </c>
+      <c r="E287" t="inlineStr">
+        <is>
+          <t>Panna</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="1" t="n">
+        <v>286</v>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>Siemiginowa</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>sukcessorka Siemiginowa –</t>
+        </is>
+      </c>
+      <c r="D288" t="inlineStr">
+        <is>
+          <t>Siemiginów</t>
+        </is>
+      </c>
+      <c r="E288" t="inlineStr">
+        <is>
+          <t>Siemiginowa</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="1" t="n">
+        <v>287</v>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>Pan</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>kupił Pan Józef</t>
+        </is>
+      </c>
+      <c r="D289" t="inlineStr">
+        <is>
+          <t>pan</t>
+        </is>
+      </c>
+      <c r="E289" t="inlineStr">
+        <is>
+          <t>Pan</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="1" t="n">
+        <v>288</v>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>Nawaryi</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>koło Nawaryi i</t>
+        </is>
+      </c>
+      <c r="D290" t="inlineStr">
+        <is>
+          <t>Nawarya</t>
+        </is>
+      </c>
+      <c r="E290" t="inlineStr">
+        <is>
+          <t>Nawaryi</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="1" t="n">
+        <v>289</v>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>ciepłey</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>ale ciepłey wdowy</t>
+        </is>
+      </c>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>ciepły</t>
+        </is>
+      </c>
+      <c r="E291" t="inlineStr">
+        <is>
+          <t>ciepłey</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="1" t="n">
+        <v>290</v>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>Szołayskiego</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>pana Szołayskiego młodzika</t>
+        </is>
+      </c>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>Szołayski</t>
+        </is>
+      </c>
+      <c r="E292" t="inlineStr">
+        <is>
+          <t>Szołayskiego</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="1" t="n">
+        <v>291</v>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>pożyciu</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>nim pożyciu –</t>
+        </is>
+      </c>
+      <c r="D293" t="inlineStr">
+        <is>
+          <t>pożycie</t>
+        </is>
+      </c>
+      <c r="E293" t="inlineStr">
+        <is>
+          <t>pożyć</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="1" t="n">
+        <v>292</v>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>Separacya</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>nastąpiła Separacya .</t>
+        </is>
+      </c>
+      <c r="D294" t="inlineStr">
+        <is>
+          <t>separacya</t>
+        </is>
+      </c>
+      <c r="E294" t="inlineStr">
+        <is>
+          <t>Separacya</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="1" t="n">
+        <v>293</v>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>procesa</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>lubiła procesa –</t>
+        </is>
+      </c>
+      <c r="D295" t="inlineStr">
+        <is>
+          <t>proces</t>
+        </is>
+      </c>
+      <c r="E295" t="inlineStr">
+        <is>
+          <t>procesa</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="1" t="n">
+        <v>294</v>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>Lesniowic</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>do Lesniowic przyległe</t>
+        </is>
+      </c>
+      <c r="D296" t="inlineStr">
+        <is>
+          <t>Lesniowice</t>
+        </is>
+      </c>
+      <c r="E296" t="inlineStr">
+        <is>
+          <t>Lesniowic</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="1" t="n">
+        <v>295</v>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
           <t>Mosty</t>
         </is>
       </c>
-      <c r="C275" t="inlineStr">
+      <c r="C297" t="inlineStr">
         <is>
           <t>przyległe Mosty .</t>
         </is>
       </c>
-      <c r="D275" t="inlineStr">
+      <c r="D297" t="inlineStr">
         <is>
           <t>Mosty</t>
         </is>
       </c>
-      <c r="E275" t="inlineStr">
+      <c r="E297" t="inlineStr">
         <is>
           <t>Most</t>
         </is>

--- a/data/mistakes/Morfeusz_lemma_mistakes.xlsx
+++ b/data/mistakes/Morfeusz_lemma_mistakes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E297"/>
+  <dimension ref="A1:E295"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1821,7 +1821,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>chyrowska</t>
+          <t>chyrowski</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -2271,7 +2271,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Stanisława</t>
+          <t>Stanisław</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Augusta</t>
+          <t>August</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -3036,22 +3036,22 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Sachsen</t>
+          <t>Ułanów</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>do Sachsen Cobary</t>
+          <t>Cobary Ułanów mając</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>sachsen</t>
+          <t>ułan</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Sachsen</t>
+          <t>Ułan</t>
         </is>
       </c>
     </row>
@@ -3061,22 +3061,22 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Cobary</t>
+          <t>mając</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Sachsen Cobary Ułanów</t>
+          <t>Ułanów mając lat</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>cobary</t>
+          <t>mieć</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Cobary</t>
+          <t>maić</t>
         </is>
       </c>
     </row>
@@ -3086,22 +3086,22 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Ułanów</t>
+          <t>ś</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Cobary Ułanów mając</t>
+          <t>mi ś .</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>ułan</t>
+          <t>świętej</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Ułan</t>
+          <t>ś</t>
         </is>
       </c>
     </row>
@@ -3111,22 +3111,22 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>mając</t>
+          <t>p</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Ułanów mając lat</t>
+          <t>. p .</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>mieć</t>
+          <t>pamięci</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>maić</t>
+          <t>List_świętego_Piotra</t>
         </is>
       </c>
     </row>
@@ -3136,22 +3136,22 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>ś</t>
+          <t>nieśmiał</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>mi ś .</t>
+          <t>ja nieśmiał em</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>świętej</t>
+          <t>nieśmieć</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>ś</t>
+          <t>MISPARSED</t>
         </is>
       </c>
     </row>
@@ -3161,22 +3161,22 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>p</t>
+          <t>em</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>. p .</t>
+          <t>nieśmiał em wypytywać</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>pamięci</t>
+          <t>być</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>List_świętego_Piotra</t>
+          <t>MISPARSED</t>
         </is>
       </c>
     </row>
@@ -3186,17 +3186,17 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>nieśmiał</t>
+          <t>niebył</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>ja nieśmiał em</t>
+          <t>Wreszcie niebył em</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>nieśmieć</t>
+          <t>niebyć</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -3216,7 +3216,7 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>nieśmiał em wypytywać</t>
+          <t>niebył em nigdy</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -3236,22 +3236,22 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>niebył</t>
+          <t>Oycem</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Wreszcie niebył em</t>
+          <t>z Oycem na</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>niebyć</t>
+          <t>oyciec</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>MISPARSED</t>
+          <t>Oycem</t>
         </is>
       </c>
     </row>
@@ -3261,22 +3261,22 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>em</t>
+          <t>Oyciec</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>niebył em nigdy</t>
+          <t>a Oyciec ciągle</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>być</t>
+          <t>oyciec</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>MISPARSED</t>
+          <t>Oyciec</t>
         </is>
       </c>
     </row>
@@ -3286,22 +3286,22 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Oycem</t>
+          <t>śp</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>z Oycem na</t>
+          <t>zakończył śp .</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>oyciec</t>
+          <t>świętej pamięci</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Oycem</t>
+          <t>świętej_pamięci</t>
         </is>
       </c>
     </row>
@@ -3316,7 +3316,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>a Oyciec ciągle</t>
+          <t>móy Oyciec około</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -3336,22 +3336,22 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>śp</t>
+          <t>kończ</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>zakończył śp .</t>
+          <t>do kończ życia</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>świętej pamięci</t>
+          <t>koniec</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>świętej_pamięci</t>
+          <t>kończyć</t>
         </is>
       </c>
     </row>
@@ -3361,22 +3361,22 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Oyciec</t>
+          <t>życia</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>móy Oyciec około</t>
+          <t>kończ życia .</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>oyciec</t>
+          <t>życie</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Oyciec</t>
+          <t>żyć</t>
         </is>
       </c>
     </row>
@@ -3386,22 +3386,22 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>kończ</t>
+          <t>assekuracyi</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>do kończ życia</t>
+          <t>w assekuracyi armat</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>koniec</t>
+          <t>assekuracya</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>kończyć</t>
+          <t>assekuracyi</t>
         </is>
       </c>
     </row>
@@ -3411,22 +3411,22 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>życia</t>
+          <t>Dziadek</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>kończ życia .</t>
+          <t>. Dziadek Melchior</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>życie</t>
+          <t>dziadek</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>żyć</t>
+          <t>Dziadek</t>
         </is>
       </c>
     </row>
@@ -3436,22 +3436,22 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>assekuracyi</t>
+          <t>skrzętnem</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>w assekuracyi armat</t>
+          <t>fortuny skrzętnem gospodarstwem</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>assekuracya</t>
+          <t>skrzętny</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>assekuracyi</t>
+          <t>skrzętnem</t>
         </is>
       </c>
     </row>
@@ -3461,22 +3461,22 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Dziadek</t>
+          <t>Stryjskim</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>. Dziadek Melchior</t>
+          <t>w Stryjskim -</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>dziadek</t>
+          <t>stryjski</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Dziadek</t>
+          <t>Stryjski</t>
         </is>
       </c>
     </row>
@@ -3486,22 +3486,22 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>skrzętnem</t>
+          <t>tem</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>fortuny skrzętnem gospodarstwem</t>
+          <t>po tem jak</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>skrzętny</t>
+          <t>to</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>skrzętnem</t>
+          <t>tema</t>
         </is>
       </c>
     </row>
@@ -3511,22 +3511,22 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Stryjskim</t>
+          <t>set</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>w Stryjskim -</t>
+          <t>parę set sztuk</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>stryjski</t>
+          <t>sto</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Stryjski</t>
+          <t>seta</t>
         </is>
       </c>
     </row>
@@ -3536,22 +3536,22 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>tem</t>
+          <t>Bludniki</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>po tem jak</t>
+          <t>kupił Bludniki za</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>to</t>
+          <t>Bludniki</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>tema</t>
+          <t>Bludnik</t>
         </is>
       </c>
     </row>
@@ -3561,22 +3561,22 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>set</t>
+          <t>Dziedzic</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>parę set sztuk</t>
+          <t>Nowy Dziedzic wchodził</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>sto</t>
+          <t>dziedzic</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>seta</t>
+          <t>Dziedzic</t>
         </is>
       </c>
     </row>
@@ -3586,22 +3586,22 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Bludniki</t>
+          <t>któremi</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>kupił Bludniki za</t>
+          <t>nad któremi obeymował</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Bludniki</t>
+          <t>który</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Bludnik</t>
+          <t>któremi</t>
         </is>
       </c>
     </row>
@@ -3611,22 +3611,22 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Dziedzic</t>
+          <t>obeymował</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Nowy Dziedzic wchodził</t>
+          <t>któremi obeymował Dziedzictwo</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>dziedzic</t>
+          <t>obeymować</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Dziedzic</t>
+          <t>obeymował</t>
         </is>
       </c>
     </row>
@@ -3636,22 +3636,22 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>któremi</t>
+          <t>juryzdyksye</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>nad któremi obeymował</t>
+          <t>prawną juryzdyksye sądową</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>który</t>
+          <t>juryzdyksya</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>któremi</t>
+          <t>juryzdyksye</t>
         </is>
       </c>
     </row>
@@ -3661,22 +3661,22 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>obeymował</t>
+          <t>pierwszey</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>któremi obeymował Dziedzictwo</t>
+          <t>policyjną pierwszey instantacyi</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>obeymować</t>
+          <t>pierwsza</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>obeymował</t>
+          <t>pierwszey</t>
         </is>
       </c>
     </row>
@@ -3686,22 +3686,22 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>juryzdyksye</t>
+          <t>instantacyi</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>prawną juryzdyksye sądową</t>
+          <t>pierwszey instantacyi .</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>juryzdyksya</t>
+          <t>instantacya</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>juryzdyksye</t>
+          <t>instantacyi</t>
         </is>
       </c>
     </row>
@@ -3711,22 +3711,22 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>pierwszey</t>
+          <t>morgów</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>policyjną pierwszey instantacyi</t>
+          <t>posiadanych morgów -</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>pierwsza</t>
+          <t>morg</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>pierwszey</t>
+          <t>mórg</t>
         </is>
       </c>
     </row>
@@ -3736,22 +3736,22 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>instantacyi</t>
+          <t>jaja</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>pierwszey instantacyi .</t>
+          <t>, jaja –</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>instantacya</t>
+          <t>jajo</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>instantacyi</t>
+          <t>jaje</t>
         </is>
       </c>
     </row>
@@ -3761,22 +3761,22 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>morgów</t>
+          <t>Pan</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>posiadanych morgów -</t>
+          <t>to Pan dawał</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>morg</t>
+          <t>pan</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>mórg</t>
+          <t>Pan</t>
         </is>
       </c>
     </row>
@@ -3786,22 +3786,22 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>jaja</t>
+          <t>śp</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>, jaja –</t>
+          <t>em śp .</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>jaja</t>
+          <t>świętej pamięci</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>jaje</t>
+          <t>świętej_pamięci</t>
         </is>
       </c>
     </row>
@@ -3811,22 +3811,22 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Pan</t>
+          <t>Dziadka</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>to Pan dawał</t>
+          <t>. Dziadka Ostaszewskigo</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>pan</t>
+          <t>dziadek</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Pan</t>
+          <t>Dziadek</t>
         </is>
       </c>
     </row>
@@ -3836,22 +3836,22 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>śp</t>
+          <t>Ostaszewskigo</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>em śp .</t>
+          <t>Dziadka Ostaszewskigo jak</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>świętej pamięci</t>
+          <t>Ostaszewski</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>świętej_pamięci</t>
+          <t>Ostaszewskigo</t>
         </is>
       </c>
     </row>
@@ -3861,22 +3861,22 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Dziadka</t>
+          <t>kmiecie</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>. Dziadka Ostaszewskigo</t>
+          <t>jego kmiecie na</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>dziadek</t>
+          <t>kmieć</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Dziadek</t>
+          <t>kmieci</t>
         </is>
       </c>
     </row>
@@ -3886,22 +3886,22 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Ostaszewskigo</t>
+          <t>mają</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Dziadka Ostaszewskigo jak</t>
+          <t>najlepsze mają konie</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Ostaszewski</t>
+          <t>mieć</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Ostaszewskigo</t>
+          <t>maić</t>
         </is>
       </c>
     </row>
@@ -3911,22 +3911,22 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>kmiecie</t>
+          <t>bydle</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>jego kmiecie na</t>
+          <t>padło bydle robocze</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>kmieć</t>
+          <t>bydlę</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>kmieci</t>
+          <t>bydło</t>
         </is>
       </c>
     </row>
@@ -3936,22 +3936,22 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>mają</t>
+          <t>Dłużanie</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>najlepsze mają konie</t>
+          <t>raz Dłużanie żalili</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>mieć</t>
+          <t>Dłużanin</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>maić</t>
+          <t>Dłużanie</t>
         </is>
       </c>
     </row>
@@ -3961,22 +3961,22 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>bydle</t>
+          <t>niemają</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>padło bydle robocze</t>
+          <t>że niemają dogodnego</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>bydlę</t>
+          <t>niemieć</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>bydło</t>
+          <t>niemaja</t>
         </is>
       </c>
     </row>
@@ -3986,22 +3986,22 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Dłużanie</t>
+          <t>śp</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>raz Dłużanie żalili</t>
+          <t>Oddzieli śp .</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Dłużanin</t>
+          <t>świętej pamięci</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Dłużanie</t>
+          <t>świętej_pamięci</t>
         </is>
       </c>
     </row>
@@ -4011,22 +4011,22 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>niemają</t>
+          <t>Pan</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>że niemają dogodnego</t>
+          <t>. Pan Kazimierz</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>niemieć</t>
+          <t>pan</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>niemaja</t>
+          <t>Pan</t>
         </is>
       </c>
     </row>
@@ -4036,22 +4036,22 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>śp</t>
+          <t>suchey</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Oddzieli śp .</t>
+          <t>morgów suchey łąki</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>świętej pamięci</t>
+          <t>suchy</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>świętej_pamięci</t>
+          <t>suchey</t>
         </is>
       </c>
     </row>
@@ -4061,22 +4061,22 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Pan</t>
+          <t>podedworem</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>. Pan Kazimierz</t>
+          <t>łąki podedworem a</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>pan</t>
+          <t>podedwór</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Pan</t>
+          <t>podedworem</t>
         </is>
       </c>
     </row>
@@ -4086,22 +4086,22 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>suchey</t>
+          <t>nayskładniey</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>morgów suchey łąki</t>
+          <t>a nayskładniey położone</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>suchy</t>
+          <t>składnie</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>suchey</t>
+          <t>nayskładniey</t>
         </is>
       </c>
     </row>
@@ -4111,22 +4111,22 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>podedworem</t>
+          <t>Niebył</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>łąki podedworem a</t>
+          <t>. Niebył to</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>podedwór</t>
+          <t>niebyć</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>podedworem</t>
+          <t>Niebyła</t>
         </is>
       </c>
     </row>
@@ -4136,22 +4136,22 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>nayskładniey</t>
+          <t>Oycowskiey</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>a nayskładniey położone</t>
+          <t>. Oycowskiey .</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>składnie</t>
+          <t>oycowski</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>nayskładniey</t>
+          <t>Oycowskiey</t>
         </is>
       </c>
     </row>
@@ -4161,22 +4161,22 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Niebył</t>
+          <t>warżenia</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>. Niebył to</t>
+          <t>prawo warżenia piwa</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>niebyć</t>
+          <t>warżyć</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Niebyła</t>
+          <t>warżenia</t>
         </is>
       </c>
     </row>
@@ -4186,22 +4186,22 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Oycowskiey</t>
+          <t>dworskim</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>. Oycowskiey .</t>
+          <t>tak dworskim jak</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>oycowski</t>
+          <t>dworski</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Oycowskiey</t>
+          <t>dworskie</t>
         </is>
       </c>
     </row>
@@ -4211,22 +4211,22 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>warżenia</t>
+          <t>miarkmi</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>prawo warżenia piwa</t>
+          <t>– miarkmi wianki</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>warżyć</t>
+          <t>miarka</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>warżenia</t>
+          <t>miarkmi</t>
         </is>
       </c>
     </row>
@@ -4236,22 +4236,22 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>dworskim</t>
+          <t>takiem</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>tak dworskim jak</t>
+          <t>przy takiem obciążeniu</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>dworski</t>
+          <t>taki</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>dworskie</t>
+          <t>takiem</t>
         </is>
       </c>
     </row>
@@ -4261,22 +4261,22 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>miarkmi</t>
+          <t>jurysdykcyi</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>– miarkmi wianki</t>
+          <t>urzędowa jurysdykcyi był</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>miarka</t>
+          <t>jurysdykcya</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>miarkmi</t>
+          <t>jurysdykcyi</t>
         </is>
       </c>
     </row>
@@ -4286,22 +4286,22 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>takiem</t>
+          <t>Dziedzica</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>przy takiem obciążeniu</t>
+          <t>Herb Dziedzica –</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>taki</t>
+          <t>dziedzic</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>takiem</t>
+          <t>Dziedzic</t>
         </is>
       </c>
     </row>
@@ -4311,22 +4311,22 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>jurysdykcyi</t>
+          <t>Bludniki</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>urzędowa jurysdykcyi był</t>
+          <t>Dominium Bludniki –</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>jurysdykcya</t>
+          <t>Bludniki</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>jurysdykcyi</t>
+          <t>Bludnik</t>
         </is>
       </c>
     </row>
@@ -4336,22 +4336,22 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Dziedzica</t>
+          <t>t</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Herb Dziedzica –</t>
+          <t>i t .</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>dziedzic</t>
+          <t>tym</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Dziedzic</t>
+          <t>tona</t>
         </is>
       </c>
     </row>
@@ -4361,22 +4361,22 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Bludniki</t>
+          <t>p</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Dominium Bludniki –</t>
+          <t>. p .</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Bludniki</t>
+          <t>podobne</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Bludnik</t>
+          <t>List_świętego_Piotra</t>
         </is>
       </c>
     </row>
@@ -4386,22 +4386,22 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>t</t>
+          <t>niemógł</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>i t .</t>
+          <t>Nieszlachcic niemógł kupować</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>tym</t>
+          <t>niemóc</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>tona</t>
+          <t>niemógł</t>
         </is>
       </c>
     </row>
@@ -4411,22 +4411,22 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>p</t>
+          <t>Dziedzic</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>. p .</t>
+          <t>. Dziedzic postanawiał</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>podobne</t>
+          <t>dziedzic</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>List_świętego_Piotra</t>
+          <t>Dziedzic</t>
         </is>
       </c>
     </row>
@@ -4436,22 +4436,22 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>niemógł</t>
+          <t>swojem</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Nieszlachcic niemógł kupować</t>
+          <t>na swojem mieycus</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>niemóc</t>
+          <t>swój</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>niemógł</t>
+          <t>swojem</t>
         </is>
       </c>
     </row>
@@ -4461,22 +4461,22 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Dziedzic</t>
+          <t>mieycus</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>. Dziedzic postanawiał</t>
+          <t>swojem mieycus Mandatariusza</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>dziedzic</t>
+          <t>mieysce</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>Dziedzic</t>
+          <t>mieycus</t>
         </is>
       </c>
     </row>
@@ -4486,22 +4486,22 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>swojem</t>
+          <t>Dominikalnym</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>na swojem mieycus</t>
+          <t>urzędzie Dominikalnym .</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>swój</t>
+          <t>dominikalny</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>swojem</t>
+          <t>Dominikalnym</t>
         </is>
       </c>
     </row>
@@ -4511,22 +4511,22 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>mieycus</t>
+          <t>niemogło</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>swojem mieycus Mandatariusza</t>
+          <t>– niemogło się</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>mieysce</t>
+          <t>niemóc</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>mieycus</t>
+          <t>niemogło</t>
         </is>
       </c>
     </row>
@@ -4536,22 +4536,22 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Dominikalnym</t>
+          <t>Dominii</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>urzędzie Dominikalnym .</t>
+          <t>z Dominii nieprzyniósł</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>dominikalny</t>
+          <t>dominia</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>Dominikalnym</t>
+          <t>Dominii</t>
         </is>
       </c>
     </row>
@@ -4561,22 +4561,22 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>niemogło</t>
+          <t>nieprzyniósł</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>– niemogło się</t>
+          <t>Dominii nieprzyniósł kartki</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>niemóc</t>
+          <t>nieprzynieść</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>niemogło</t>
+          <t>nieprzyniósł</t>
         </is>
       </c>
     </row>
@@ -4586,22 +4586,22 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Dominii</t>
+          <t>Pan</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>z Dominii nieprzyniósł</t>
+          <t>bo Pan we</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>dominia</t>
+          <t>pan</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>Dominii</t>
+          <t>Pan</t>
         </is>
       </c>
     </row>
@@ -4611,22 +4611,22 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>nieprzyniósł</t>
+          <t>P</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>Dominii nieprzyniósł kartki</t>
+          <t>domu P .</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>nieprzynieść</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>nieprzyniósł</t>
+          <t>List_świętego_Piotra</t>
         </is>
       </c>
     </row>
@@ -4636,22 +4636,22 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Pan</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>bo Pan we</t>
+          <t>. T Dziadek</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>pan</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>Pan</t>
+          <t>tona</t>
         </is>
       </c>
     </row>
@@ -4661,22 +4661,22 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>Dziadek</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>domu P .</t>
+          <t>T Dziadek móy</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>dziadek</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>List_świętego_Piotra</t>
+          <t>Dziadek</t>
         </is>
       </c>
     </row>
@@ -4686,22 +4686,22 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>Pana</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>. T Dziadek</t>
+          <t>noga Pana tego</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>pan</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>tona</t>
+          <t>Pan</t>
         </is>
       </c>
     </row>
@@ -4711,22 +4711,22 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Dziadek</t>
+          <t>Mandatariaty</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>T Dziadek móy</t>
+          <t>. Mandatariaty po</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>dziadek</t>
+          <t>mandatariat</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Dziadek</t>
+          <t>Mandatariaty</t>
         </is>
       </c>
     </row>
@@ -4736,22 +4736,22 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Pana</t>
+          <t>ludowemi</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>noga Pana tego</t>
+          <t>dziś ludowemi zwanych</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>pan</t>
+          <t>ludowe</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Pan</t>
+          <t>ludowemi</t>
         </is>
       </c>
     </row>
@@ -4761,22 +4761,22 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Mandatariaty</t>
+          <t>mandataryusza</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>. Mandatariaty po</t>
+          <t>do mandataryusza –</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>mandatariat</t>
+          <t>mandataryusz</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Mandatariaty</t>
+          <t>mandataryusza</t>
         </is>
       </c>
     </row>
@@ -4786,22 +4786,22 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>ludowemi</t>
+          <t>manipulacyi</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>dziś ludowemi zwanych</t>
+          <t>– manipulacyi urzędowey</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>ludowe</t>
+          <t>manipulacya</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>ludowemi</t>
+          <t>manipulacyi</t>
         </is>
       </c>
     </row>
@@ -4811,22 +4811,22 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>mandataryusza</t>
+          <t>urzędowey</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>do mandataryusza –</t>
+          <t>manipulacyi urzędowey –</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>mandataryusz</t>
+          <t>urzędowa</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>mandataryusza</t>
+          <t>urzędowey</t>
         </is>
       </c>
     </row>
@@ -4836,22 +4836,22 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>manipulacyi</t>
+          <t>Domnikalnego</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>– manipulacyi urzędowey</t>
+          <t>reprezentanta Domnikalnego czyli</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>manipulacya</t>
+          <t>domnikalny</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>manipulacyi</t>
+          <t>Domnikalnego</t>
         </is>
       </c>
     </row>
@@ -4861,22 +4861,22 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>urzędowey</t>
+          <t>Mandataryusza</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>manipulacyi urzędowey –</t>
+          <t>czyli Mandataryusza .</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>urzędowa</t>
+          <t>mandataryusz</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>urzędowey</t>
+          <t>Mandataryusza</t>
         </is>
       </c>
     </row>
@@ -4886,22 +4886,22 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Domnikalnego</t>
+          <t>Mandatyrusza</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>reprezentanta Domnikalnego czyli</t>
+          <t>. Mandatyrusza przyjmował</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>domnikalny</t>
+          <t>mandatyrusz</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>Domnikalnego</t>
+          <t>Mandatyrusza</t>
         </is>
       </c>
     </row>
@@ -4911,22 +4911,22 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Mandataryusza</t>
+          <t>Dziedzic</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>czyli Mandataryusza .</t>
+          <t>przyjmował Dziedzic na</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>mandataryusz</t>
+          <t>dziedzic</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>Mandataryusza</t>
+          <t>Dziedzic</t>
         </is>
       </c>
     </row>
@@ -4936,22 +4936,22 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Mandatyrusza</t>
+          <t>depozyta</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>. Mandatyrusza przyjmował</t>
+          <t>i depozyta starościńskie</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>mandatyrusz</t>
+          <t>depozyt</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>Mandatyrusza</t>
+          <t>depozyta</t>
         </is>
       </c>
     </row>
@@ -4961,22 +4961,22 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Dziedzic</t>
+          <t>Mandataryusz</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>przyjmował Dziedzic na</t>
+          <t>. Mandataryusz pobierał</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>dziedzic</t>
+          <t>mandataryusz</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Dziedzic</t>
+          <t>Mandataryusz</t>
         </is>
       </c>
     </row>
@@ -4986,22 +4986,22 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>depozyta</t>
+          <t>Dziedzica</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>i depozyta starościńskie</t>
+          <t>od Dziedzica pensyę</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>depozyt</t>
+          <t>dziedzic</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>depozyta</t>
+          <t>Dziedzic</t>
         </is>
       </c>
     </row>
@@ -5011,22 +5011,22 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Mandataryusz</t>
+          <t>pensyę</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>. Mandataryusz pobierał</t>
+          <t>Dziedzica pensyę od</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>mandataryusz</t>
+          <t>pensya</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>Mandataryusz</t>
+          <t>pensyę</t>
         </is>
       </c>
     </row>
@@ -5036,22 +5036,22 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Dziedzica</t>
+          <t>ordynaryi</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>od Dziedzica pensyę</t>
+          <t>korcy ordynaryi –</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>dziedzic</t>
+          <t>ordynarya</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Dziedzic</t>
+          <t>ordynaryi</t>
         </is>
       </c>
     </row>
@@ -5061,22 +5061,22 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>pensyę</t>
+          <t>Dziedzica</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>Dziedzica pensyę od</t>
+          <t>zastępował Dziedzica .</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>pensya</t>
+          <t>dziedzic</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>pensyę</t>
+          <t>Dziedzic</t>
         </is>
       </c>
     </row>
@@ -5086,22 +5086,22 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>ordynaryi</t>
+          <t>szczupłey</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>korcy ordynaryi –</t>
+          <t>tak szczupłey dotacyi</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>ordynarya</t>
+          <t>szczupła</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>ordynaryi</t>
+          <t>szczupłey</t>
         </is>
       </c>
     </row>
@@ -5111,22 +5111,22 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Dziedzica</t>
+          <t>dotacyi</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>zastępował Dziedzica .</t>
+          <t>szczupłey dotacyi uwzględniając</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>dziedzic</t>
+          <t>dotacya</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>Dziedzic</t>
+          <t>dotacyi</t>
         </is>
       </c>
     </row>
@@ -5136,22 +5136,22 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>szczupłey</t>
+          <t>cwansigera</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>tak szczupłey dotacyi</t>
+          <t>owsa cwansigera –</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>szczupła</t>
+          <t>cwansiger</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>szczupłey</t>
+          <t>cwansigera</t>
         </is>
       </c>
     </row>
@@ -5161,22 +5161,22 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>dotacyi</t>
+          <t>mając</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>szczupłey dotacyi uwzględniając</t>
+          <t>– mając przytem</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>dotacya</t>
+          <t>mieć</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>dotacyi</t>
+          <t>maić</t>
         </is>
       </c>
     </row>
@@ -5186,22 +5186,22 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>cwansigera</t>
+          <t>przytem</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>owsa cwansigera –</t>
+          <t>mając przytem jakiś</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>cwansiger</t>
+          <t>przyto</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>cwansigera</t>
+          <t>przytem</t>
         </is>
       </c>
     </row>
@@ -5211,22 +5211,22 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>mając</t>
+          <t>Panowie</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>– mając przytem</t>
+          <t>obrywki Panowie ci</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>mieć</t>
+          <t>pan</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>maić</t>
+          <t>Pan</t>
         </is>
       </c>
     </row>
@@ -5236,22 +5236,22 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>przytem</t>
+          <t>lepiey</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>mając przytem jakiś</t>
+          <t>nieraz lepiey jak</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>przyto</t>
+          <t>dobrze</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>przytem</t>
+          <t>lepiey</t>
         </is>
       </c>
     </row>
@@ -5261,12 +5261,12 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Panowie</t>
+          <t>Panom</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>obrywki Panowie ci</t>
+          <t>i Panom Urzędnikom</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
@@ -5286,22 +5286,22 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>lepiey</t>
+          <t>ładąn</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>nieraz lepiey jak</t>
+          <t>– ładąn parą</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>dobrze</t>
+          <t>ładna</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>lepiey</t>
+          <t>ładąn</t>
         </is>
       </c>
     </row>
@@ -5311,22 +5311,22 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Panom</t>
+          <t>Dziad</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>i Panom Urzędnikom</t>
+          <t>móy Dziad podbierając</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>pan</t>
+          <t>dziad</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>Pan</t>
+          <t>Dziad</t>
         </is>
       </c>
     </row>
@@ -5336,22 +5336,22 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>ładąn</t>
+          <t>Bludnikach</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>– ładąn parą</t>
+          <t>w Bludnikach –</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>ładna</t>
+          <t>Bludniki</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>ładąn</t>
+          <t>Bludnik</t>
         </is>
       </c>
     </row>
@@ -5361,22 +5361,22 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Dziad</t>
+          <t>Bludnik</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>móy Dziad podbierając</t>
+          <t>do Bludnik należały</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>dziad</t>
+          <t>Bludniki</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>Dziad</t>
+          <t>Bludnik</t>
         </is>
       </c>
     </row>
@@ -5386,22 +5386,22 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Bludnikach</t>
+          <t>Siedliska</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>w Bludnikach –</t>
+          <t>i Siedliska –</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>Bludniki</t>
+          <t>Siedliska</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>Bludnik</t>
+          <t>siedliski</t>
         </is>
       </c>
     </row>
@@ -5411,22 +5411,22 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Bludnik</t>
+          <t>Dziedzica</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>do Bludnik należały</t>
+          <t>nowego Dziedzica –</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>Bludniki</t>
+          <t>dziedzic</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>Bludnik</t>
+          <t>Dziedzic</t>
         </is>
       </c>
     </row>
@@ -5436,22 +5436,22 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Siedliska</t>
+          <t>rantuchem</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>i Siedliska –</t>
+          <t>długim rantuchem –</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>Siedliska</t>
+          <t>rantuch</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>siedliski</t>
+          <t>rantuchem</t>
         </is>
       </c>
     </row>
@@ -5461,22 +5461,22 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Dziedzica</t>
+          <t>grube</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>nowego Dziedzica –</t>
+          <t>bielone grube po</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>dziedzic</t>
+          <t>gruby</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>Dziedzic</t>
+          <t>grube</t>
         </is>
       </c>
     </row>
@@ -5486,22 +5486,22 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>rantuchem</t>
+          <t>zkończone</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>długim rantuchem –</t>
+          <t>białą zkończone )</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>rantuch</t>
+          <t>zkończyć</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>rantuchem</t>
+          <t>zkończone</t>
         </is>
       </c>
     </row>
@@ -5511,22 +5511,22 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>grube</t>
+          <t>niewiem</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>bielone grube po</t>
+          <t>– niewiem czy</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>gruby</t>
+          <t>niewiem</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>grube</t>
+          <t>Niewiem</t>
         </is>
       </c>
     </row>
@@ -5536,22 +5536,22 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>zkończone</t>
+          <t>Dziedzicowi</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>białą zkończone )</t>
+          <t>Panu Dziedzicowi chodzi</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>zkończyć</t>
+          <t>dziedzic</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>zkończone</t>
+          <t>Dziedzic</t>
         </is>
       </c>
     </row>
@@ -5561,22 +5561,22 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>niewiem</t>
+          <t>Dziadek</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>– niewiem czy</t>
+          <t>. Dziadek móy</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>niewiem</t>
+          <t>dziadek</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>Niewiem</t>
+          <t>Dziadek</t>
         </is>
       </c>
     </row>
@@ -5586,22 +5586,22 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Dziedzicowi</t>
+          <t>człowiecze</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>Panu Dziedzicowi chodzi</t>
+          <t>Ty człowiecze na</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>dziedzic</t>
+          <t>człowiek</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>Dziedzic</t>
+          <t>człowieczy</t>
         </is>
       </c>
     </row>
@@ -5611,22 +5611,22 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Dziadek</t>
+          <t>nieporadzisz</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>. Dziadek móy</t>
+          <t>mi nieporadzisz –</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>dziadek</t>
+          <t>nieporadzić</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>Dziadek</t>
+          <t>niePoradzisz</t>
         </is>
       </c>
     </row>
@@ -5636,22 +5636,22 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>człowiecze</t>
+          <t>Dziadek</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>Ty człowiecze na</t>
+          <t>mu Dziadek potrzebuję</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>człowiek</t>
+          <t>dziadek</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>człowieczy</t>
+          <t>Dziadek</t>
         </is>
       </c>
     </row>
@@ -5661,22 +5661,22 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>nieporadzisz</t>
+          <t>Dukatów</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>mi nieporadzisz –</t>
+          <t>2000 Dukatów –</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>nieporadzić</t>
+          <t>dukat</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>niePoradzisz</t>
+          <t>Dukat</t>
         </is>
       </c>
     </row>
@@ -5686,22 +5686,22 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Dziadek</t>
+          <t>Dziedzic</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>mu Dziadek potrzebuję</t>
+          <t>żeby Dziedzic przyjął</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>dziadek</t>
+          <t>dziedzic</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>Dziadek</t>
+          <t>Dziedzic</t>
         </is>
       </c>
     </row>
@@ -5711,22 +5711,22 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Dukatów</t>
+          <t>mojey</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>2000 Dukatów –</t>
+          <t>za mojey pamięci</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>dukat</t>
+          <t>mój</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>Dukat</t>
+          <t>mojey</t>
         </is>
       </c>
     </row>
@@ -5736,22 +5736,22 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Dziedzic</t>
+          <t>Bludnikach</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>żeby Dziedzic przyjął</t>
+          <t>w Bludnikach .</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>dziedzic</t>
+          <t>Bludniki</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>Dziedzic</t>
+          <t>Bludnik</t>
         </is>
       </c>
     </row>
@@ -5761,22 +5761,22 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>mojey</t>
+          <t>owe</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>za mojey pamięci</t>
+          <t>w owe czasy</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>mój</t>
+          <t>ów</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>mojey</t>
+          <t>ow</t>
         </is>
       </c>
     </row>
@@ -5786,22 +5786,22 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Bludnikach</t>
+          <t>Pan</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>w Bludnikach .</t>
+          <t>był Pan Witwicki</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>Bludniki</t>
+          <t>pan</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>Bludnik</t>
+          <t>Pan</t>
         </is>
       </c>
     </row>
@@ -5811,22 +5811,22 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>owe</t>
+          <t>jaszcze</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>w owe czasy</t>
+          <t>był jaszcze tam</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>ów</t>
+          <t>jaszcze</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>ow</t>
+          <t>jaszcz</t>
         </is>
       </c>
     </row>
@@ -5836,22 +5836,22 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Pan</t>
+          <t>Proboszczem</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>był Pan Witwicki</t>
+          <t>. Proboszczem był</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>pan</t>
+          <t>proboszcz</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>Pan</t>
+          <t>Proboszcz</t>
         </is>
       </c>
     </row>
@@ -5861,22 +5861,22 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>jaszcze</t>
+          <t>Głoweckiego</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>był jaszcze tam</t>
+          <t>owego Głoweckiego –</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>jaszcze</t>
+          <t>Głowecki</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>jaszcz</t>
+          <t>Głoweckiego</t>
         </is>
       </c>
     </row>
@@ -5886,22 +5886,22 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Proboszczem</t>
+          <t>późney</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>. Proboszczem był</t>
+          <t>tak późney dokupił</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>proboszcz</t>
+          <t>późno</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>Proboszcz</t>
+          <t>późney</t>
         </is>
       </c>
     </row>
@@ -5911,22 +5911,22 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Głoweckiego</t>
+          <t>Dziad</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>owego Głoweckiego –</t>
+          <t>dokupił Dziad móy</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>Głowecki</t>
+          <t>dziad</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>Głoweckiego</t>
+          <t>Dziad</t>
         </is>
       </c>
     </row>
@@ -5936,22 +5936,22 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>późney</t>
+          <t>Dochorowie</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>tak późney dokupił</t>
+          <t>W Dochorowie osadził</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>późno</t>
+          <t>Dochorów</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>późney</t>
+          <t>Dochorowie</t>
         </is>
       </c>
     </row>
@@ -5961,22 +5961,22 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Dziad</t>
+          <t>nayjstarszego</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>dokupił Dziad móy</t>
+          <t>osadził nayjstarszego syna</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>dziad</t>
+          <t>stary</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>Dziad</t>
+          <t>nayjstarszego</t>
         </is>
       </c>
     </row>
@@ -5986,22 +5986,22 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Dochorowie</t>
+          <t>Toje</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>W Dochorowie osadził</t>
+          <t>– Toje diło</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>Dochorów</t>
+          <t>toje</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>Dochorowie</t>
+          <t>Toje</t>
         </is>
       </c>
     </row>
@@ -6011,22 +6011,22 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>nayjstarszego</t>
+          <t>Mychayłowu</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>osadził nayjstarszego syna</t>
+          <t>mojomu Mychayłowu .</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>stary</t>
+          <t>mychayłowu</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>nayjstarszego</t>
+          <t>Mychayłowu</t>
         </is>
       </c>
     </row>
@@ -6036,22 +6036,22 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Toje</t>
+          <t>Bludniki</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>– Toje diło</t>
+          <t>. Bludniki oddał</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>toje</t>
+          <t>Bludniki</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>Toje</t>
+          <t>Bludnik</t>
         </is>
       </c>
     </row>
@@ -6061,22 +6061,22 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Mychayłowu</t>
+          <t>iOycu</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>mojomu Mychayłowu .</t>
+          <t>Józefowi iOycu mojemu</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>mychayłowu</t>
+          <t>ioyciec</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>Mychayłowu</t>
+          <t>iOycu</t>
         </is>
       </c>
     </row>
@@ -6086,22 +6086,22 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Bludniki</t>
+          <t>Pan</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>. Bludniki oddał</t>
+          <t>. Pan Józef</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>Bludniki</t>
+          <t>pan</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>Bludnik</t>
+          <t>Pan</t>
         </is>
       </c>
     </row>
@@ -6111,22 +6111,22 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>iOycu</t>
+          <t>Oyciec</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>Józefowi iOycu mojemu</t>
+          <t>– Oyciec móy</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>ioyciec</t>
+          <t>oyciec</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>iOycu</t>
+          <t>Oyciec</t>
         </is>
       </c>
     </row>
@@ -6136,22 +6136,22 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Pan</t>
+          <t>Oyca</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>. Pan Józef</t>
+          <t>mojego Oyca pono</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>pan</t>
+          <t>oyca</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>Pan</t>
+          <t>Oyca</t>
         </is>
       </c>
     </row>
@@ -6161,22 +6161,22 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Oyciec</t>
+          <t>Pana</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>– Oyciec móy</t>
+          <t>– Pana Józefa</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>oyciec</t>
+          <t>pan</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>Oyciec</t>
+          <t>Pan</t>
         </is>
       </c>
     </row>
@@ -6186,22 +6186,22 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Oyca</t>
+          <t>Dziadek</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>mojego Oyca pono</t>
+          <t>wziął Dziadek móy</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>oyca</t>
+          <t>dziadek</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>Oyca</t>
+          <t>Dziadek</t>
         </is>
       </c>
     </row>
@@ -6211,22 +6211,22 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Pana</t>
+          <t>Siemginowa</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>– Pana Józefa</t>
+          <t>do Siemginowa –</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>pan</t>
+          <t>Siemginów</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>Pan</t>
+          <t>Siemginowa</t>
         </is>
       </c>
     </row>
@@ -6236,22 +6236,22 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Dziadek</t>
+          <t>dośmierci</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>wziął Dziadek móy</t>
+          <t>aż dośmierci Oyca</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>dziadek</t>
+          <t>dośmierć</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>Dziadek</t>
+          <t>dośmierci</t>
         </is>
       </c>
     </row>
@@ -6261,22 +6261,22 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Siemginowa</t>
+          <t>Oyca</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>do Siemginowa –</t>
+          <t>dośmierci Oyca przy</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>Siemginów</t>
+          <t>oyciec</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>Siemginowa</t>
+          <t>Oyca</t>
         </is>
       </c>
     </row>
@@ -6286,22 +6286,22 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>dośmierci</t>
+          <t>Dziadek</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>aż dośmierci Oyca</t>
+          <t>bo Dziadek móy</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>dośmierć</t>
+          <t>dziadek</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>dośmierci</t>
+          <t>Dziadek</t>
         </is>
       </c>
     </row>
@@ -6311,22 +6311,22 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Oyca</t>
+          <t>Doktor</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>dośmierci Oyca przy</t>
+          <t>kataraktę Doktor Słowikowski</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>oyciec</t>
+          <t>doktor</t>
         </is>
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>Oyca</t>
+          <t>Doktor</t>
         </is>
       </c>
     </row>
@@ -6341,7 +6341,7 @@
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>bo Dziadek móy</t>
+          <t>. Dziadek umarł</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
@@ -6361,22 +6361,22 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Doktor</t>
+          <t>Pan</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>kataraktę Doktor Słowikowski</t>
+          <t>a Pan Józef</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>doktor</t>
+          <t>pan</t>
         </is>
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>Doktor</t>
+          <t>Pan</t>
         </is>
       </c>
     </row>
@@ -6386,22 +6386,22 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Dziadek</t>
+          <t>Oyciec</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>. Dziadek umarł</t>
+          <t>wydzielił Oyciec schedę</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>dziadek</t>
+          <t>oyciec</t>
         </is>
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>Dziadek</t>
+          <t>Oyciec</t>
         </is>
       </c>
     </row>
@@ -6411,22 +6411,22 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Pan</t>
+          <t>niewinem</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>a Pan Józef</t>
+          <t>Lipa niewinem .</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>pan</t>
+          <t>niewiedzieć</t>
         </is>
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>Pan</t>
+          <t>Niewino</t>
         </is>
       </c>
     </row>
@@ -6436,22 +6436,22 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Oyciec</t>
+          <t>Pan</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>wydzielił Oyciec schedę</t>
+          <t>. Pan Michał</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>oyciec</t>
+          <t>pan</t>
         </is>
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>Oyciec</t>
+          <t>Pan</t>
         </is>
       </c>
     </row>
@@ -6461,22 +6461,22 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>niewinem</t>
+          <t>Bludnikami</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>Lipa niewinem .</t>
+          <t>z Bludnikami o</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>niewiedzieć</t>
+          <t>Bludniki</t>
         </is>
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>Niewino</t>
+          <t>Bludnik</t>
         </is>
       </c>
     </row>
@@ -6486,22 +6486,22 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>Pan</t>
+          <t>Temerowiec</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>. Pan Michał</t>
+          <t>z Temerowiec ,</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>pan</t>
+          <t>Temerowice</t>
         </is>
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>Pan</t>
+          <t>Temerowiec</t>
         </is>
       </c>
     </row>
@@ -6511,22 +6511,22 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>Bludnikami</t>
+          <t>Stanisława</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>z Bludnikami o</t>
+          <t>i Stanisława Zabilskich</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>Bludniki</t>
+          <t>Stanisław</t>
         </is>
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>Bludnik</t>
+          <t>Stanisława</t>
         </is>
       </c>
     </row>
@@ -6536,22 +6536,22 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>Temerowiec</t>
+          <t>Oyciec</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>z Temerowiec ,</t>
+          <t>go Oyciec odumarł</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>Temerowice</t>
+          <t>oyciec</t>
         </is>
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>Temerowiec</t>
+          <t>Oyciec</t>
         </is>
       </c>
     </row>
@@ -6561,22 +6561,22 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>Stanisława</t>
+          <t>Oycem</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>i Stanisława Zabilskich</t>
+          <t>za Oycem doszedłszy</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>Stanisław</t>
+          <t>oyciec</t>
         </is>
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>Stanisława</t>
+          <t>Oycem</t>
         </is>
       </c>
     </row>
@@ -6586,22 +6586,22 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>Oyciec</t>
+          <t>Majątek</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>go Oyciec odumarł</t>
+          <t>. Majątek prawem</t>
         </is>
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>oyciec</t>
+          <t>majątek</t>
         </is>
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>Oyciec</t>
+          <t>Majątek</t>
         </is>
       </c>
     </row>
@@ -6611,22 +6611,22 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>Oycem</t>
+          <t>sukcessyi</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>za Oycem doszedłszy</t>
+          <t>prawem sukcessyi przeszedł</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>oyciec</t>
+          <t>sukcessya</t>
         </is>
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>Oycem</t>
+          <t>sukcessyi</t>
         </is>
       </c>
     </row>
@@ -6636,22 +6636,22 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>Majątek</t>
+          <t>Pan</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>. Majątek prawem</t>
+          <t>– Pan Kazimierz</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>majątek</t>
+          <t>pan</t>
         </is>
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>Majątek</t>
+          <t>Pan</t>
         </is>
       </c>
     </row>
@@ -6661,22 +6661,22 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>sukcessyi</t>
+          <t>niebył</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>prawem sukcessyi przeszedł</t>
+          <t>– niebył gospodarzem</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>sukcessya</t>
+          <t>niebyć</t>
         </is>
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>sukcessyi</t>
+          <t>Niebyła</t>
         </is>
       </c>
     </row>
@@ -6686,22 +6686,22 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>Pan</t>
+          <t>więcey</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>– Pan Kazimierz</t>
+          <t>gospodarzem więcey fantasta</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>pan</t>
+          <t>dużo</t>
         </is>
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>Pan</t>
+          <t>więcey</t>
         </is>
       </c>
     </row>
@@ -6711,22 +6711,22 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>niebył</t>
+          <t>Pana</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>– niebył gospodarzem</t>
+          <t>„ Pana Tadeusza</t>
         </is>
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>niebyć</t>
+          <t>pan</t>
         </is>
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>Niebyła</t>
+          <t>Pan</t>
         </is>
       </c>
     </row>
@@ -6736,22 +6736,22 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>więcey</t>
+          <t>gołey</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>gospodarzem więcey fantasta</t>
+          <t>na gołey podłodze</t>
         </is>
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>dużo</t>
+          <t>goła</t>
         </is>
       </c>
       <c r="E253" t="inlineStr">
         <is>
-          <t>więcey</t>
+          <t>gołey</t>
         </is>
       </c>
     </row>
@@ -6761,22 +6761,22 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>Pana</t>
+          <t>niemogli</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>„ Pana Tadeusza</t>
+          <t>ci niemogli długo</t>
         </is>
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>pan</t>
+          <t>niemóc</t>
         </is>
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>Pan</t>
+          <t>niemogel</t>
         </is>
       </c>
     </row>
@@ -6786,22 +6786,22 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>gołey</t>
+          <t>nietylko</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>na gołey podłodze</t>
+          <t>– nietylko czeladź</t>
         </is>
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>goła</t>
+          <t>nietylko</t>
         </is>
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>gołey</t>
+          <t>nieTylko</t>
         </is>
       </c>
     </row>
@@ -6811,22 +6811,22 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>niemogli</t>
+          <t>obeyściu</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>ci niemogli długo</t>
+          <t>na obeyściu niemożna</t>
         </is>
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>niemóc</t>
+          <t>obeyście</t>
         </is>
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>niemogel</t>
+          <t>obeyściu</t>
         </is>
       </c>
     </row>
@@ -6836,22 +6836,22 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>nietylko</t>
+          <t>niemożna</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>– nietylko czeladź</t>
+          <t>obeyściu niemożna było</t>
         </is>
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>nietylko</t>
+          <t>niemóc</t>
         </is>
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>nieTylko</t>
+          <t>niemożny</t>
         </is>
       </c>
     </row>
@@ -6861,22 +6861,22 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>obeyściu</t>
+          <t>klęczącym</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>na obeyściu niemożna</t>
+          <t>służba klęczącym ze</t>
         </is>
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>obeyście</t>
+          <t>klęczeć</t>
         </is>
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>obeyściu</t>
+          <t>klęczący</t>
         </is>
       </c>
     </row>
@@ -6886,22 +6886,22 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>niemożna</t>
+          <t>Sukcesya</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>obeyściu niemożna było</t>
+          <t>. Sukcesya po</t>
         </is>
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>niemóc</t>
+          <t>sukcesya</t>
         </is>
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>niemożny</t>
+          <t>Sukcesya</t>
         </is>
       </c>
     </row>
@@ -6911,22 +6911,22 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>klęczącym</t>
+          <t>Oyca</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>służba klęczącym ze</t>
+          <t>mojego Oyca spadała</t>
         </is>
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>klęczeć</t>
+          <t>oyciec</t>
         </is>
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>klęczący</t>
+          <t>Oyca</t>
         </is>
       </c>
     </row>
@@ -6936,22 +6936,22 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>Sukcesya</t>
+          <t>Treterowej</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>. Sukcesya po</t>
+          <t>rodzonym Treterowej i</t>
         </is>
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>sukcesya</t>
+          <t>Treterowa</t>
         </is>
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>Sukcesya</t>
+          <t>Treterowej</t>
         </is>
       </c>
     </row>
@@ -6961,22 +6961,22 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>Oyca</t>
+          <t>Swieżaskiey</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>mojego Oyca spadała</t>
+          <t>i Swieżaskiey .</t>
         </is>
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>oyciec</t>
+          <t>Swieżaska</t>
         </is>
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>Oyca</t>
+          <t>Swieżaskiey</t>
         </is>
       </c>
     </row>
@@ -6986,22 +6986,22 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>Treterowej</t>
+          <t>Pan</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>rodzonym Treterowej i</t>
+          <t>. Pan Józef</t>
         </is>
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>Treterowa</t>
+          <t>pan</t>
         </is>
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>Treterowej</t>
+          <t>Pan</t>
         </is>
       </c>
     </row>
@@ -7011,22 +7011,22 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>Swieżaskiey</t>
+          <t>Oyca</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>i Swieżaskiey .</t>
+          <t>śmierci Oyca z</t>
         </is>
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>Swieżaska</t>
+          <t>oyca</t>
         </is>
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>Swieżaskiey</t>
+          <t>Oyca</t>
         </is>
       </c>
     </row>
@@ -7036,22 +7036,22 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>Pan</t>
+          <t>Panną</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>. Pan Józef</t>
+          <t>z Panną Julią</t>
         </is>
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>pan</t>
+          <t>panna</t>
         </is>
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>Pan</t>
+          <t>Panna</t>
         </is>
       </c>
     </row>
@@ -7061,22 +7061,22 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>Oyca</t>
+          <t>Stryiskim</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>śmierci Oyca z</t>
+          <t>w Stryiskim w</t>
         </is>
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>oyca</t>
+          <t>Stryiskie</t>
         </is>
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>Oyca</t>
+          <t>Stryiskim</t>
         </is>
       </c>
     </row>
@@ -7086,22 +7086,22 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>Panną</t>
+          <t>Kruszelnicę</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>z Panną Julią</t>
+          <t>czy Kruszelnicę –</t>
         </is>
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>panna</t>
+          <t>Kruszelnica</t>
         </is>
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>Panna</t>
+          <t>Kruszelnicę</t>
         </is>
       </c>
     </row>
@@ -7111,22 +7111,22 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>Stryiskim</t>
+          <t>generacyi</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>w Stryiskim w</t>
+          <t>kilka generacyi na</t>
         </is>
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>Stryiskie</t>
+          <t>generacya</t>
         </is>
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>Stryiskim</t>
+          <t>generacyi</t>
         </is>
       </c>
     </row>
@@ -7136,22 +7136,22 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>Kruszelnicę</t>
+          <t>obeyściu</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>czy Kruszelnicę –</t>
+          <t>jednem obeyściu było</t>
         </is>
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>Kruszelnica</t>
+          <t>obeyście</t>
         </is>
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>Kruszelnicę</t>
+          <t>obeyściu</t>
         </is>
       </c>
     </row>
@@ -7161,22 +7161,22 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>generacyi</t>
+          <t>Panny</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>kilka generacyi na</t>
+          <t>2 Panny niemając</t>
         </is>
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>generacya</t>
+          <t>panna</t>
         </is>
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>generacyi</t>
+          <t>Panna</t>
         </is>
       </c>
     </row>
@@ -7186,22 +7186,22 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>obeyściu</t>
+          <t>niemając</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>jednem obeyściu było</t>
+          <t>Panny niemając widoków</t>
         </is>
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>obeyście</t>
+          <t>niemieć</t>
         </is>
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>obeyściu</t>
+          <t>niemając</t>
         </is>
       </c>
     </row>
@@ -7211,12 +7211,12 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>Panny</t>
+          <t>Panna</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>2 Panny niemając</t>
+          <t>fatum Panna Julia</t>
         </is>
       </c>
       <c r="D272" t="inlineStr">
@@ -7236,22 +7236,22 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>niemając</t>
+          <t>Bludnik</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>Panny niemając widoków</t>
+          <t>sąsiedztwo Bludnik do</t>
         </is>
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>niemieć</t>
+          <t>Bludniki</t>
         </is>
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>niemając</t>
+          <t>Bludnik</t>
         </is>
       </c>
     </row>
@@ -7261,22 +7261,22 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>Panna</t>
+          <t>Rudzkich</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>fatum Panna Julia</t>
+          <t>Państwa Rudzkich gdzie</t>
         </is>
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>panna</t>
+          <t>Rudzki</t>
         </is>
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>Panna</t>
+          <t>rudzki</t>
         </is>
       </c>
     </row>
@@ -7286,22 +7286,22 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>Bludnik</t>
+          <t>Pan</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>sąsiedztwo Bludnik do</t>
+          <t>. Pan Józef</t>
         </is>
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>Bludniki</t>
+          <t>pan</t>
         </is>
       </c>
       <c r="E275" t="inlineStr">
         <is>
-          <t>Bludnik</t>
+          <t>Pan</t>
         </is>
       </c>
     </row>
@@ -7311,22 +7311,22 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>Rudzkich</t>
+          <t>Siemiginowie</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>Państwa Rudzkich gdzie</t>
+          <t>na Siemiginowie już</t>
         </is>
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>Rudzki</t>
+          <t>Siemiginów</t>
         </is>
       </c>
       <c r="E276" t="inlineStr">
         <is>
-          <t>rudzki</t>
+          <t>Siemiginowie</t>
         </is>
       </c>
     </row>
@@ -7336,22 +7336,22 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>Pan</t>
+          <t>Panny</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>. Pan Józef</t>
+          <t>krewni Panny Juli</t>
         </is>
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>pan</t>
+          <t>panna</t>
         </is>
       </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>Pan</t>
+          <t>Panna</t>
         </is>
       </c>
     </row>
@@ -7361,22 +7361,22 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>Siemiginowie</t>
+          <t>Pan</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>na Siemiginowie już</t>
+          <t>że Pan Józef</t>
         </is>
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>Siemiginów</t>
+          <t>pan</t>
         </is>
       </c>
       <c r="E278" t="inlineStr">
         <is>
-          <t>Siemiginowie</t>
+          <t>Pan</t>
         </is>
       </c>
     </row>
@@ -7386,22 +7386,22 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>Panny</t>
+          <t>niema</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>krewni Panny Juli</t>
+          <t>że niema sukcessorów</t>
         </is>
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>panna</t>
+          <t>niemieć</t>
         </is>
       </c>
       <c r="E279" t="inlineStr">
         <is>
-          <t>Panna</t>
+          <t>niema</t>
         </is>
       </c>
     </row>
@@ -7411,22 +7411,22 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>Pan</t>
+          <t>sukcessorów</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>że Pan Józef</t>
+          <t>niema sukcessorów ,</t>
         </is>
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>pan</t>
+          <t>sukcessor</t>
         </is>
       </c>
       <c r="E280" t="inlineStr">
         <is>
-          <t>Pan</t>
+          <t>sukcessorów</t>
         </is>
       </c>
     </row>
@@ -7436,22 +7436,22 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>niema</t>
+          <t>Kruszelnicy</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>że niema sukcessorów</t>
+          <t>do Kruszelnicy o</t>
         </is>
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>niemieć</t>
+          <t>Kruszelnica</t>
         </is>
       </c>
       <c r="E281" t="inlineStr">
         <is>
-          <t>niema</t>
+          <t>Kruszelnicy</t>
         </is>
       </c>
     </row>
@@ -7461,22 +7461,22 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>sukcessorów</t>
+          <t>odległey</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>niema sukcessorów ,</t>
+          <t>mil odległey od</t>
         </is>
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>sukcessor</t>
+          <t>odległa</t>
         </is>
       </c>
       <c r="E282" t="inlineStr">
         <is>
-          <t>sukcessorów</t>
+          <t>odległey</t>
         </is>
       </c>
     </row>
@@ -7486,22 +7486,22 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>Kruszelnicy</t>
+          <t>Siemignowa</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>do Kruszelnicy o</t>
+          <t>od Siemignowa –</t>
         </is>
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>Kruszelnica</t>
+          <t>Siemignów</t>
         </is>
       </c>
       <c r="E283" t="inlineStr">
         <is>
-          <t>Kruszelnicy</t>
+          <t>Siemignowa</t>
         </is>
       </c>
     </row>
@@ -7511,22 +7511,22 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>odległey</t>
+          <t>łania</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>mil odległey od</t>
+          <t>jak łania Panna</t>
         </is>
       </c>
       <c r="D284" t="inlineStr">
         <is>
-          <t>odległa</t>
+          <t>łania</t>
         </is>
       </c>
       <c r="E284" t="inlineStr">
         <is>
-          <t>odległey</t>
+          <t>łani</t>
         </is>
       </c>
     </row>
@@ -7536,22 +7536,22 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>Siemignowa</t>
+          <t>Panna</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>od Siemignowa –</t>
+          <t>łania Panna Julia</t>
         </is>
       </c>
       <c r="D285" t="inlineStr">
         <is>
-          <t>Siemignów</t>
+          <t>panna</t>
         </is>
       </c>
       <c r="E285" t="inlineStr">
         <is>
-          <t>Siemignowa</t>
+          <t>Panna</t>
         </is>
       </c>
     </row>
@@ -7561,22 +7561,22 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>łania</t>
+          <t>Siemiginowa</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>jak łania Panna</t>
+          <t>sukcessorka Siemiginowa –</t>
         </is>
       </c>
       <c r="D286" t="inlineStr">
         <is>
-          <t>łania</t>
+          <t>Siemiginów</t>
         </is>
       </c>
       <c r="E286" t="inlineStr">
         <is>
-          <t>łani</t>
+          <t>Siemiginowa</t>
         </is>
       </c>
     </row>
@@ -7586,22 +7586,22 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>Panna</t>
+          <t>Pan</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>łania Panna Julia</t>
+          <t>kupił Pan Józef</t>
         </is>
       </c>
       <c r="D287" t="inlineStr">
         <is>
-          <t>panna</t>
+          <t>pan</t>
         </is>
       </c>
       <c r="E287" t="inlineStr">
         <is>
-          <t>Panna</t>
+          <t>Pan</t>
         </is>
       </c>
     </row>
@@ -7611,22 +7611,22 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>Siemiginowa</t>
+          <t>Nawaryi</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>sukcessorka Siemiginowa –</t>
+          <t>koło Nawaryi i</t>
         </is>
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>Siemiginów</t>
+          <t>Nawarya</t>
         </is>
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>Siemiginowa</t>
+          <t>Nawaryi</t>
         </is>
       </c>
     </row>
@@ -7636,22 +7636,22 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>Pan</t>
+          <t>ciepłey</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>kupił Pan Józef</t>
+          <t>ale ciepłey wdowy</t>
         </is>
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>pan</t>
+          <t>ciepły</t>
         </is>
       </c>
       <c r="E289" t="inlineStr">
         <is>
-          <t>Pan</t>
+          <t>ciepłey</t>
         </is>
       </c>
     </row>
@@ -7661,22 +7661,22 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>Nawaryi</t>
+          <t>Szołayskiego</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>koło Nawaryi i</t>
+          <t>pana Szołayskiego młodzika</t>
         </is>
       </c>
       <c r="D290" t="inlineStr">
         <is>
-          <t>Nawarya</t>
+          <t>Szołayski</t>
         </is>
       </c>
       <c r="E290" t="inlineStr">
         <is>
-          <t>Nawaryi</t>
+          <t>Szołayskiego</t>
         </is>
       </c>
     </row>
@@ -7686,22 +7686,22 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>ciepłey</t>
+          <t>pożyciu</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>ale ciepłey wdowy</t>
+          <t>nim pożyciu –</t>
         </is>
       </c>
       <c r="D291" t="inlineStr">
         <is>
-          <t>ciepły</t>
+          <t>pożycie</t>
         </is>
       </c>
       <c r="E291" t="inlineStr">
         <is>
-          <t>ciepłey</t>
+          <t>pożyć</t>
         </is>
       </c>
     </row>
@@ -7711,22 +7711,22 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>Szołayskiego</t>
+          <t>Separacya</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>pana Szołayskiego młodzika</t>
+          <t>nastąpiła Separacya .</t>
         </is>
       </c>
       <c r="D292" t="inlineStr">
         <is>
-          <t>Szołayski</t>
+          <t>separacya</t>
         </is>
       </c>
       <c r="E292" t="inlineStr">
         <is>
-          <t>Szołayskiego</t>
+          <t>Separacya</t>
         </is>
       </c>
     </row>
@@ -7736,22 +7736,22 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>pożyciu</t>
+          <t>procesa</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>nim pożyciu –</t>
+          <t>lubiła procesa –</t>
         </is>
       </c>
       <c r="D293" t="inlineStr">
         <is>
-          <t>pożycie</t>
+          <t>proces</t>
         </is>
       </c>
       <c r="E293" t="inlineStr">
         <is>
-          <t>pożyć</t>
+          <t>procesa</t>
         </is>
       </c>
     </row>
@@ -7761,22 +7761,22 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>Separacya</t>
+          <t>Lesniowic</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>nastąpiła Separacya .</t>
+          <t>do Lesniowic przyległe</t>
         </is>
       </c>
       <c r="D294" t="inlineStr">
         <is>
-          <t>separacya</t>
+          <t>Lesniowice</t>
         </is>
       </c>
       <c r="E294" t="inlineStr">
         <is>
-          <t>Separacya</t>
+          <t>Lesniowic</t>
         </is>
       </c>
     </row>
@@ -7786,70 +7786,20 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>procesa</t>
+          <t>Mosty</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>lubiła procesa –</t>
+          <t>przyległe Mosty .</t>
         </is>
       </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t>proces</t>
+          <t>Mosty</t>
         </is>
       </c>
       <c r="E295" t="inlineStr">
-        <is>
-          <t>procesa</t>
-        </is>
-      </c>
-    </row>
-    <row r="296">
-      <c r="A296" s="1" t="n">
-        <v>294</v>
-      </c>
-      <c r="B296" t="inlineStr">
-        <is>
-          <t>Lesniowic</t>
-        </is>
-      </c>
-      <c r="C296" t="inlineStr">
-        <is>
-          <t>do Lesniowic przyległe</t>
-        </is>
-      </c>
-      <c r="D296" t="inlineStr">
-        <is>
-          <t>Lesniowice</t>
-        </is>
-      </c>
-      <c r="E296" t="inlineStr">
-        <is>
-          <t>Lesniowic</t>
-        </is>
-      </c>
-    </row>
-    <row r="297">
-      <c r="A297" s="1" t="n">
-        <v>295</v>
-      </c>
-      <c r="B297" t="inlineStr">
-        <is>
-          <t>Mosty</t>
-        </is>
-      </c>
-      <c r="C297" t="inlineStr">
-        <is>
-          <t>przyległe Mosty .</t>
-        </is>
-      </c>
-      <c r="D297" t="inlineStr">
-        <is>
-          <t>Mosty</t>
-        </is>
-      </c>
-      <c r="E297" t="inlineStr">
         <is>
           <t>Most</t>
         </is>

--- a/data/mistakes/Morfeusz_lemma_mistakes.xlsx
+++ b/data/mistakes/Morfeusz_lemma_mistakes.xlsx
@@ -2571,7 +2571,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>oyca</t>
+          <t>oyciec</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -2596,7 +2596,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>oyca</t>
+          <t>oyciec</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -6146,7 +6146,7 @@
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>oyca</t>
+          <t>oyciec</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
@@ -7021,7 +7021,7 @@
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>oyca</t>
+          <t>oyciec</t>
         </is>
       </c>
       <c r="E264" t="inlineStr">
